--- a/BackTest/2019-10-24 BackTest BAT.xlsx
+++ b/BackTest/2019-10-24 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>11</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-40</v>
+      </c>
       <c r="L12" t="n">
         <v>286.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L13" t="n">
         <v>286.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L14" t="n">
         <v>285.8</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>14</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>285.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>16</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L16" t="n">
         <v>285.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>17</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>25</v>
+      </c>
       <c r="L17" t="n">
         <v>285.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>21</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L18" t="n">
         <v>285.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>21</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L19" t="n">
         <v>285.4</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>23</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L20" t="n">
         <v>285.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>23</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>285.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>23</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L22" t="n">
         <v>285.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.090909090909092</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L23" t="n">
         <v>286.1</v>
@@ -1466,7 +1488,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>286.2</v>
@@ -1515,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>286.1</v>
@@ -1564,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L26" t="n">
         <v>285.7</v>
@@ -1613,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.263157894736842</v>
+        <v>60</v>
       </c>
       <c r="L27" t="n">
         <v>285.6</v>
@@ -1662,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="K28" t="n">
-        <v>5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L28" t="n">
         <v>285.9</v>
@@ -1711,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>285.9</v>
@@ -1760,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>-10</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L30" t="n">
         <v>285.6</v>
@@ -1809,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>285.3</v>
@@ -1860,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L32" t="n">
         <v>285</v>
@@ -1911,7 +1933,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>284.9</v>
@@ -1962,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="K34" t="n">
-        <v>13.04347826086956</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>285.1</v>
@@ -2013,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="K35" t="n">
-        <v>4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L35" t="n">
         <v>285.3</v>
@@ -2064,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>285.7</v>
@@ -2115,7 +2137,7 @@
         <v>37</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L37" t="n">
         <v>286</v>
@@ -2166,7 +2188,7 @@
         <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>41.17647058823529</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L38" t="n">
         <v>286.4</v>
@@ -2217,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="K39" t="n">
-        <v>33.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L39" t="n">
         <v>287</v>
@@ -2268,7 +2290,7 @@
         <v>43</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L40" t="n">
         <v>287.3</v>
@@ -2319,7 +2341,7 @@
         <v>43</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L41" t="n">
         <v>287.6</v>
@@ -2370,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>287.8</v>
@@ -2421,7 +2443,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>288.1</v>
@@ -2472,7 +2494,7 @@
         <v>48</v>
       </c>
       <c r="K44" t="n">
-        <v>12</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L44" t="n">
         <v>288.2</v>
@@ -2523,7 +2545,7 @@
         <v>49</v>
       </c>
       <c r="K45" t="n">
-        <v>15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L45" t="n">
         <v>288.4</v>
@@ -2574,7 +2596,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="n">
-        <v>7.142857142857142</v>
+        <v>-20</v>
       </c>
       <c r="L46" t="n">
         <v>288.2</v>
@@ -2625,7 +2647,7 @@
         <v>53</v>
       </c>
       <c r="K47" t="n">
-        <v>3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L47" t="n">
         <v>288</v>
@@ -2676,7 +2698,7 @@
         <v>53</v>
       </c>
       <c r="K48" t="n">
-        <v>3.703703703703703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>287.7</v>
@@ -2727,7 +2749,7 @@
         <v>55</v>
       </c>
       <c r="K49" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>287.3</v>
@@ -2778,7 +2800,7 @@
         <v>55</v>
       </c>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>287.3</v>
@@ -2829,7 +2851,7 @@
         <v>57</v>
       </c>
       <c r="K51" t="n">
-        <v>18.51851851851852</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L51" t="n">
         <v>287.5</v>
@@ -2880,7 +2902,7 @@
         <v>57</v>
       </c>
       <c r="K52" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>287.8</v>
@@ -2931,7 +2953,7 @@
         <v>58</v>
       </c>
       <c r="K53" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>287.9</v>
@@ -2982,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>-4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L54" t="n">
         <v>287.7</v>
@@ -3033,7 +3055,7 @@
         <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>287.4</v>
@@ -3084,7 +3106,7 @@
         <v>60</v>
       </c>
       <c r="K56" t="n">
-        <v>-8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>287.4</v>
@@ -3135,7 +3157,7 @@
         <v>61</v>
       </c>
       <c r="K57" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L57" t="n">
         <v>287.2</v>
@@ -3186,7 +3208,7 @@
         <v>62</v>
       </c>
       <c r="K58" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>286.9</v>
@@ -3237,7 +3259,7 @@
         <v>64</v>
       </c>
       <c r="K59" t="n">
-        <v>-12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L59" t="n">
         <v>287</v>
@@ -3288,7 +3310,7 @@
         <v>64</v>
       </c>
       <c r="K60" t="n">
-        <v>4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L60" t="n">
         <v>287.1</v>
@@ -3339,7 +3361,7 @@
         <v>66</v>
       </c>
       <c r="K61" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>286.8</v>
@@ -3390,7 +3412,7 @@
         <v>68</v>
       </c>
       <c r="K62" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L62" t="n">
         <v>286.7</v>
@@ -3441,7 +3463,7 @@
         <v>70</v>
       </c>
       <c r="K63" t="n">
-        <v>-13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L63" t="n">
         <v>286.3</v>
@@ -3492,7 +3514,7 @@
         <v>70</v>
       </c>
       <c r="K64" t="n">
-        <v>-18.18181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L64" t="n">
         <v>286.1</v>
@@ -3543,7 +3565,7 @@
         <v>70</v>
       </c>
       <c r="K65" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L65" t="n">
         <v>285.9</v>
@@ -3594,7 +3616,7 @@
         <v>72</v>
       </c>
       <c r="K66" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L66" t="n">
         <v>285.5</v>
@@ -3645,7 +3667,7 @@
         <v>72</v>
       </c>
       <c r="K67" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L67" t="n">
         <v>285.2</v>
@@ -3696,7 +3718,7 @@
         <v>73</v>
       </c>
       <c r="K68" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>285.1</v>
@@ -3747,7 +3769,7 @@
         <v>73</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>284.8</v>
@@ -3798,7 +3820,7 @@
         <v>77</v>
       </c>
       <c r="K70" t="n">
-        <v>-27.27272727272727</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L70" t="n">
         <v>284.1</v>
@@ -3849,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="K71" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L71" t="n">
         <v>283.7</v>
@@ -3900,7 +3922,7 @@
         <v>80</v>
       </c>
       <c r="K72" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>283.3</v>
@@ -3951,7 +3973,7 @@
         <v>80</v>
       </c>
       <c r="K73" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L73" t="n">
         <v>283.1</v>
@@ -4053,7 +4075,7 @@
         <v>85</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L75" t="n">
         <v>283.2</v>
@@ -4104,7 +4126,7 @@
         <v>89</v>
       </c>
       <c r="K76" t="n">
-        <v>17.24137931034483</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L76" t="n">
         <v>284.1</v>
@@ -4155,7 +4177,7 @@
         <v>92</v>
       </c>
       <c r="K77" t="n">
-        <v>9.67741935483871</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L77" t="n">
         <v>284.7</v>
@@ -4206,7 +4228,7 @@
         <v>96</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L78" t="n">
         <v>284.8</v>
@@ -4257,7 +4279,7 @@
         <v>98</v>
       </c>
       <c r="K79" t="n">
-        <v>-11.76470588235294</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L79" t="n">
         <v>284.7</v>
@@ -4308,7 +4330,7 @@
         <v>98</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.76470588235294</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
         <v>285</v>
@@ -4359,7 +4381,7 @@
         <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.76470588235294</v>
+        <v>-10</v>
       </c>
       <c r="L81" t="n">
         <v>285</v>
@@ -4410,7 +4432,7 @@
         <v>101</v>
       </c>
       <c r="K82" t="n">
-        <v>-15.15151515151515</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L82" t="n">
         <v>284.9</v>
@@ -4461,7 +4483,7 @@
         <v>102</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>284.9</v>
@@ -4512,7 +4534,7 @@
         <v>104</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.76470588235294</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L84" t="n">
         <v>284.7</v>
@@ -4563,7 +4585,7 @@
         <v>105</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.571428571428571</v>
+        <v>-62.5</v>
       </c>
       <c r="L85" t="n">
         <v>284.1</v>
@@ -4614,7 +4636,7 @@
         <v>105</v>
       </c>
       <c r="K86" t="n">
-        <v>-3.03030303030303</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L86" t="n">
         <v>283.1</v>
@@ -4665,7 +4687,7 @@
         <v>105</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.03030303030303</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>282.4</v>
@@ -4716,7 +4738,7 @@
         <v>105</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L88" t="n">
         <v>282.1</v>
@@ -4767,7 +4789,7 @@
         <v>105</v>
       </c>
       <c r="K89" t="n">
-        <v>-6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>282</v>
@@ -4818,7 +4840,7 @@
         <v>105</v>
       </c>
       <c r="K90" t="n">
-        <v>7.142857142857142</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>281.9</v>
@@ -4869,7 +4891,7 @@
         <v>105</v>
       </c>
       <c r="K91" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>282</v>
@@ -4920,7 +4942,7 @@
         <v>105</v>
       </c>
       <c r="K92" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>282</v>
@@ -4971,7 +4993,7 @@
         <v>108</v>
       </c>
       <c r="K93" t="n">
-        <v>7.142857142857142</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>282.2</v>
@@ -5022,7 +5044,7 @@
         <v>108</v>
       </c>
       <c r="K94" t="n">
-        <v>7.142857142857142</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>282.6</v>
@@ -5073,7 +5095,7 @@
         <v>109</v>
       </c>
       <c r="K95" t="n">
-        <v>-16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L95" t="n">
         <v>282.8</v>
@@ -5124,7 +5146,7 @@
         <v>109</v>
       </c>
       <c r="K96" t="n">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="L96" t="n">
         <v>283</v>
@@ -5175,7 +5197,7 @@
         <v>109</v>
       </c>
       <c r="K97" t="n">
-        <v>-29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
         <v>283.2</v>
@@ -5226,7 +5248,7 @@
         <v>111</v>
       </c>
       <c r="K98" t="n">
-        <v>6.666666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L98" t="n">
         <v>283.6</v>
@@ -5277,7 +5299,7 @@
         <v>113</v>
       </c>
       <c r="K99" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L99" t="n">
         <v>283.8</v>
@@ -5328,7 +5350,7 @@
         <v>113</v>
       </c>
       <c r="K100" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L100" t="n">
         <v>284</v>
@@ -5379,7 +5401,7 @@
         <v>116</v>
       </c>
       <c r="K101" t="n">
-        <v>37.5</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L101" t="n">
         <v>284.5</v>
@@ -5430,7 +5452,7 @@
         <v>120</v>
       </c>
       <c r="K102" t="n">
-        <v>47.36842105263158</v>
+        <v>50</v>
       </c>
       <c r="L102" t="n">
         <v>285.4</v>
@@ -5481,7 +5503,7 @@
         <v>120</v>
       </c>
       <c r="K103" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="L103" t="n">
         <v>286</v>
@@ -5532,7 +5554,7 @@
         <v>121</v>
       </c>
       <c r="K104" t="n">
-        <v>52.94117647058824</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
         <v>286.5</v>
@@ -5685,7 +5707,7 @@
         <v>122</v>
       </c>
       <c r="K107" t="n">
-        <v>52.94117647058824</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L107" t="n">
         <v>288.4</v>
@@ -5736,7 +5758,7 @@
         <v>123</v>
       </c>
       <c r="K108" t="n">
-        <v>55.55555555555556</v>
+        <v>80</v>
       </c>
       <c r="L108" t="n">
         <v>289</v>
@@ -5787,7 +5809,7 @@
         <v>124</v>
       </c>
       <c r="K109" t="n">
-        <v>47.36842105263158</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L109" t="n">
         <v>289.7</v>
@@ -5838,7 +5860,7 @@
         <v>124</v>
       </c>
       <c r="K110" t="n">
-        <v>47.36842105263158</v>
+        <v>50</v>
       </c>
       <c r="L110" t="n">
         <v>290.4</v>
@@ -5889,7 +5911,7 @@
         <v>126</v>
       </c>
       <c r="K111" t="n">
-        <v>52.38095238095239</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>291</v>
@@ -5940,7 +5962,7 @@
         <v>127</v>
       </c>
       <c r="K112" t="n">
-        <v>54.54545454545454</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L112" t="n">
         <v>291.3</v>
@@ -5991,7 +6013,7 @@
         <v>129</v>
       </c>
       <c r="K113" t="n">
-        <v>52.38095238095239</v>
+        <v>75</v>
       </c>
       <c r="L113" t="n">
         <v>291.8</v>
@@ -6042,7 +6064,7 @@
         <v>130</v>
       </c>
       <c r="K114" t="n">
-        <v>54.54545454545454</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L114" t="n">
         <v>292.5</v>
@@ -6093,7 +6115,7 @@
         <v>131</v>
       </c>
       <c r="K115" t="n">
-        <v>63.63636363636363</v>
+        <v>80</v>
       </c>
       <c r="L115" t="n">
         <v>293.3</v>
@@ -6144,7 +6166,7 @@
         <v>134</v>
       </c>
       <c r="K116" t="n">
-        <v>44</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>293.8</v>
@@ -6195,7 +6217,7 @@
         <v>134</v>
       </c>
       <c r="K117" t="n">
-        <v>44</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L117" t="n">
         <v>294.2</v>
@@ -6246,7 +6268,7 @@
         <v>134</v>
       </c>
       <c r="K118" t="n">
-        <v>39.1304347826087</v>
+        <v>40</v>
       </c>
       <c r="L118" t="n">
         <v>294.5</v>
@@ -6297,7 +6319,7 @@
         <v>134</v>
       </c>
       <c r="K119" t="n">
-        <v>52.38095238095239</v>
+        <v>40</v>
       </c>
       <c r="L119" t="n">
         <v>294.9</v>
@@ -6348,7 +6370,7 @@
         <v>135</v>
       </c>
       <c r="K120" t="n">
-        <v>45.45454545454545</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L120" t="n">
         <v>295.2</v>
@@ -6399,7 +6421,7 @@
         <v>136</v>
       </c>
       <c r="K121" t="n">
-        <v>40</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L121" t="n">
         <v>295.4</v>
@@ -6450,7 +6472,7 @@
         <v>138</v>
       </c>
       <c r="K122" t="n">
-        <v>33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>295.7</v>
@@ -6501,7 +6523,7 @@
         <v>138</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>295.8</v>
@@ -6552,7 +6574,7 @@
         <v>138</v>
       </c>
       <c r="K124" t="n">
-        <v>41.17647058823529</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>295.8</v>
@@ -6603,7 +6625,7 @@
         <v>138</v>
       </c>
       <c r="K125" t="n">
-        <v>41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L125" t="n">
         <v>295.7</v>
@@ -6654,7 +6676,7 @@
         <v>138</v>
       </c>
       <c r="K126" t="n">
-        <v>41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L126" t="n">
         <v>295.9</v>
@@ -6705,7 +6727,7 @@
         <v>138</v>
       </c>
       <c r="K127" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L127" t="n">
         <v>296.1</v>
@@ -6756,7 +6778,7 @@
         <v>140</v>
       </c>
       <c r="K128" t="n">
-        <v>41.17647058823529</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L128" t="n">
         <v>296.5</v>
@@ -6807,7 +6829,7 @@
         <v>143</v>
       </c>
       <c r="K129" t="n">
-        <v>26.31578947368421</v>
+        <v>25</v>
       </c>
       <c r="L129" t="n">
         <v>296.6</v>
@@ -6858,7 +6880,7 @@
         <v>143</v>
       </c>
       <c r="K130" t="n">
-        <v>26.31578947368421</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>296.8</v>
@@ -6909,7 +6931,7 @@
         <v>143</v>
       </c>
       <c r="K131" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L131" t="n">
         <v>296.9</v>
@@ -6960,7 +6982,7 @@
         <v>144</v>
       </c>
       <c r="K132" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>296.9</v>
@@ -7011,7 +7033,7 @@
         <v>145</v>
       </c>
       <c r="K133" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>297</v>
@@ -7062,7 +7084,7 @@
         <v>147</v>
       </c>
       <c r="K134" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>297.3</v>
@@ -7113,7 +7135,7 @@
         <v>148</v>
       </c>
       <c r="K135" t="n">
-        <v>17.64705882352941</v>
+        <v>40</v>
       </c>
       <c r="L135" t="n">
         <v>297.7</v>
@@ -7164,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="K136" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L136" t="n">
         <v>298</v>
@@ -7215,7 +7237,7 @@
         <v>150</v>
       </c>
       <c r="K137" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="L137" t="n">
         <v>298.4</v>
@@ -7266,7 +7288,7 @@
         <v>150</v>
       </c>
       <c r="K138" t="n">
-        <v>37.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L138" t="n">
         <v>298.6</v>
@@ -7317,7 +7339,7 @@
         <v>150</v>
       </c>
       <c r="K139" t="n">
-        <v>37.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L139" t="n">
         <v>299.1</v>
@@ -7368,7 +7390,7 @@
         <v>151</v>
       </c>
       <c r="K140" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L140" t="n">
         <v>299.5</v>
@@ -7521,7 +7543,7 @@
         <v>153</v>
       </c>
       <c r="K143" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>300</v>
@@ -7572,7 +7594,7 @@
         <v>153</v>
       </c>
       <c r="K144" t="n">
-        <v>6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L144" t="n">
         <v>299.8</v>
@@ -7623,7 +7645,7 @@
         <v>153</v>
       </c>
       <c r="K145" t="n">
-        <v>6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L145" t="n">
         <v>299.5</v>
@@ -7674,7 +7696,7 @@
         <v>153</v>
       </c>
       <c r="K146" t="n">
-        <v>6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L146" t="n">
         <v>299.3</v>
@@ -7725,7 +7747,7 @@
         <v>154</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L147" t="n">
         <v>298.9</v>
@@ -7776,7 +7798,7 @@
         <v>154</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L148" t="n">
         <v>298.5</v>
@@ -7827,7 +7849,7 @@
         <v>154</v>
       </c>
       <c r="K149" t="n">
-        <v>9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L149" t="n">
         <v>298.1</v>
@@ -7878,7 +7900,7 @@
         <v>154</v>
       </c>
       <c r="K150" t="n">
-        <v>9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>297.8</v>
@@ -7929,7 +7951,7 @@
         <v>155</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>297.5</v>
@@ -7980,7 +8002,7 @@
         <v>155</v>
       </c>
       <c r="K152" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>297.2</v>
@@ -8031,7 +8053,7 @@
         <v>156</v>
       </c>
       <c r="K153" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>297.1</v>
@@ -8082,7 +8104,7 @@
         <v>157</v>
       </c>
       <c r="K154" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L154" t="n">
         <v>296.9</v>
@@ -8235,7 +8257,7 @@
         <v>162</v>
       </c>
       <c r="K157" t="n">
-        <v>-83.33333333333334</v>
+        <v>-75</v>
       </c>
       <c r="L157" t="n">
         <v>295.6</v>
@@ -8286,7 +8308,7 @@
         <v>164</v>
       </c>
       <c r="K158" t="n">
-        <v>-57.14285714285714</v>
+        <v>-40</v>
       </c>
       <c r="L158" t="n">
         <v>295.2</v>
@@ -8337,7 +8359,7 @@
         <v>164</v>
       </c>
       <c r="K159" t="n">
-        <v>-57.14285714285714</v>
+        <v>-40</v>
       </c>
       <c r="L159" t="n">
         <v>294.8</v>
@@ -8388,7 +8410,7 @@
         <v>165</v>
       </c>
       <c r="K160" t="n">
-        <v>-57.14285714285714</v>
+        <v>-40</v>
       </c>
       <c r="L160" t="n">
         <v>294.3</v>
@@ -8439,7 +8461,7 @@
         <v>165</v>
       </c>
       <c r="K161" t="n">
-        <v>-53.84615384615385</v>
+        <v>-40</v>
       </c>
       <c r="L161" t="n">
         <v>293.9</v>
@@ -8490,7 +8512,7 @@
         <v>166</v>
       </c>
       <c r="K162" t="n">
-        <v>-42.85714285714285</v>
+        <v>-40</v>
       </c>
       <c r="L162" t="n">
         <v>293.6</v>
@@ -8541,7 +8563,7 @@
         <v>168</v>
       </c>
       <c r="K163" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L163" t="n">
         <v>293.4</v>
@@ -8592,7 +8614,7 @@
         <v>171</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L164" t="n">
         <v>293.6</v>
@@ -8643,7 +8665,7 @@
         <v>171</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>293.9</v>
@@ -8694,7 +8716,7 @@
         <v>172</v>
       </c>
       <c r="K166" t="n">
-        <v>-5.263157894736842</v>
+        <v>60</v>
       </c>
       <c r="L166" t="n">
         <v>294.2</v>
@@ -8745,7 +8767,7 @@
         <v>172</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L167" t="n">
         <v>294.8</v>
@@ -8796,7 +8818,7 @@
         <v>174</v>
       </c>
       <c r="K168" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>295</v>
@@ -8847,7 +8869,7 @@
         <v>174</v>
       </c>
       <c r="K169" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>295.2</v>
@@ -8898,7 +8920,7 @@
         <v>174</v>
       </c>
       <c r="K170" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>295.5</v>
@@ -8949,7 +8971,7 @@
         <v>175</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>295.9</v>
@@ -9000,7 +9022,7 @@
         <v>176</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>296.1</v>
@@ -9051,7 +9073,7 @@
         <v>176</v>
       </c>
       <c r="K173" t="n">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="L173" t="n">
         <v>296.1</v>
@@ -9102,7 +9124,7 @@
         <v>179</v>
       </c>
       <c r="K174" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>296.1</v>
@@ -9153,7 +9175,7 @@
         <v>181</v>
       </c>
       <c r="K175" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>296.3</v>
@@ -9204,7 +9226,7 @@
         <v>182</v>
       </c>
       <c r="K176" t="n">
-        <v>30.43478260869566</v>
+        <v>40</v>
       </c>
       <c r="L176" t="n">
         <v>296.7</v>
@@ -9255,7 +9277,7 @@
         <v>183</v>
       </c>
       <c r="K177" t="n">
-        <v>42.85714285714285</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L177" t="n">
         <v>297</v>
@@ -9306,7 +9328,7 @@
         <v>185</v>
       </c>
       <c r="K178" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L178" t="n">
         <v>297.3</v>
@@ -9357,7 +9379,7 @@
         <v>187</v>
       </c>
       <c r="K179" t="n">
-        <v>13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L179" t="n">
         <v>297.4</v>
@@ -9408,7 +9430,7 @@
         <v>187</v>
       </c>
       <c r="K180" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>297.5</v>
@@ -9459,7 +9481,7 @@
         <v>188</v>
       </c>
       <c r="K181" t="n">
-        <v>21.73913043478261</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L181" t="n">
         <v>297.6</v>
@@ -9510,7 +9532,7 @@
         <v>189</v>
       </c>
       <c r="K182" t="n">
-        <v>13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L182" t="n">
         <v>297.7</v>
@@ -9561,7 +9583,7 @@
         <v>189</v>
       </c>
       <c r="K183" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L183" t="n">
         <v>297.8</v>
@@ -9612,7 +9634,7 @@
         <v>190</v>
       </c>
       <c r="K184" t="n">
-        <v>-15.78947368421053</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L184" t="n">
         <v>297.5</v>
@@ -9663,7 +9685,7 @@
         <v>190</v>
       </c>
       <c r="K185" t="n">
-        <v>-15.78947368421053</v>
+        <v>-75</v>
       </c>
       <c r="L185" t="n">
         <v>297</v>
@@ -9714,7 +9736,7 @@
         <v>190</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.11111111111111</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L186" t="n">
         <v>296.4</v>
@@ -9765,7 +9787,7 @@
         <v>191</v>
       </c>
       <c r="K187" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>296</v>
@@ -9816,7 +9838,7 @@
         <v>192</v>
       </c>
       <c r="K188" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L188" t="n">
         <v>295.9</v>
@@ -9867,7 +9889,7 @@
         <v>193</v>
       </c>
       <c r="K189" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>295.9</v>
@@ -9918,7 +9940,7 @@
         <v>194</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>295.8</v>
@@ -9969,7 +9991,7 @@
         <v>194</v>
       </c>
       <c r="K191" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L191" t="n">
         <v>295.6</v>
@@ -10020,7 +10042,7 @@
         <v>194</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L192" t="n">
         <v>295.5</v>
@@ -10122,7 +10144,7 @@
         <v>194</v>
       </c>
       <c r="K194" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>295.4</v>
@@ -10173,7 +10195,7 @@
         <v>196</v>
       </c>
       <c r="K195" t="n">
-        <v>-46.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>295.2</v>
@@ -10224,7 +10246,7 @@
         <v>196</v>
       </c>
       <c r="K196" t="n">
-        <v>-57.14285714285714</v>
+        <v>-60</v>
       </c>
       <c r="L196" t="n">
         <v>295</v>
@@ -10275,7 +10297,7 @@
         <v>197</v>
       </c>
       <c r="K197" t="n">
-        <v>-57.14285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L197" t="n">
         <v>294.6</v>
@@ -10326,7 +10348,7 @@
         <v>198</v>
       </c>
       <c r="K198" t="n">
-        <v>-38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L198" t="n">
         <v>294.2</v>
@@ -10377,7 +10399,7 @@
         <v>198</v>
       </c>
       <c r="K199" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L199" t="n">
         <v>293.9</v>
@@ -10428,7 +10450,7 @@
         <v>198</v>
       </c>
       <c r="K200" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L200" t="n">
         <v>293.7</v>
@@ -10479,7 +10501,7 @@
         <v>198</v>
       </c>
       <c r="K201" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L201" t="n">
         <v>293.5</v>
@@ -10530,7 +10552,7 @@
         <v>200</v>
       </c>
       <c r="K202" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>293.5</v>
@@ -10581,7 +10603,7 @@
         <v>202</v>
       </c>
       <c r="K203" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L203" t="n">
         <v>293.3</v>
@@ -10632,7 +10654,7 @@
         <v>202</v>
       </c>
       <c r="K204" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>293.1</v>
@@ -10683,7 +10705,7 @@
         <v>202</v>
       </c>
       <c r="K205" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>293.1</v>
@@ -10734,7 +10756,7 @@
         <v>202</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L206" t="n">
         <v>293.1</v>
@@ -10785,7 +10807,7 @@
         <v>202</v>
       </c>
       <c r="K207" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>293.2</v>
@@ -10836,7 +10858,7 @@
         <v>202</v>
       </c>
       <c r="K208" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>293.2</v>
@@ -10887,7 +10909,7 @@
         <v>202</v>
       </c>
       <c r="K209" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>293.2</v>
@@ -10938,7 +10960,7 @@
         <v>202</v>
       </c>
       <c r="K210" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>293.2</v>
@@ -10989,7 +11011,7 @@
         <v>202</v>
       </c>
       <c r="K211" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L211" t="n">
         <v>293.2</v>
@@ -11039,9 +11061,7 @@
       <c r="J212" t="n">
         <v>202</v>
       </c>
-      <c r="K212" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>293</v>
       </c>
@@ -11091,7 +11111,7 @@
         <v>204</v>
       </c>
       <c r="K213" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L213" t="n">
         <v>292.8</v>
@@ -11142,7 +11162,7 @@
         <v>206</v>
       </c>
       <c r="K214" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>292.8</v>
@@ -11295,7 +11315,7 @@
         <v>207</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L217" t="n">
         <v>292.7</v>
@@ -11550,7 +11570,7 @@
         <v>208</v>
       </c>
       <c r="K222" t="n">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="L222" t="n">
         <v>292.7</v>
@@ -11652,7 +11672,7 @@
         <v>210</v>
       </c>
       <c r="K224" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L224" t="n">
         <v>293.1</v>
@@ -11703,7 +11723,7 @@
         <v>210</v>
       </c>
       <c r="K225" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L225" t="n">
         <v>293.3</v>
@@ -11754,7 +11774,7 @@
         <v>211</v>
       </c>
       <c r="K226" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L226" t="n">
         <v>293.4</v>
@@ -11805,7 +11825,7 @@
         <v>214</v>
       </c>
       <c r="K227" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>293.3</v>
@@ -11856,7 +11876,7 @@
         <v>214</v>
       </c>
       <c r="K228" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>293.1</v>
@@ -11907,7 +11927,7 @@
         <v>215</v>
       </c>
       <c r="K229" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L229" t="n">
         <v>292.8</v>
@@ -11958,7 +11978,7 @@
         <v>216</v>
       </c>
       <c r="K230" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L230" t="n">
         <v>292.4</v>
@@ -12009,7 +12029,7 @@
         <v>216</v>
       </c>
       <c r="K231" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L231" t="n">
         <v>292</v>
@@ -12060,7 +12080,7 @@
         <v>216</v>
       </c>
       <c r="K232" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L232" t="n">
         <v>291.6</v>
@@ -12111,7 +12131,7 @@
         <v>217</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.692307692307693</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L233" t="n">
         <v>291.3</v>
@@ -12162,7 +12182,7 @@
         <v>219</v>
       </c>
       <c r="K234" t="n">
-        <v>-38.46153846153847</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L234" t="n">
         <v>290.6</v>
@@ -12213,7 +12233,7 @@
         <v>220</v>
       </c>
       <c r="K235" t="n">
-        <v>-42.85714285714285</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L235" t="n">
         <v>289.8</v>
@@ -12264,7 +12284,7 @@
         <v>220</v>
       </c>
       <c r="K236" t="n">
-        <v>-42.85714285714285</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L236" t="n">
         <v>289.1</v>
@@ -12315,7 +12335,7 @@
         <v>224</v>
       </c>
       <c r="K237" t="n">
-        <v>-52.94117647058824</v>
+        <v>-80</v>
       </c>
       <c r="L237" t="n">
         <v>288.3</v>
@@ -12366,7 +12386,7 @@
         <v>225</v>
       </c>
       <c r="K238" t="n">
-        <v>-64.70588235294117</v>
+        <v>-80</v>
       </c>
       <c r="L238" t="n">
         <v>287.4</v>
@@ -12417,7 +12437,7 @@
         <v>226</v>
       </c>
       <c r="K239" t="n">
-        <v>-55.55555555555556</v>
+        <v>-60</v>
       </c>
       <c r="L239" t="n">
         <v>286.7</v>
@@ -12468,7 +12488,7 @@
         <v>227</v>
       </c>
       <c r="K240" t="n">
-        <v>-47.36842105263158</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L240" t="n">
         <v>286.2</v>
@@ -12519,7 +12539,7 @@
         <v>227</v>
       </c>
       <c r="K241" t="n">
-        <v>-47.36842105263158</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L241" t="n">
         <v>285.7</v>
@@ -12570,7 +12590,7 @@
         <v>230</v>
       </c>
       <c r="K242" t="n">
-        <v>-54.54545454545454</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L242" t="n">
         <v>284.9</v>
@@ -12621,7 +12641,7 @@
         <v>231</v>
       </c>
       <c r="K243" t="n">
-        <v>-47.82608695652174</v>
+        <v>-50</v>
       </c>
       <c r="L243" t="n">
         <v>284.1</v>
@@ -12672,7 +12692,7 @@
         <v>232</v>
       </c>
       <c r="K244" t="n">
-        <v>-54.54545454545454</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>283.6</v>
@@ -12723,7 +12743,7 @@
         <v>232</v>
       </c>
       <c r="K245" t="n">
-        <v>-54.54545454545454</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>283.2</v>
@@ -12774,7 +12794,7 @@
         <v>232</v>
       </c>
       <c r="K246" t="n">
-        <v>-52.38095238095239</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>282.8</v>
@@ -12825,7 +12845,7 @@
         <v>234</v>
       </c>
       <c r="K247" t="n">
-        <v>-30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L247" t="n">
         <v>283</v>
@@ -12876,7 +12896,7 @@
         <v>237</v>
       </c>
       <c r="K248" t="n">
-        <v>-39.1304347826087</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L248" t="n">
         <v>283</v>
@@ -12927,7 +12947,7 @@
         <v>239</v>
       </c>
       <c r="K249" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>283.1</v>
@@ -12978,7 +12998,7 @@
         <v>240</v>
       </c>
       <c r="K250" t="n">
-        <v>-16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L250" t="n">
         <v>283.2</v>
@@ -13029,7 +13049,7 @@
         <v>240</v>
       </c>
       <c r="K251" t="n">
-        <v>-16.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L251" t="n">
         <v>283.3</v>
@@ -13080,7 +13100,7 @@
         <v>240</v>
       </c>
       <c r="K252" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>283.7</v>
@@ -13131,7 +13151,7 @@
         <v>241</v>
       </c>
       <c r="K253" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>284.1</v>
@@ -13182,7 +13202,7 @@
         <v>241</v>
       </c>
       <c r="K254" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>284.4</v>
@@ -13233,7 +13253,7 @@
         <v>242</v>
       </c>
       <c r="K255" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L255" t="n">
         <v>284.6</v>
@@ -13284,7 +13304,7 @@
         <v>243</v>
       </c>
       <c r="K256" t="n">
-        <v>-4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L256" t="n">
         <v>284.9</v>
@@ -13335,7 +13355,7 @@
         <v>243</v>
       </c>
       <c r="K257" t="n">
-        <v>15.78947368421053</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L257" t="n">
         <v>285</v>
@@ -13386,7 +13406,7 @@
         <v>244</v>
       </c>
       <c r="K258" t="n">
-        <v>26.31578947368421</v>
+        <v>60</v>
       </c>
       <c r="L258" t="n">
         <v>285.5</v>
@@ -13437,7 +13457,7 @@
         <v>246</v>
       </c>
       <c r="K259" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>285.6</v>
@@ -13488,7 +13508,7 @@
         <v>248</v>
       </c>
       <c r="K260" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L260" t="n">
         <v>285.8</v>
@@ -13539,7 +13559,7 @@
         <v>248</v>
       </c>
       <c r="K261" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L261" t="n">
         <v>286</v>
@@ -13590,7 +13610,7 @@
         <v>248</v>
       </c>
       <c r="K262" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L262" t="n">
         <v>286.2</v>
@@ -13641,7 +13661,7 @@
         <v>249</v>
       </c>
       <c r="K263" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>286.2</v>
@@ -13692,7 +13712,7 @@
         <v>252</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L264" t="n">
         <v>285.9</v>
@@ -13743,7 +13763,7 @@
         <v>252</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>285.7</v>
@@ -13794,7 +13814,7 @@
         <v>252</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>285.4</v>
@@ -13845,7 +13865,7 @@
         <v>252</v>
       </c>
       <c r="K267" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L267" t="n">
         <v>285.1</v>
@@ -13896,7 +13916,7 @@
         <v>257</v>
       </c>
       <c r="K268" t="n">
-        <v>30</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L268" t="n">
         <v>285.2</v>
@@ -13947,7 +13967,7 @@
         <v>258</v>
       </c>
       <c r="K269" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L269" t="n">
         <v>285.6</v>
@@ -13998,7 +14018,7 @@
         <v>258</v>
       </c>
       <c r="K270" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L270" t="n">
         <v>285.8</v>
@@ -14049,7 +14069,7 @@
         <v>258</v>
       </c>
       <c r="K271" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L271" t="n">
         <v>286</v>
@@ -14100,7 +14120,7 @@
         <v>260</v>
       </c>
       <c r="K272" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L272" t="n">
         <v>286</v>
@@ -14151,7 +14171,7 @@
         <v>260</v>
       </c>
       <c r="K273" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L273" t="n">
         <v>286.1</v>
@@ -14202,7 +14222,7 @@
         <v>260</v>
       </c>
       <c r="K274" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L274" t="n">
         <v>286.5</v>
@@ -14253,7 +14273,7 @@
         <v>261</v>
       </c>
       <c r="K275" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L275" t="n">
         <v>286.8</v>
@@ -14304,7 +14324,7 @@
         <v>261</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>287.1</v>
@@ -14355,7 +14375,7 @@
         <v>262</v>
       </c>
       <c r="K277" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L277" t="n">
         <v>287.5</v>
@@ -14406,7 +14426,7 @@
         <v>264</v>
       </c>
       <c r="K278" t="n">
-        <v>-10</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L278" t="n">
         <v>287.2</v>
@@ -14457,7 +14477,7 @@
         <v>266</v>
       </c>
       <c r="K279" t="n">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="L279" t="n">
         <v>287</v>
@@ -14508,7 +14528,7 @@
         <v>266</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L280" t="n">
         <v>286.8</v>
@@ -14610,7 +14630,7 @@
         <v>267</v>
       </c>
       <c r="K282" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L282" t="n">
         <v>286.7</v>
@@ -14661,7 +14681,7 @@
         <v>268</v>
       </c>
       <c r="K283" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L283" t="n">
         <v>286.9</v>
@@ -14712,7 +14732,7 @@
         <v>269</v>
       </c>
       <c r="K284" t="n">
-        <v>41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L284" t="n">
         <v>287.2</v>
@@ -14763,7 +14783,7 @@
         <v>269</v>
       </c>
       <c r="K285" t="n">
-        <v>41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L285" t="n">
         <v>287.6</v>
@@ -14814,7 +14834,7 @@
         <v>269</v>
       </c>
       <c r="K286" t="n">
-        <v>41.17647058823529</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L286" t="n">
         <v>288</v>
@@ -14865,7 +14885,7 @@
         <v>269</v>
       </c>
       <c r="K287" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L287" t="n">
         <v>288.3</v>
@@ -14916,7 +14936,7 @@
         <v>272</v>
       </c>
       <c r="K288" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>288.5</v>
@@ -14967,7 +14987,7 @@
         <v>274</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L289" t="n">
         <v>288.7</v>
@@ -15018,7 +15038,7 @@
         <v>274</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L290" t="n">
         <v>288.9</v>
@@ -15120,7 +15140,7 @@
         <v>277</v>
       </c>
       <c r="K292" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L292" t="n">
         <v>288.9</v>
@@ -15171,7 +15191,7 @@
         <v>278</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>288.7</v>
@@ -15222,7 +15242,7 @@
         <v>279</v>
       </c>
       <c r="K294" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L294" t="n">
         <v>288.5</v>
@@ -15273,7 +15293,7 @@
         <v>279</v>
       </c>
       <c r="K295" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L295" t="n">
         <v>288.3</v>
@@ -15324,7 +15344,7 @@
         <v>282</v>
       </c>
       <c r="K296" t="n">
-        <v>-4.761904761904762</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L296" t="n">
         <v>287.8</v>
@@ -15426,7 +15446,7 @@
         <v>287</v>
       </c>
       <c r="K298" t="n">
-        <v>-4.347826086956522</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L298" t="n">
         <v>287.2</v>
@@ -15477,7 +15497,7 @@
         <v>288</v>
       </c>
       <c r="K299" t="n">
-        <v>-18.18181818181818</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L299" t="n">
         <v>286.6</v>
@@ -15528,7 +15548,7 @@
         <v>289</v>
       </c>
       <c r="K300" t="n">
-        <v>-13.04347826086956</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L300" t="n">
         <v>286.1</v>
@@ -15579,7 +15599,7 @@
         <v>289</v>
       </c>
       <c r="K301" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>285.8</v>
@@ -15630,7 +15650,7 @@
         <v>290</v>
       </c>
       <c r="K302" t="n">
-        <v>-13.04347826086956</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L302" t="n">
         <v>285.5</v>
@@ -15681,7 +15701,7 @@
         <v>290</v>
       </c>
       <c r="K303" t="n">
-        <v>-18.18181818181818</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L303" t="n">
         <v>285.3</v>
@@ -15732,7 +15752,7 @@
         <v>290</v>
       </c>
       <c r="K304" t="n">
-        <v>-23.80952380952381</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L304" t="n">
         <v>285</v>
@@ -15783,7 +15803,7 @@
         <v>292</v>
       </c>
       <c r="K305" t="n">
-        <v>-30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L305" t="n">
         <v>284.5</v>
@@ -15834,7 +15854,7 @@
         <v>293</v>
       </c>
       <c r="K306" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L306" t="n">
         <v>284.2</v>
@@ -15936,7 +15956,7 @@
         <v>293</v>
       </c>
       <c r="K308" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L308" t="n">
         <v>283.5</v>
@@ -15987,7 +16007,7 @@
         <v>298</v>
       </c>
       <c r="K309" t="n">
-        <v>-8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>283.9</v>
@@ -16038,7 +16058,7 @@
         <v>298</v>
       </c>
       <c r="K310" t="n">
-        <v>-8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>284.2</v>
@@ -16089,7 +16109,7 @@
         <v>299</v>
       </c>
       <c r="K311" t="n">
-        <v>-4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L311" t="n">
         <v>284.4</v>
@@ -16140,7 +16160,7 @@
         <v>301</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L312" t="n">
         <v>284.7</v>
@@ -16191,7 +16211,7 @@
         <v>303</v>
       </c>
       <c r="K313" t="n">
-        <v>-4</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L313" t="n">
         <v>284.8</v>
@@ -16242,7 +16262,7 @@
         <v>304</v>
       </c>
       <c r="K314" t="n">
-        <v>-12</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L314" t="n">
         <v>284.8</v>
@@ -16293,7 +16313,7 @@
         <v>305</v>
       </c>
       <c r="K315" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L315" t="n">
         <v>285.1</v>
@@ -16344,7 +16364,7 @@
         <v>305</v>
       </c>
       <c r="K316" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L316" t="n">
         <v>285.5</v>
@@ -16395,7 +16415,7 @@
         <v>305</v>
       </c>
       <c r="K317" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>285.9</v>
@@ -16446,7 +16466,7 @@
         <v>306</v>
       </c>
       <c r="K318" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>286.4</v>
@@ -16497,7 +16517,7 @@
         <v>306</v>
       </c>
       <c r="K319" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>286.4</v>
@@ -16548,7 +16568,7 @@
         <v>308</v>
       </c>
       <c r="K320" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L320" t="n">
         <v>286.2</v>
@@ -16599,7 +16619,7 @@
         <v>308</v>
       </c>
       <c r="K321" t="n">
-        <v>5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L321" t="n">
         <v>286.1</v>
@@ -16650,7 +16670,7 @@
         <v>309</v>
       </c>
       <c r="K322" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>285.9</v>
@@ -16752,7 +16772,7 @@
         <v>310</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L324" t="n">
         <v>285.8</v>
@@ -16803,7 +16823,7 @@
         <v>311</v>
       </c>
       <c r="K325" t="n">
-        <v>5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>285.6</v>
@@ -16854,7 +16874,7 @@
         <v>311</v>
       </c>
       <c r="K326" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>285.4</v>
@@ -16905,7 +16925,7 @@
         <v>312</v>
       </c>
       <c r="K327" t="n">
-        <v>15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L327" t="n">
         <v>285.3</v>
@@ -16956,7 +16976,7 @@
         <v>313</v>
       </c>
       <c r="K328" t="n">
-        <v>10</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L328" t="n">
         <v>285</v>
@@ -17058,7 +17078,7 @@
         <v>314</v>
       </c>
       <c r="K330" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>284.7</v>
@@ -17109,7 +17129,7 @@
         <v>315</v>
       </c>
       <c r="K331" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>284.6</v>
@@ -17160,7 +17180,7 @@
         <v>315</v>
       </c>
       <c r="K332" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L332" t="n">
         <v>284.4</v>
@@ -17211,7 +17231,7 @@
         <v>316</v>
       </c>
       <c r="K333" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>284.4</v>
@@ -17262,7 +17282,7 @@
         <v>318</v>
       </c>
       <c r="K334" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L334" t="n">
         <v>284.6</v>
@@ -17313,7 +17333,7 @@
         <v>318</v>
       </c>
       <c r="K335" t="n">
-        <v>7.692307692307693</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L335" t="n">
         <v>284.9</v>
@@ -17364,7 +17384,7 @@
         <v>319</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L336" t="n">
         <v>285.1</v>
@@ -17415,7 +17435,7 @@
         <v>319</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>285.2</v>
@@ -17466,7 +17486,7 @@
         <v>319</v>
       </c>
       <c r="K338" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>285.4</v>
@@ -17517,7 +17537,7 @@
         <v>319</v>
       </c>
       <c r="K339" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L339" t="n">
         <v>285.6</v>
@@ -17568,7 +17588,7 @@
         <v>319</v>
       </c>
       <c r="K340" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L340" t="n">
         <v>285.7</v>
@@ -17619,7 +17639,7 @@
         <v>320</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L341" t="n">
         <v>285.8</v>
@@ -17670,7 +17690,7 @@
         <v>320</v>
       </c>
       <c r="K342" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>285.9</v>
@@ -17721,7 +17741,7 @@
         <v>320</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L343" t="n">
         <v>285.9</v>
@@ -17772,7 +17792,7 @@
         <v>322</v>
       </c>
       <c r="K344" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>285.9</v>
@@ -17823,7 +17843,7 @@
         <v>324</v>
       </c>
       <c r="K345" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L345" t="n">
         <v>285.7</v>
@@ -17874,7 +17894,7 @@
         <v>325</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>285.5</v>
@@ -17925,7 +17945,7 @@
         <v>327</v>
       </c>
       <c r="K347" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L347" t="n">
         <v>285.1</v>
@@ -17976,7 +17996,7 @@
         <v>329</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L348" t="n">
         <v>284.9</v>
@@ -18027,7 +18047,7 @@
         <v>330</v>
       </c>
       <c r="K349" t="n">
-        <v>-5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L349" t="n">
         <v>284.6</v>
@@ -18078,7 +18098,7 @@
         <v>330</v>
       </c>
       <c r="K350" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L350" t="n">
         <v>284.3</v>
@@ -18129,7 +18149,7 @@
         <v>330</v>
       </c>
       <c r="K351" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L351" t="n">
         <v>284.1</v>
@@ -18180,7 +18200,7 @@
         <v>332</v>
       </c>
       <c r="K352" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>284.1</v>
@@ -18231,7 +18251,7 @@
         <v>332</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L353" t="n">
         <v>284.1</v>
@@ -18282,7 +18302,7 @@
         <v>334</v>
       </c>
       <c r="K354" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L354" t="n">
         <v>283.7</v>
@@ -18333,7 +18353,7 @@
         <v>335</v>
       </c>
       <c r="K355" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>283.6</v>
@@ -18384,7 +18404,7 @@
         <v>337</v>
       </c>
       <c r="K356" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>283.4</v>
@@ -18435,7 +18455,7 @@
         <v>338</v>
       </c>
       <c r="K357" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L357" t="n">
         <v>283.3</v>
@@ -18486,7 +18506,7 @@
         <v>340</v>
       </c>
       <c r="K358" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>283.2</v>
@@ -18537,7 +18557,7 @@
         <v>341</v>
       </c>
       <c r="K359" t="n">
-        <v>-9.090909090909092</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L359" t="n">
         <v>283.3</v>
@@ -18588,7 +18608,7 @@
         <v>342</v>
       </c>
       <c r="K360" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>283.3</v>
@@ -18639,7 +18659,7 @@
         <v>342</v>
       </c>
       <c r="K361" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L361" t="n">
         <v>283.3</v>
@@ -18690,7 +18710,7 @@
         <v>343</v>
       </c>
       <c r="K362" t="n">
-        <v>-4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L362" t="n">
         <v>283.2</v>
@@ -18741,7 +18761,7 @@
         <v>344</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L363" t="n">
         <v>283.2</v>
@@ -18792,7 +18812,7 @@
         <v>345</v>
       </c>
       <c r="K364" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>283.3</v>
@@ -18843,7 +18863,7 @@
         <v>345</v>
       </c>
       <c r="K365" t="n">
-        <v>-4.761904761904762</v>
+        <v>25</v>
       </c>
       <c r="L365" t="n">
         <v>283.3</v>
@@ -18894,7 +18914,7 @@
         <v>346</v>
       </c>
       <c r="K366" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L366" t="n">
         <v>283.6</v>
@@ -18945,7 +18965,7 @@
         <v>346</v>
       </c>
       <c r="K367" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>284</v>
@@ -19047,7 +19067,7 @@
         <v>347</v>
       </c>
       <c r="K369" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L369" t="n">
         <v>284.1</v>
@@ -19098,7 +19118,7 @@
         <v>347</v>
       </c>
       <c r="K370" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L370" t="n">
         <v>284.2</v>
@@ -19149,7 +19169,7 @@
         <v>347</v>
       </c>
       <c r="K371" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>284.3</v>
@@ -19200,7 +19220,7 @@
         <v>347</v>
       </c>
       <c r="K372" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>284.3</v>
@@ -19251,7 +19271,7 @@
         <v>349</v>
       </c>
       <c r="K373" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L373" t="n">
         <v>284</v>
@@ -19302,7 +19322,7 @@
         <v>349</v>
       </c>
       <c r="K374" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L374" t="n">
         <v>283.8</v>
@@ -19353,7 +19373,7 @@
         <v>349</v>
       </c>
       <c r="K375" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L375" t="n">
         <v>283.6</v>
@@ -19404,7 +19424,7 @@
         <v>349</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L376" t="n">
         <v>283.3</v>
@@ -19455,7 +19475,7 @@
         <v>349</v>
       </c>
       <c r="K377" t="n">
-        <v>9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L377" t="n">
         <v>283</v>
@@ -19506,7 +19526,7 @@
         <v>351</v>
       </c>
       <c r="K378" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L378" t="n">
         <v>282.6</v>
@@ -19557,7 +19577,7 @@
         <v>351</v>
       </c>
       <c r="K379" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L379" t="n">
         <v>282.2</v>
@@ -19608,7 +19628,7 @@
         <v>353</v>
       </c>
       <c r="K380" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L380" t="n">
         <v>281.6</v>
@@ -19659,7 +19679,7 @@
         <v>355</v>
       </c>
       <c r="K381" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L381" t="n">
         <v>281.2</v>
@@ -19710,7 +19730,7 @@
         <v>356</v>
       </c>
       <c r="K382" t="n">
-        <v>-38.46153846153847</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L382" t="n">
         <v>280.7</v>
@@ -19761,7 +19781,7 @@
         <v>356</v>
       </c>
       <c r="K383" t="n">
-        <v>-50</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L383" t="n">
         <v>280.4</v>
@@ -19863,7 +19883,7 @@
         <v>358</v>
       </c>
       <c r="K385" t="n">
-        <v>-53.84615384615385</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L385" t="n">
         <v>279.5</v>
@@ -19914,7 +19934,7 @@
         <v>359</v>
       </c>
       <c r="K386" t="n">
-        <v>-53.84615384615385</v>
+        <v>-40</v>
       </c>
       <c r="L386" t="n">
         <v>279.1</v>
@@ -19965,7 +19985,7 @@
         <v>360</v>
       </c>
       <c r="K387" t="n">
-        <v>-42.85714285714285</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L387" t="n">
         <v>278.8</v>
@@ -20016,7 +20036,7 @@
         <v>360</v>
       </c>
       <c r="K388" t="n">
-        <v>-38.46153846153847</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L388" t="n">
         <v>278.7</v>
@@ -20067,7 +20087,7 @@
         <v>361</v>
       </c>
       <c r="K389" t="n">
-        <v>-28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="L389" t="n">
         <v>278.7</v>
@@ -20118,7 +20138,7 @@
         <v>362</v>
       </c>
       <c r="K390" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L390" t="n">
         <v>278.8</v>
@@ -20169,7 +20189,7 @@
         <v>364</v>
       </c>
       <c r="K391" t="n">
-        <v>-41.17647058823529</v>
+        <v>-25</v>
       </c>
       <c r="L391" t="n">
         <v>278.5</v>
@@ -20220,7 +20240,7 @@
         <v>364</v>
       </c>
       <c r="K392" t="n">
-        <v>-41.17647058823529</v>
+        <v>-25</v>
       </c>
       <c r="L392" t="n">
         <v>278.3</v>
@@ -20271,7 +20291,7 @@
         <v>365</v>
       </c>
       <c r="K393" t="n">
-        <v>-37.5</v>
+        <v>-25</v>
       </c>
       <c r="L393" t="n">
         <v>278</v>
@@ -20322,7 +20342,7 @@
         <v>365</v>
       </c>
       <c r="K394" t="n">
-        <v>-37.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L394" t="n">
         <v>277.8</v>
@@ -20373,7 +20393,7 @@
         <v>366</v>
       </c>
       <c r="K395" t="n">
-        <v>-29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L395" t="n">
         <v>277.8</v>
@@ -20424,7 +20444,7 @@
         <v>367</v>
       </c>
       <c r="K396" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L396" t="n">
         <v>277.6</v>
@@ -20475,7 +20495,7 @@
         <v>368</v>
       </c>
       <c r="K397" t="n">
-        <v>-26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L397" t="n">
         <v>277.4</v>
@@ -20526,7 +20546,7 @@
         <v>369</v>
       </c>
       <c r="K398" t="n">
-        <v>-22.22222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L398" t="n">
         <v>277.1</v>
@@ -20577,7 +20597,7 @@
         <v>369</v>
       </c>
       <c r="K399" t="n">
-        <v>-22.22222222222222</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L399" t="n">
         <v>276.7</v>
@@ -20628,7 +20648,7 @@
         <v>370</v>
       </c>
       <c r="K400" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L400" t="n">
         <v>276.3</v>
@@ -20679,7 +20699,7 @@
         <v>373</v>
       </c>
       <c r="K401" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L401" t="n">
         <v>276.4</v>
@@ -20730,7 +20750,7 @@
         <v>375</v>
       </c>
       <c r="K402" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>276.3</v>
@@ -20781,7 +20801,7 @@
         <v>376</v>
       </c>
       <c r="K403" t="n">
-        <v>-10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L403" t="n">
         <v>276.4</v>
@@ -20832,7 +20852,7 @@
         <v>376</v>
       </c>
       <c r="K404" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>276.5</v>
@@ -20883,7 +20903,7 @@
         <v>376</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L405" t="n">
         <v>276.5</v>
@@ -20985,7 +21005,7 @@
         <v>377</v>
       </c>
       <c r="K407" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>276.4</v>
@@ -21036,7 +21056,7 @@
         <v>377</v>
       </c>
       <c r="K408" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>276.4</v>
@@ -21087,7 +21107,7 @@
         <v>378</v>
       </c>
       <c r="K409" t="n">
-        <v>-17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L409" t="n">
         <v>276.5</v>
@@ -21138,7 +21158,7 @@
         <v>379</v>
       </c>
       <c r="K410" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>276.8</v>
@@ -21189,7 +21209,7 @@
         <v>379</v>
       </c>
       <c r="K411" t="n">
-        <v>6.666666666666667</v>
+        <v>50</v>
       </c>
       <c r="L411" t="n">
         <v>276.8</v>
@@ -21240,7 +21260,7 @@
         <v>379</v>
       </c>
       <c r="K412" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L412" t="n">
         <v>277</v>
@@ -21291,7 +21311,7 @@
         <v>379</v>
       </c>
       <c r="K413" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>277.1</v>

--- a/BackTest/2019-10-24 BackTest BAT.xlsx
+++ b/BackTest/2019-10-24 BackTest BAT.xlsx
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -9166,13 +9166,17 @@
         <v>290.0666666666667</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>285</v>
+      </c>
+      <c r="K251" t="n">
+        <v>285</v>
+      </c>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
@@ -9207,8 +9211,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>285</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9252,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>285</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -13751,17 +13767,13 @@
         <v>283.7666666666667</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>279</v>
-      </c>
-      <c r="K382" t="n">
-        <v>279</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
@@ -13790,194 +13802,166 @@
         <v>283.6666666666667</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
         <v>279</v>
       </c>
-      <c r="K383" t="n">
+      <c r="C384" t="n">
+        <v>278</v>
+      </c>
+      <c r="D384" t="n">
         <v>279</v>
       </c>
-      <c r="L383" t="inlineStr">
+      <c r="E384" t="n">
+        <v>278</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1314.3372</v>
+      </c>
+      <c r="G384" t="n">
+        <v>283.55</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
+      <c r="M384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>277</v>
+      </c>
+      <c r="C385" t="n">
+        <v>277</v>
+      </c>
+      <c r="D385" t="n">
+        <v>277</v>
+      </c>
+      <c r="E385" t="n">
+        <v>277</v>
+      </c>
+      <c r="F385" t="n">
+        <v>5096.1519</v>
+      </c>
+      <c r="G385" t="n">
+        <v>283.4333333333333</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>278</v>
+      </c>
+      <c r="C386" t="n">
+        <v>278</v>
+      </c>
+      <c r="D386" t="n">
+        <v>278</v>
+      </c>
+      <c r="E386" t="n">
+        <v>278</v>
+      </c>
+      <c r="F386" t="n">
+        <v>37.6231</v>
+      </c>
+      <c r="G386" t="n">
+        <v>283.3333333333333</v>
+      </c>
+      <c r="H386" t="n">
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" t="n">
+        <v>277</v>
+      </c>
+      <c r="K386" t="n">
+        <v>277</v>
+      </c>
+      <c r="L386" t="inlineStr"/>
+      <c r="M386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>280</v>
+      </c>
+      <c r="C387" t="n">
+        <v>279</v>
+      </c>
+      <c r="D387" t="n">
+        <v>280</v>
+      </c>
+      <c r="E387" t="n">
+        <v>279</v>
+      </c>
+      <c r="F387" t="n">
+        <v>13520.0289</v>
+      </c>
+      <c r="G387" t="n">
+        <v>283.2333333333333</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>278</v>
+      </c>
+      <c r="K387" t="n">
+        <v>277</v>
+      </c>
+      <c r="L387" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M383" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>279</v>
-      </c>
-      <c r="C384" t="n">
-        <v>278</v>
-      </c>
-      <c r="D384" t="n">
-        <v>279</v>
-      </c>
-      <c r="E384" t="n">
-        <v>278</v>
-      </c>
-      <c r="F384" t="n">
-        <v>1314.3372</v>
-      </c>
-      <c r="G384" t="n">
-        <v>283.55</v>
-      </c>
-      <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>0</v>
-      </c>
-      <c r="J384" t="n">
-        <v>279</v>
-      </c>
-      <c r="K384" t="n">
-        <v>279</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M384" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>277</v>
-      </c>
-      <c r="C385" t="n">
-        <v>277</v>
-      </c>
-      <c r="D385" t="n">
-        <v>277</v>
-      </c>
-      <c r="E385" t="n">
-        <v>277</v>
-      </c>
-      <c r="F385" t="n">
-        <v>5096.1519</v>
-      </c>
-      <c r="G385" t="n">
-        <v>283.4333333333333</v>
-      </c>
-      <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>0</v>
-      </c>
-      <c r="J385" t="n">
-        <v>277</v>
-      </c>
-      <c r="K385" t="n">
-        <v>279</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M385" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>278</v>
-      </c>
-      <c r="C386" t="n">
-        <v>278</v>
-      </c>
-      <c r="D386" t="n">
-        <v>278</v>
-      </c>
-      <c r="E386" t="n">
-        <v>278</v>
-      </c>
-      <c r="F386" t="n">
-        <v>37.6231</v>
-      </c>
-      <c r="G386" t="n">
-        <v>283.3333333333333</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
-      <c r="J386" t="n">
-        <v>278</v>
-      </c>
-      <c r="K386" t="n">
-        <v>279</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M386" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>280</v>
-      </c>
-      <c r="C387" t="n">
-        <v>279</v>
-      </c>
-      <c r="D387" t="n">
-        <v>280</v>
-      </c>
-      <c r="E387" t="n">
-        <v>279</v>
-      </c>
-      <c r="F387" t="n">
-        <v>13520.0289</v>
-      </c>
-      <c r="G387" t="n">
-        <v>283.2333333333333</v>
-      </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
-      <c r="J387" t="n">
-        <v>280</v>
-      </c>
-      <c r="K387" t="n">
-        <v>279</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +13998,11 @@
         <v>279</v>
       </c>
       <c r="K388" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M388" t="n">
@@ -14054,16 +14038,12 @@
         <v>0</v>
       </c>
       <c r="J389" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K389" t="n">
         <v>279</v>
       </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14097,14 +14077,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K390" t="n">
         <v>279</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M390" t="n">
@@ -14140,14 +14120,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K391" t="n">
         <v>279</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M391" t="n">
@@ -14177,22 +14157,14 @@
         <v>282.75</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>277</v>
-      </c>
-      <c r="K392" t="n">
-        <v>279</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-24 BackTest BAT.xlsx
+++ b/BackTest/2019-10-24 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M392"/>
+  <dimension ref="A1:M393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" t="n">
         <v>289</v>
       </c>
       <c r="D2" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E2" t="n">
         <v>289</v>
       </c>
       <c r="F2" t="n">
-        <v>12.4053</v>
+        <v>1494.4621</v>
       </c>
       <c r="G2" t="n">
-        <v>292.0666666666667</v>
+        <v>292.2333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C3" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D3" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E3" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F3" t="n">
         <v>12.4053</v>
       </c>
       <c r="G3" t="n">
-        <v>291.9666666666666</v>
+        <v>292.0666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" t="n">
-        <v>27705.0912</v>
+        <v>12.4053</v>
       </c>
       <c r="G4" t="n">
-        <v>291.85</v>
+        <v>291.9666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E5" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" t="n">
-        <v>602.0769</v>
+        <v>27705.0912</v>
       </c>
       <c r="G5" t="n">
-        <v>291.75</v>
+        <v>291.85</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>290</v>
       </c>
       <c r="C6" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D6" t="n">
         <v>290</v>
       </c>
       <c r="E6" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F6" t="n">
-        <v>5400</v>
+        <v>602.0769</v>
       </c>
       <c r="G6" t="n">
-        <v>291.6166666666667</v>
+        <v>291.75</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C7" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E7" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" t="n">
-        <v>590.7924</v>
+        <v>5400</v>
       </c>
       <c r="G7" t="n">
-        <v>291.4833333333333</v>
+        <v>291.6166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C8" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D8" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E8" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F8" t="n">
-        <v>865.8364</v>
+        <v>590.7924</v>
       </c>
       <c r="G8" t="n">
-        <v>291.3166666666667</v>
+        <v>291.4833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D9" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
         <v>285</v>
       </c>
       <c r="F9" t="n">
-        <v>2653.7111</v>
+        <v>865.8364</v>
       </c>
       <c r="G9" t="n">
-        <v>291.15</v>
+        <v>291.3166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C10" t="n">
         <v>285</v>
       </c>
       <c r="D10" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E10" t="n">
         <v>285</v>
       </c>
       <c r="F10" t="n">
-        <v>12.6997</v>
+        <v>2653.7111</v>
       </c>
       <c r="G10" t="n">
-        <v>290.9833333333333</v>
+        <v>291.15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C11" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D11" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E11" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F11" t="n">
-        <v>1165.9823</v>
+        <v>12.6997</v>
       </c>
       <c r="G11" t="n">
-        <v>290.8</v>
+        <v>290.9833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>284</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>1165.9823</v>
       </c>
       <c r="G12" t="n">
-        <v>290.6166666666667</v>
+        <v>290.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>284</v>
       </c>
       <c r="F13" t="n">
-        <v>12980.9454</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>290.4333333333333</v>
+        <v>290.6166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" t="n">
-        <v>60.1578947368421</v>
+        <v>12980.9454</v>
       </c>
       <c r="G14" t="n">
-        <v>290.2666666666667</v>
+        <v>290.4333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>285</v>
       </c>
       <c r="C15" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D15" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E15" t="n">
         <v>285</v>
       </c>
       <c r="F15" t="n">
-        <v>1320</v>
+        <v>60.1578947368421</v>
       </c>
       <c r="G15" t="n">
-        <v>290.1166666666667</v>
+        <v>290.2666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C16" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E16" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F16" t="n">
-        <v>16393.156</v>
+        <v>1320</v>
       </c>
       <c r="G16" t="n">
-        <v>289.9833333333333</v>
+        <v>290.1166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F17" t="n">
-        <v>32.3006</v>
+        <v>16393.156</v>
       </c>
       <c r="G17" t="n">
-        <v>289.8666666666667</v>
+        <v>289.9833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C18" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D18" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E18" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>32.3006</v>
       </c>
       <c r="G18" t="n">
-        <v>289.7</v>
+        <v>289.8666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>284</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>289.5333333333334</v>
+        <v>289.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C20" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D20" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E20" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F20" t="n">
-        <v>118.8787</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4</v>
+        <v>289.5333333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>286</v>
       </c>
       <c r="F21" t="n">
-        <v>532.2358</v>
+        <v>118.8787</v>
       </c>
       <c r="G21" t="n">
-        <v>289.2666666666667</v>
+        <v>289.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>286</v>
       </c>
       <c r="F22" t="n">
-        <v>1409.8286</v>
+        <v>532.2358</v>
       </c>
       <c r="G22" t="n">
-        <v>289.15</v>
+        <v>289.2666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>286</v>
       </c>
       <c r="F23" t="n">
-        <v>287.4268</v>
+        <v>1409.8286</v>
       </c>
       <c r="G23" t="n">
-        <v>289.0333333333334</v>
+        <v>289.15</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>286</v>
       </c>
       <c r="F24" t="n">
-        <v>3508.7719</v>
+        <v>287.4268</v>
       </c>
       <c r="G24" t="n">
-        <v>288.9166666666667</v>
+        <v>289.0333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>286</v>
       </c>
       <c r="F25" t="n">
-        <v>826.6369</v>
+        <v>3508.7719</v>
       </c>
       <c r="G25" t="n">
-        <v>288.85</v>
+        <v>288.9166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C26" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D26" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E26" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F26" t="n">
-        <v>366.346</v>
+        <v>826.6369</v>
       </c>
       <c r="G26" t="n">
-        <v>288.75</v>
+        <v>288.85</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>285</v>
       </c>
       <c r="C27" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D27" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E27" t="n">
         <v>285</v>
       </c>
       <c r="F27" t="n">
-        <v>5217.4137</v>
+        <v>366.346</v>
       </c>
       <c r="G27" t="n">
-        <v>288.6833333333333</v>
+        <v>288.75</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C28" t="n">
         <v>287</v>
@@ -1352,13 +1352,13 @@
         <v>287</v>
       </c>
       <c r="E28" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F28" t="n">
-        <v>4819.749128919861</v>
+        <v>5217.4137</v>
       </c>
       <c r="G28" t="n">
-        <v>288.6</v>
+        <v>288.6833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C29" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D29" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E29" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F29" t="n">
-        <v>6450.195</v>
+        <v>4819.749128919861</v>
       </c>
       <c r="G29" t="n">
-        <v>288.4833333333333</v>
+        <v>288.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C30" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D30" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E30" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F30" t="n">
-        <v>23018.8771</v>
+        <v>6450.195</v>
       </c>
       <c r="G30" t="n">
-        <v>288.3666666666667</v>
+        <v>288.4833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>283</v>
       </c>
       <c r="F31" t="n">
-        <v>5582.524</v>
+        <v>23018.8771</v>
       </c>
       <c r="G31" t="n">
-        <v>288.25</v>
+        <v>288.3666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>283</v>
       </c>
       <c r="F32" t="n">
-        <v>26.6099</v>
+        <v>5582.524</v>
       </c>
       <c r="G32" t="n">
-        <v>288.15</v>
+        <v>288.25</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C33" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D33" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E33" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F33" t="n">
-        <v>16610</v>
+        <v>26.6099</v>
       </c>
       <c r="G33" t="n">
-        <v>288.05</v>
+        <v>288.15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C34" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D34" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E34" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F34" t="n">
-        <v>6260</v>
+        <v>16610</v>
       </c>
       <c r="G34" t="n">
-        <v>288</v>
+        <v>288.05</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>288</v>
       </c>
       <c r="F35" t="n">
-        <v>32.7591</v>
+        <v>6260</v>
       </c>
       <c r="G35" t="n">
-        <v>287.9666666666666</v>
+        <v>288</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D36" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E36" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F36" t="n">
-        <v>5139.6546</v>
+        <v>32.7591</v>
       </c>
       <c r="G36" t="n">
-        <v>287.95</v>
+        <v>287.9666666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C37" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D37" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E37" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F37" t="n">
-        <v>12289.2008</v>
+        <v>5139.6546</v>
       </c>
       <c r="G37" t="n">
-        <v>287.9</v>
+        <v>287.95</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C38" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D38" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E38" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>12289.2008</v>
       </c>
       <c r="G38" t="n">
-        <v>287.85</v>
+        <v>287.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>291</v>
       </c>
       <c r="C39" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D39" t="n">
         <v>291</v>
       </c>
       <c r="E39" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F39" t="n">
-        <v>7998.6058</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
         <v>287.85</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C40" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D40" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E40" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F40" t="n">
-        <v>599.558</v>
+        <v>7998.6058</v>
       </c>
       <c r="G40" t="n">
-        <v>287.7833333333334</v>
+        <v>287.85</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C41" t="n">
         <v>286</v>
       </c>
       <c r="D41" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E41" t="n">
         <v>286</v>
       </c>
       <c r="F41" t="n">
-        <v>27.0168</v>
+        <v>599.558</v>
       </c>
       <c r="G41" t="n">
-        <v>287.7333333333333</v>
+        <v>287.7833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>286</v>
       </c>
       <c r="C42" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D42" t="n">
         <v>286</v>
       </c>
       <c r="E42" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F42" t="n">
-        <v>3785.6873</v>
+        <v>27.0168</v>
       </c>
       <c r="G42" t="n">
-        <v>287.6333333333333</v>
+        <v>287.7333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C43" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D43" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E43" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F43" t="n">
-        <v>24.9664</v>
+        <v>3785.6873</v>
       </c>
       <c r="G43" t="n">
-        <v>287.5666666666667</v>
+        <v>287.6333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C44" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D44" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E44" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F44" t="n">
-        <v>2013.3214</v>
+        <v>24.9664</v>
       </c>
       <c r="G44" t="n">
-        <v>287.5166666666667</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>290</v>
       </c>
       <c r="C45" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D45" t="n">
         <v>290</v>
       </c>
       <c r="E45" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F45" t="n">
-        <v>20.0648</v>
+        <v>2013.3214</v>
       </c>
       <c r="G45" t="n">
-        <v>287.4666666666666</v>
+        <v>287.5166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C46" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D46" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E46" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F46" t="n">
-        <v>610</v>
+        <v>20.0648</v>
       </c>
       <c r="G46" t="n">
-        <v>287.3666666666667</v>
+        <v>287.4666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C47" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D47" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E47" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F47" t="n">
-        <v>4054.9594</v>
+        <v>610</v>
       </c>
       <c r="G47" t="n">
-        <v>287.2833333333334</v>
+        <v>287.3666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C48" t="n">
         <v>288</v>
       </c>
       <c r="D48" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E48" t="n">
         <v>288</v>
       </c>
       <c r="F48" t="n">
-        <v>12.3694</v>
+        <v>4054.9594</v>
       </c>
       <c r="G48" t="n">
-        <v>287.1833333333333</v>
+        <v>287.2833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C49" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D49" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E49" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F49" t="n">
-        <v>12.8441</v>
+        <v>12.3694</v>
       </c>
       <c r="G49" t="n">
-        <v>287.1166666666667</v>
+        <v>287.1833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>286</v>
       </c>
       <c r="F50" t="n">
-        <v>25.2135</v>
+        <v>12.8441</v>
       </c>
       <c r="G50" t="n">
-        <v>287.0166666666667</v>
+        <v>287.1166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C51" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D51" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E51" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F51" t="n">
-        <v>12.4321</v>
+        <v>25.2135</v>
       </c>
       <c r="G51" t="n">
-        <v>287</v>
+        <v>287.0166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>288</v>
       </c>
       <c r="F52" t="n">
-        <v>2592.5944</v>
+        <v>12.4321</v>
       </c>
       <c r="G52" t="n">
-        <v>286.9833333333333</v>
+        <v>287</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D53" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E53" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F53" t="n">
-        <v>12.1587</v>
+        <v>2592.5944</v>
       </c>
       <c r="G53" t="n">
-        <v>287</v>
+        <v>286.9833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>289</v>
+      </c>
+      <c r="C54" t="n">
+        <v>289</v>
+      </c>
+      <c r="D54" t="n">
+        <v>289</v>
+      </c>
+      <c r="E54" t="n">
+        <v>289</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12.1587</v>
+      </c>
+      <c r="G54" t="n">
         <v>287</v>
-      </c>
-      <c r="C54" t="n">
-        <v>287</v>
-      </c>
-      <c r="D54" t="n">
-        <v>287</v>
-      </c>
-      <c r="E54" t="n">
-        <v>287</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3676.4705</v>
-      </c>
-      <c r="G54" t="n">
-        <v>286.9666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>287</v>
       </c>
       <c r="F55" t="n">
-        <v>2033</v>
+        <v>3676.4705</v>
       </c>
       <c r="G55" t="n">
-        <v>286.9166666666667</v>
+        <v>286.9666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C56" t="n">
         <v>287</v>
@@ -2332,13 +2332,13 @@
         <v>287</v>
       </c>
       <c r="E56" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F56" t="n">
-        <v>2324.6735</v>
+        <v>2033</v>
       </c>
       <c r="G56" t="n">
-        <v>286.9</v>
+        <v>286.9166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>286</v>
       </c>
       <c r="C57" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D57" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E57" t="n">
         <v>286</v>
       </c>
       <c r="F57" t="n">
-        <v>294.3175</v>
+        <v>2324.6735</v>
       </c>
       <c r="G57" t="n">
-        <v>286.8333333333333</v>
+        <v>286.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>286</v>
       </c>
       <c r="C58" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D58" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E58" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F58" t="n">
-        <v>11317.7463</v>
+        <v>294.3175</v>
       </c>
       <c r="G58" t="n">
-        <v>286.75</v>
+        <v>286.8333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>286</v>
       </c>
       <c r="C59" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D59" t="n">
         <v>287</v>
@@ -2440,10 +2440,10 @@
         <v>285</v>
       </c>
       <c r="F59" t="n">
-        <v>5140.6458</v>
+        <v>11317.7463</v>
       </c>
       <c r="G59" t="n">
-        <v>286.7833333333334</v>
+        <v>286.75</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C60" t="n">
         <v>287</v>
@@ -2475,10 +2475,10 @@
         <v>285</v>
       </c>
       <c r="F60" t="n">
-        <v>2625.0445</v>
+        <v>5140.6458</v>
       </c>
       <c r="G60" t="n">
-        <v>286.7333333333333</v>
+        <v>286.7833333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C61" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D61" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E61" t="n">
         <v>285</v>
       </c>
       <c r="F61" t="n">
-        <v>8065.9625</v>
+        <v>2625.0445</v>
       </c>
       <c r="G61" t="n">
-        <v>286.6666666666667</v>
+        <v>286.7333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C62" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D62" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E62" t="n">
         <v>285</v>
       </c>
       <c r="F62" t="n">
-        <v>2443.8075</v>
+        <v>8065.9625</v>
       </c>
       <c r="G62" t="n">
-        <v>286.6333333333333</v>
+        <v>286.6666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C63" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D63" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E63" t="n">
         <v>285</v>
       </c>
       <c r="F63" t="n">
-        <v>547.6309</v>
+        <v>2443.8075</v>
       </c>
       <c r="G63" t="n">
-        <v>286.5833333333333</v>
+        <v>286.6333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>285</v>
       </c>
       <c r="F64" t="n">
-        <v>368.4057</v>
+        <v>547.6309</v>
       </c>
       <c r="G64" t="n">
-        <v>286.5166666666667</v>
+        <v>286.5833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>285</v>
       </c>
       <c r="F65" t="n">
-        <v>28.183</v>
+        <v>368.4057</v>
       </c>
       <c r="G65" t="n">
-        <v>286.4333333333333</v>
+        <v>286.5166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C66" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D66" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E66" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F66" t="n">
-        <v>1433.4829</v>
+        <v>28.183</v>
       </c>
       <c r="G66" t="n">
-        <v>286.3666666666667</v>
+        <v>286.4333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>283</v>
       </c>
       <c r="F67" t="n">
-        <v>1988.3692</v>
+        <v>1433.4829</v>
       </c>
       <c r="G67" t="n">
-        <v>286.2833333333334</v>
+        <v>286.3666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C68" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D68" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E68" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F68" t="n">
-        <v>19.8958</v>
+        <v>1988.3692</v>
       </c>
       <c r="G68" t="n">
-        <v>286.25</v>
+        <v>286.2833333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>284</v>
       </c>
       <c r="F69" t="n">
-        <v>421.8676</v>
+        <v>19.8958</v>
       </c>
       <c r="G69" t="n">
-        <v>286.2333333333333</v>
+        <v>286.25</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C70" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D70" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E70" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F70" t="n">
-        <v>42462.6597</v>
+        <v>421.8676</v>
       </c>
       <c r="G70" t="n">
-        <v>286.15</v>
+        <v>286.2333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C71" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D71" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E71" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F71" t="n">
-        <v>135.7294</v>
+        <v>42462.6597</v>
       </c>
       <c r="G71" t="n">
-        <v>286.1</v>
+        <v>286.15</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>281</v>
       </c>
       <c r="C72" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D72" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E72" t="n">
         <v>281</v>
       </c>
       <c r="F72" t="n">
-        <v>4646.0684</v>
+        <v>135.7294</v>
       </c>
       <c r="G72" t="n">
-        <v>286.0833333333333</v>
+        <v>286.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C73" t="n">
         <v>283</v>
@@ -2927,13 +2927,13 @@
         <v>283</v>
       </c>
       <c r="E73" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F73" t="n">
-        <v>10602.9116</v>
+        <v>4646.0684</v>
       </c>
       <c r="G73" t="n">
-        <v>286.0666666666667</v>
+        <v>286.0833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>283</v>
       </c>
       <c r="F74" t="n">
-        <v>1323.43</v>
+        <v>10602.9116</v>
       </c>
       <c r="G74" t="n">
-        <v>286.0333333333334</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C75" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D75" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E75" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F75" t="n">
-        <v>15460</v>
+        <v>1323.43</v>
       </c>
       <c r="G75" t="n">
-        <v>286.05</v>
+        <v>286.0333333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C76" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D76" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E76" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F76" t="n">
-        <v>14112.739</v>
+        <v>15460</v>
       </c>
       <c r="G76" t="n">
-        <v>286.1</v>
+        <v>286.05</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>289</v>
       </c>
       <c r="C77" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D77" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E77" t="n">
         <v>289</v>
       </c>
       <c r="F77" t="n">
-        <v>20.1444</v>
+        <v>14112.739</v>
       </c>
       <c r="G77" t="n">
-        <v>286.1166666666667</v>
+        <v>286.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C78" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D78" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E78" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F78" t="n">
-        <v>2191.6883</v>
+        <v>20.1444</v>
       </c>
       <c r="G78" t="n">
-        <v>286.1333333333333</v>
+        <v>286.1166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C79" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D79" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E79" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F79" t="n">
-        <v>5033.7986</v>
+        <v>2191.6883</v>
       </c>
       <c r="G79" t="n">
-        <v>286.1166666666667</v>
+        <v>286.1333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3172,13 +3172,13 @@
         <v>283</v>
       </c>
       <c r="E80" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F80" t="n">
-        <v>12.2198</v>
+        <v>5033.7986</v>
       </c>
       <c r="G80" t="n">
-        <v>286.0666666666667</v>
+        <v>286.1166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C81" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D81" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E81" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F81" t="n">
-        <v>2045.1869</v>
+        <v>12.2198</v>
       </c>
       <c r="G81" t="n">
-        <v>285.9833333333333</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C82" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D82" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E82" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F82" t="n">
-        <v>287.035</v>
+        <v>2045.1869</v>
       </c>
       <c r="G82" t="n">
-        <v>285.9166666666667</v>
+        <v>285.9833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C83" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D83" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E83" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>287.035</v>
       </c>
       <c r="G83" t="n">
-        <v>285.8666666666667</v>
+        <v>285.9166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C84" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D84" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E84" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F84" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>285.7833333333334</v>
+        <v>285.8666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>282</v>
       </c>
       <c r="C85" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D85" t="n">
         <v>282</v>
       </c>
       <c r="E85" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F85" t="n">
-        <v>1621.0624</v>
+        <v>2500</v>
       </c>
       <c r="G85" t="n">
-        <v>285.7166666666666</v>
+        <v>285.7833333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3379,16 +3379,16 @@
         <v>282</v>
       </c>
       <c r="D86" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E86" t="n">
         <v>282</v>
       </c>
       <c r="F86" t="n">
-        <v>2134.4863</v>
+        <v>1621.0624</v>
       </c>
       <c r="G86" t="n">
-        <v>285.6666666666667</v>
+        <v>285.7166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3414,16 +3414,16 @@
         <v>282</v>
       </c>
       <c r="D87" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E87" t="n">
         <v>282</v>
       </c>
       <c r="F87" t="n">
-        <v>1247.4075</v>
+        <v>2134.4863</v>
       </c>
       <c r="G87" t="n">
-        <v>285.5833333333333</v>
+        <v>285.6666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C88" t="n">
         <v>282</v>
       </c>
       <c r="D88" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E88" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F88" t="n">
-        <v>3860.8511</v>
+        <v>1247.4075</v>
       </c>
       <c r="G88" t="n">
-        <v>285.5</v>
+        <v>285.5833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C89" t="n">
         <v>282</v>
       </c>
       <c r="D89" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E89" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F89" t="n">
-        <v>1841.4542</v>
+        <v>3860.8511</v>
       </c>
       <c r="G89" t="n">
-        <v>285.4666666666666</v>
+        <v>285.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>282</v>
       </c>
       <c r="F90" t="n">
-        <v>1995.8755</v>
+        <v>1841.4542</v>
       </c>
       <c r="G90" t="n">
-        <v>285.45</v>
+        <v>285.4666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>282</v>
       </c>
       <c r="F91" t="n">
-        <v>2255.4936</v>
+        <v>1995.8755</v>
       </c>
       <c r="G91" t="n">
-        <v>285.4333333333333</v>
+        <v>285.45</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>282</v>
       </c>
       <c r="F92" t="n">
-        <v>1887.7785</v>
+        <v>2255.4936</v>
       </c>
       <c r="G92" t="n">
-        <v>285.4166666666667</v>
+        <v>285.4333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,19 +3618,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C93" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D93" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E93" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F93" t="n">
-        <v>1102.3035</v>
+        <v>1887.7785</v>
       </c>
       <c r="G93" t="n">
         <v>285.4166666666667</v>
@@ -3665,10 +3665,10 @@
         <v>285</v>
       </c>
       <c r="F94" t="n">
-        <v>456.1403</v>
+        <v>1102.3035</v>
       </c>
       <c r="G94" t="n">
-        <v>285.3666666666667</v>
+        <v>285.4166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D95" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E95" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F95" t="n">
-        <v>5234.683</v>
+        <v>456.1403</v>
       </c>
       <c r="G95" t="n">
-        <v>285.3</v>
+        <v>285.3666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>284</v>
       </c>
       <c r="F96" t="n">
-        <v>2.9</v>
+        <v>5234.683</v>
       </c>
       <c r="G96" t="n">
-        <v>285.2166666666666</v>
+        <v>285.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>284</v>
       </c>
       <c r="F97" t="n">
-        <v>273.6733</v>
+        <v>2.9</v>
       </c>
       <c r="G97" t="n">
-        <v>285.1166666666667</v>
+        <v>285.2166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C98" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D98" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E98" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F98" t="n">
-        <v>49.9</v>
+        <v>273.6733</v>
       </c>
       <c r="G98" t="n">
-        <v>285.0333333333334</v>
+        <v>285.1166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C99" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D99" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E99" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F99" t="n">
-        <v>2200</v>
+        <v>49.9</v>
       </c>
       <c r="G99" t="n">
-        <v>284.9333333333333</v>
+        <v>285.0333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>284</v>
       </c>
       <c r="F100" t="n">
-        <v>233.1116</v>
+        <v>2200</v>
       </c>
       <c r="G100" t="n">
-        <v>284.9</v>
+        <v>284.9333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C101" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E101" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F101" t="n">
-        <v>6968.781787108014</v>
+        <v>233.1116</v>
       </c>
       <c r="G101" t="n">
-        <v>284.9166666666667</v>
+        <v>284.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C102" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D102" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E102" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>6968.781787108014</v>
       </c>
       <c r="G102" t="n">
-        <v>285.0166666666667</v>
+        <v>284.9166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C103" t="n">
         <v>291</v>
@@ -3977,13 +3977,13 @@
         <v>291</v>
       </c>
       <c r="E103" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F103" t="n">
-        <v>4110</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>285.0666666666667</v>
+        <v>285.0166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E104" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F104" t="n">
-        <v>1165.9822</v>
+        <v>4110</v>
       </c>
       <c r="G104" t="n">
-        <v>285.0833333333333</v>
+        <v>285.0666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>290</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0001</v>
+        <v>1165.9822</v>
       </c>
       <c r="G105" t="n">
         <v>285.0833333333333</v>
@@ -4085,10 +4085,10 @@
         <v>290</v>
       </c>
       <c r="F106" t="n">
-        <v>577.8481</v>
+        <v>0.0001</v>
       </c>
       <c r="G106" t="n">
-        <v>285.1333333333333</v>
+        <v>285.0833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C107" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E107" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F107" t="n">
-        <v>30.6911</v>
+        <v>577.8481</v>
       </c>
       <c r="G107" t="n">
-        <v>285.1833333333333</v>
+        <v>285.1333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C108" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E108" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F108" t="n">
-        <v>5470.0181</v>
+        <v>30.6911</v>
       </c>
       <c r="G108" t="n">
-        <v>285.25</v>
+        <v>285.1833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,28 +4178,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C109" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D109" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E109" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F109" t="n">
-        <v>4749.7225</v>
+        <v>5470.0181</v>
       </c>
       <c r="G109" t="n">
-        <v>285.3333333333333</v>
+        <v>285.25</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C110" t="n">
         <v>291</v>
       </c>
       <c r="D110" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E110" t="n">
         <v>291</v>
       </c>
       <c r="F110" t="n">
-        <v>1640</v>
+        <v>4749.7225</v>
       </c>
       <c r="G110" t="n">
-        <v>285.4166666666667</v>
+        <v>285.3333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,28 +4248,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C111" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D111" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E111" t="n">
         <v>291</v>
       </c>
       <c r="F111" t="n">
-        <v>4799.1452</v>
+        <v>1640</v>
       </c>
       <c r="G111" t="n">
-        <v>285.5</v>
+        <v>285.4166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C112" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D112" t="n">
         <v>294</v>
       </c>
       <c r="E112" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F112" t="n">
-        <v>3911.1253</v>
+        <v>4799.1452</v>
       </c>
       <c r="G112" t="n">
-        <v>285.6</v>
+        <v>285.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C113" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D113" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E113" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F113" t="n">
-        <v>504.7108</v>
+        <v>3911.1253</v>
       </c>
       <c r="G113" t="n">
-        <v>285.7166666666666</v>
+        <v>285.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>296</v>
       </c>
       <c r="C114" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D114" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E114" t="n">
         <v>296</v>
       </c>
       <c r="F114" t="n">
-        <v>4000.8333</v>
+        <v>504.7108</v>
       </c>
       <c r="G114" t="n">
-        <v>285.8833333333333</v>
+        <v>285.7166666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>296</v>
+      </c>
+      <c r="C115" t="n">
         <v>297</v>
       </c>
-      <c r="C115" t="n">
-        <v>298</v>
-      </c>
       <c r="D115" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E115" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F115" t="n">
-        <v>45369.9966</v>
+        <v>4000.8333</v>
       </c>
       <c r="G115" t="n">
-        <v>286.0666666666667</v>
+        <v>285.8833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C116" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D116" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E116" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F116" t="n">
-        <v>2309</v>
+        <v>45369.9966</v>
       </c>
       <c r="G116" t="n">
-        <v>286.2</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,28 +4458,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C117" t="n">
         <v>295</v>
       </c>
       <c r="D117" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E117" t="n">
         <v>295</v>
       </c>
       <c r="F117" t="n">
-        <v>521.7084</v>
+        <v>2309</v>
       </c>
       <c r="G117" t="n">
-        <v>286.35</v>
+        <v>286.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4505,10 +4505,10 @@
         <v>295</v>
       </c>
       <c r="F118" t="n">
-        <v>555.1156</v>
+        <v>521.7084</v>
       </c>
       <c r="G118" t="n">
-        <v>286.5166666666667</v>
+        <v>286.35</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,16 +4540,16 @@
         <v>295</v>
       </c>
       <c r="F119" t="n">
-        <v>397.636</v>
+        <v>555.1156</v>
       </c>
       <c r="G119" t="n">
-        <v>286.65</v>
+        <v>286.5166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4563,28 +4563,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C120" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D120" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E120" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F120" t="n">
-        <v>1669.1786</v>
+        <v>397.636</v>
       </c>
       <c r="G120" t="n">
-        <v>286.7666666666667</v>
+        <v>286.65</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C121" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D121" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E121" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F121" t="n">
-        <v>943.472</v>
+        <v>1669.1786</v>
       </c>
       <c r="G121" t="n">
-        <v>286.9333333333333</v>
+        <v>286.7666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>295</v>
       </c>
       <c r="C122" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D122" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E122" t="n">
         <v>295</v>
       </c>
       <c r="F122" t="n">
-        <v>3275.6039</v>
+        <v>943.472</v>
       </c>
       <c r="G122" t="n">
-        <v>287.1</v>
+        <v>286.9333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C123" t="n">
         <v>297</v>
@@ -4677,13 +4677,13 @@
         <v>297</v>
       </c>
       <c r="E123" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F123" t="n">
-        <v>3969.909090909091</v>
+        <v>3275.6039</v>
       </c>
       <c r="G123" t="n">
-        <v>287.3</v>
+        <v>287.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C124" t="n">
         <v>297</v>
@@ -4712,13 +4712,13 @@
         <v>297</v>
       </c>
       <c r="E124" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F124" t="n">
-        <v>28.1934</v>
+        <v>3969.909090909091</v>
       </c>
       <c r="G124" t="n">
-        <v>287.5</v>
+        <v>287.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C125" t="n">
         <v>297</v>
@@ -4747,13 +4747,13 @@
         <v>297</v>
       </c>
       <c r="E125" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>28.1934</v>
       </c>
       <c r="G125" t="n">
-        <v>287.7</v>
+        <v>287.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>297</v>
       </c>
       <c r="F126" t="n">
-        <v>4142.8181</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>287.9333333333333</v>
+        <v>287.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>297</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>4142.8181</v>
       </c>
       <c r="G127" t="n">
-        <v>288.1666666666667</v>
+        <v>287.9333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4846,19 @@
         <v>297</v>
       </c>
       <c r="C128" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D128" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E128" t="n">
         <v>297</v>
       </c>
       <c r="F128" t="n">
-        <v>11923.62404680135</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>288.4166666666667</v>
+        <v>288.1666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +4881,19 @@
         <v>297</v>
       </c>
       <c r="C129" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D129" t="n">
+        <v>299</v>
+      </c>
+      <c r="E129" t="n">
         <v>297</v>
       </c>
-      <c r="E129" t="n">
-        <v>296</v>
-      </c>
       <c r="F129" t="n">
-        <v>9429.4293</v>
+        <v>11923.62404680135</v>
       </c>
       <c r="G129" t="n">
-        <v>288.6166666666667</v>
+        <v>288.4166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C130" t="n">
         <v>296</v>
       </c>
       <c r="D130" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E130" t="n">
         <v>296</v>
       </c>
       <c r="F130" t="n">
-        <v>7655.3745</v>
+        <v>9429.4293</v>
       </c>
       <c r="G130" t="n">
-        <v>288.8833333333333</v>
+        <v>288.6166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>296</v>
       </c>
       <c r="F131" t="n">
-        <v>5360</v>
+        <v>7655.3745</v>
       </c>
       <c r="G131" t="n">
-        <v>289.1333333333333</v>
+        <v>288.8833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C132" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D132" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E132" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F132" t="n">
-        <v>496.1279</v>
+        <v>5360</v>
       </c>
       <c r="G132" t="n">
-        <v>289.3666666666667</v>
+        <v>289.1333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>298</v>
       </c>
       <c r="C133" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D133" t="n">
         <v>298</v>
       </c>
       <c r="E133" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F133" t="n">
-        <v>3218.9278</v>
+        <v>496.1279</v>
       </c>
       <c r="G133" t="n">
-        <v>289.6166666666667</v>
+        <v>289.3666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C134" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D134" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E134" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F134" t="n">
-        <v>63.6544</v>
+        <v>3218.9278</v>
       </c>
       <c r="G134" t="n">
-        <v>289.9</v>
+        <v>289.6166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C135" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D135" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E135" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>12029.5236</v>
+        <v>63.6544</v>
       </c>
       <c r="G135" t="n">
-        <v>290.1166666666667</v>
+        <v>289.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C136" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D136" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E136" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F136" t="n">
-        <v>994</v>
+        <v>12029.5236</v>
       </c>
       <c r="G136" t="n">
-        <v>290.25</v>
+        <v>290.1166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C137" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D137" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E137" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F137" t="n">
-        <v>3950.3603</v>
+        <v>994</v>
       </c>
       <c r="G137" t="n">
-        <v>290.45</v>
+        <v>290.25</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5199,16 +5199,16 @@
         <v>301</v>
       </c>
       <c r="D138" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E138" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F138" t="n">
-        <v>19117.0371</v>
+        <v>3950.3603</v>
       </c>
       <c r="G138" t="n">
-        <v>290.7166666666666</v>
+        <v>290.45</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5234,16 +5234,16 @@
         <v>301</v>
       </c>
       <c r="D139" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E139" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F139" t="n">
-        <v>34368.8072</v>
+        <v>19117.0371</v>
       </c>
       <c r="G139" t="n">
-        <v>291.0166666666667</v>
+        <v>290.7166666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C140" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D140" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E140" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F140" t="n">
-        <v>1393</v>
+        <v>34368.8072</v>
       </c>
       <c r="G140" t="n">
-        <v>291.3</v>
+        <v>291.0166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C141" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D141" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E141" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F141" t="n">
-        <v>309.7287</v>
+        <v>1393</v>
       </c>
       <c r="G141" t="n">
-        <v>291.6</v>
+        <v>291.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C142" t="n">
         <v>299</v>
@@ -5342,13 +5342,13 @@
         <v>299</v>
       </c>
       <c r="E142" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F142" t="n">
-        <v>268</v>
+        <v>309.7287</v>
       </c>
       <c r="G142" t="n">
-        <v>291.8833333333333</v>
+        <v>291.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C143" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D143" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E143" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F143" t="n">
-        <v>7270</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
-        <v>292.1333333333333</v>
+        <v>291.8833333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C144" t="n">
         <v>298</v>
@@ -5412,13 +5412,13 @@
         <v>298</v>
       </c>
       <c r="E144" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F144" t="n">
-        <v>1592.475</v>
+        <v>7270</v>
       </c>
       <c r="G144" t="n">
-        <v>292.4166666666667</v>
+        <v>292.1333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C145" t="n">
         <v>298</v>
@@ -5447,13 +5447,13 @@
         <v>298</v>
       </c>
       <c r="E145" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F145" t="n">
-        <v>125.8808</v>
+        <v>1592.475</v>
       </c>
       <c r="G145" t="n">
-        <v>292.6833333333333</v>
+        <v>292.4166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>298</v>
       </c>
       <c r="F146" t="n">
-        <v>1175.7172</v>
+        <v>125.8808</v>
       </c>
       <c r="G146" t="n">
-        <v>292.95</v>
+        <v>292.6833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C147" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D147" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E147" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F147" t="n">
-        <v>919.9322</v>
+        <v>1175.7172</v>
       </c>
       <c r="G147" t="n">
-        <v>293.2</v>
+        <v>292.95</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>297</v>
       </c>
       <c r="F148" t="n">
-        <v>13368.187</v>
+        <v>919.9322</v>
       </c>
       <c r="G148" t="n">
-        <v>293.45</v>
+        <v>293.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>297</v>
       </c>
       <c r="F149" t="n">
-        <v>7014.9999</v>
+        <v>13368.187</v>
       </c>
       <c r="G149" t="n">
-        <v>293.7</v>
+        <v>293.45</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>297</v>
       </c>
       <c r="F150" t="n">
-        <v>2184.7918</v>
+        <v>7014.9999</v>
       </c>
       <c r="G150" t="n">
-        <v>293.95</v>
+        <v>293.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C151" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D151" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E151" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F151" t="n">
-        <v>1887.2964</v>
+        <v>2184.7918</v>
       </c>
       <c r="G151" t="n">
-        <v>294.1833333333333</v>
+        <v>293.95</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>296</v>
       </c>
       <c r="F152" t="n">
-        <v>3505.2997</v>
+        <v>1887.2964</v>
       </c>
       <c r="G152" t="n">
-        <v>294.4166666666667</v>
+        <v>294.1833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C153" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D153" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E153" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F153" t="n">
-        <v>651.5698</v>
+        <v>3505.2997</v>
       </c>
       <c r="G153" t="n">
-        <v>294.6166666666667</v>
+        <v>294.4166666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C154" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D154" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E154" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F154" t="n">
-        <v>1573.6704</v>
+        <v>651.5698</v>
       </c>
       <c r="G154" t="n">
-        <v>294.8</v>
+        <v>294.6166666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C155" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D155" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E155" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F155" t="n">
-        <v>17321.9085</v>
+        <v>1573.6704</v>
       </c>
       <c r="G155" t="n">
-        <v>294.9833333333333</v>
+        <v>294.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>295</v>
       </c>
       <c r="C156" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D156" t="n">
         <v>295</v>
       </c>
       <c r="E156" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F156" t="n">
-        <v>9010.7462</v>
+        <v>17321.9085</v>
       </c>
       <c r="G156" t="n">
-        <v>295.15</v>
+        <v>294.9833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>295</v>
+      </c>
+      <c r="C157" t="n">
         <v>294</v>
       </c>
-      <c r="C157" t="n">
-        <v>291</v>
-      </c>
       <c r="D157" t="n">
+        <v>295</v>
+      </c>
+      <c r="E157" t="n">
         <v>294</v>
       </c>
-      <c r="E157" t="n">
-        <v>291</v>
-      </c>
       <c r="F157" t="n">
-        <v>19271.2567</v>
+        <v>9010.7462</v>
       </c>
       <c r="G157" t="n">
-        <v>295.2666666666667</v>
+        <v>295.15</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C158" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D158" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E158" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F158" t="n">
-        <v>1116.0279</v>
+        <v>19271.2567</v>
       </c>
       <c r="G158" t="n">
-        <v>295.3833333333333</v>
+        <v>295.2666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>293</v>
       </c>
       <c r="F159" t="n">
-        <v>596.3008</v>
+        <v>1116.0279</v>
       </c>
       <c r="G159" t="n">
-        <v>295.5333333333334</v>
+        <v>295.3833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5966,19 +5966,19 @@
         <v>293</v>
       </c>
       <c r="C160" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D160" t="n">
         <v>293</v>
       </c>
       <c r="E160" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F160" t="n">
-        <v>7615.7356</v>
+        <v>596.3008</v>
       </c>
       <c r="G160" t="n">
-        <v>295.6666666666667</v>
+        <v>295.5333333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         <v>292</v>
       </c>
       <c r="F161" t="n">
-        <v>6942.071</v>
+        <v>7615.7356</v>
       </c>
       <c r="G161" t="n">
-        <v>295.75</v>
+        <v>295.6666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C162" t="n">
+        <v>292</v>
+      </c>
+      <c r="D162" t="n">
         <v>293</v>
       </c>
-      <c r="D162" t="n">
-        <v>294</v>
-      </c>
       <c r="E162" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F162" t="n">
-        <v>2214.279</v>
+        <v>6942.071</v>
       </c>
       <c r="G162" t="n">
-        <v>295.7833333333334</v>
+        <v>295.75</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C163" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D163" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E163" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F163" t="n">
-        <v>2091.9406</v>
+        <v>2214.279</v>
       </c>
       <c r="G163" t="n">
-        <v>295.85</v>
+        <v>295.7833333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C164" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D164" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E164" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>2091.9406</v>
       </c>
       <c r="G164" t="n">
-        <v>295.9833333333333</v>
+        <v>295.85</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>298</v>
       </c>
       <c r="F165" t="n">
-        <v>580.3489</v>
+        <v>200</v>
       </c>
       <c r="G165" t="n">
-        <v>296.1166666666667</v>
+        <v>295.9833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C166" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D166" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E166" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F166" t="n">
-        <v>263.8724</v>
+        <v>580.3489</v>
       </c>
       <c r="G166" t="n">
-        <v>296.2333333333333</v>
+        <v>296.1166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>297</v>
       </c>
       <c r="F167" t="n">
-        <v>12</v>
+        <v>263.8724</v>
       </c>
       <c r="G167" t="n">
-        <v>296.3333333333333</v>
+        <v>296.2333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C168" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D168" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E168" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F168" t="n">
-        <v>3816.5179</v>
+        <v>12</v>
       </c>
       <c r="G168" t="n">
-        <v>296.3833333333333</v>
+        <v>296.3333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6290,10 @@
         <v>295</v>
       </c>
       <c r="F169" t="n">
-        <v>1815.505</v>
+        <v>3816.5179</v>
       </c>
       <c r="G169" t="n">
-        <v>296.45</v>
+        <v>296.3833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         <v>295</v>
       </c>
       <c r="F170" t="n">
-        <v>7119.0926</v>
+        <v>1815.505</v>
       </c>
       <c r="G170" t="n">
-        <v>296.5166666666667</v>
+        <v>296.45</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6351,19 +6351,19 @@
         <v>295</v>
       </c>
       <c r="C171" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D171" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E171" t="n">
         <v>295</v>
       </c>
       <c r="F171" t="n">
-        <v>1057.8362</v>
+        <v>7119.0926</v>
       </c>
       <c r="G171" t="n">
-        <v>296.5666666666667</v>
+        <v>296.5166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,19 +6386,19 @@
         <v>295</v>
       </c>
       <c r="C172" t="n">
+        <v>296</v>
+      </c>
+      <c r="D172" t="n">
+        <v>296</v>
+      </c>
+      <c r="E172" t="n">
         <v>295</v>
       </c>
-      <c r="D172" t="n">
-        <v>295</v>
-      </c>
-      <c r="E172" t="n">
-        <v>294</v>
-      </c>
       <c r="F172" t="n">
-        <v>8690</v>
+        <v>1057.8362</v>
       </c>
       <c r="G172" t="n">
-        <v>296.5833333333333</v>
+        <v>296.5666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6427,13 +6427,13 @@
         <v>295</v>
       </c>
       <c r="E173" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F173" t="n">
-        <v>3734.0647</v>
+        <v>8690</v>
       </c>
       <c r="G173" t="n">
-        <v>296.5666666666667</v>
+        <v>296.5833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6456,19 @@
         <v>295</v>
       </c>
       <c r="C174" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D174" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E174" t="n">
         <v>295</v>
       </c>
       <c r="F174" t="n">
-        <v>28979.2788</v>
+        <v>3734.0647</v>
       </c>
       <c r="G174" t="n">
-        <v>296.5833333333333</v>
+        <v>296.5666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C175" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D175" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E175" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F175" t="n">
-        <v>14033.5762</v>
+        <v>28979.2788</v>
       </c>
       <c r="G175" t="n">
-        <v>296.6166666666667</v>
+        <v>296.5833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C176" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D176" t="n">
         <v>302</v>
       </c>
       <c r="E176" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F176" t="n">
-        <v>13693.7828</v>
+        <v>14033.5762</v>
       </c>
       <c r="G176" t="n">
-        <v>296.7166666666666</v>
+        <v>296.6166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C177" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D177" t="n">
         <v>302</v>
       </c>
       <c r="E177" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F177" t="n">
-        <v>20517.7178</v>
+        <v>13693.7828</v>
       </c>
       <c r="G177" t="n">
-        <v>296.8</v>
+        <v>296.7166666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>302</v>
+      </c>
+      <c r="C178" t="n">
         <v>300</v>
       </c>
-      <c r="C178" t="n">
-        <v>298</v>
-      </c>
       <c r="D178" t="n">
+        <v>302</v>
+      </c>
+      <c r="E178" t="n">
         <v>300</v>
       </c>
-      <c r="E178" t="n">
-        <v>298</v>
-      </c>
       <c r="F178" t="n">
-        <v>2515.047</v>
+        <v>20517.7178</v>
       </c>
       <c r="G178" t="n">
-        <v>296.85</v>
+        <v>296.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C179" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D179" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E179" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F179" t="n">
-        <v>5776.0102</v>
+        <v>2515.047</v>
       </c>
       <c r="G179" t="n">
-        <v>296.8666666666667</v>
+        <v>296.85</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C180" t="n">
         <v>296</v>
       </c>
       <c r="D180" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E180" t="n">
         <v>296</v>
       </c>
       <c r="F180" t="n">
-        <v>148.4661</v>
+        <v>5776.0102</v>
       </c>
       <c r="G180" t="n">
-        <v>296.9</v>
+        <v>296.8666666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C181" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D181" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E181" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F181" t="n">
-        <v>15</v>
+        <v>148.4661</v>
       </c>
       <c r="G181" t="n">
-        <v>296.9333333333333</v>
+        <v>296.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C182" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D182" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E182" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F182" t="n">
-        <v>1389.5459</v>
+        <v>15</v>
       </c>
       <c r="G182" t="n">
-        <v>296.9166666666667</v>
+        <v>296.9333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C183" t="n">
         <v>296</v>
@@ -6777,13 +6777,13 @@
         <v>296</v>
       </c>
       <c r="E183" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F183" t="n">
-        <v>938.356</v>
+        <v>1389.5459</v>
       </c>
       <c r="G183" t="n">
-        <v>296.9</v>
+        <v>296.9166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C184" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D184" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E184" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F184" t="n">
-        <v>4523.13</v>
+        <v>938.356</v>
       </c>
       <c r="G184" t="n">
-        <v>296.8666666666667</v>
+        <v>296.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>295</v>
       </c>
       <c r="F185" t="n">
-        <v>3598.5341</v>
+        <v>4523.13</v>
       </c>
       <c r="G185" t="n">
-        <v>296.8333333333333</v>
+        <v>296.8666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>295</v>
       </c>
       <c r="F186" t="n">
-        <v>241.4394</v>
+        <v>3598.5341</v>
       </c>
       <c r="G186" t="n">
-        <v>296.8</v>
+        <v>296.8333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C187" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D187" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E187" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F187" t="n">
-        <v>2.5459</v>
+        <v>241.4394</v>
       </c>
       <c r="G187" t="n">
-        <v>296.7833333333334</v>
+        <v>296.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C188" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D188" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E188" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F188" t="n">
-        <v>2420.4713</v>
+        <v>2.5459</v>
       </c>
       <c r="G188" t="n">
-        <v>296.75</v>
+        <v>296.7833333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,19 +6978,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C189" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D189" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E189" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F189" t="n">
-        <v>165</v>
+        <v>2420.4713</v>
       </c>
       <c r="G189" t="n">
         <v>296.75</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C190" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D190" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E190" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F190" t="n">
-        <v>2446.7713</v>
+        <v>165</v>
       </c>
       <c r="G190" t="n">
-        <v>296.7333333333333</v>
+        <v>296.75</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7060,10 @@
         <v>295</v>
       </c>
       <c r="F191" t="n">
-        <v>3023.7053</v>
+        <v>2446.7713</v>
       </c>
       <c r="G191" t="n">
-        <v>296.7166666666666</v>
+        <v>296.7333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,10 +7095,10 @@
         <v>295</v>
       </c>
       <c r="F192" t="n">
-        <v>1915.1489</v>
+        <v>3023.7053</v>
       </c>
       <c r="G192" t="n">
-        <v>296.6833333333333</v>
+        <v>296.7166666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>295</v>
       </c>
       <c r="F193" t="n">
-        <v>1788.2286</v>
+        <v>1915.1489</v>
       </c>
       <c r="G193" t="n">
-        <v>296.6333333333333</v>
+        <v>296.6833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>295</v>
       </c>
       <c r="F194" t="n">
-        <v>10.7186</v>
+        <v>1788.2286</v>
       </c>
       <c r="G194" t="n">
-        <v>296.55</v>
+        <v>296.6333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C195" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D195" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E195" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F195" t="n">
-        <v>2414.4201</v>
+        <v>10.7186</v>
       </c>
       <c r="G195" t="n">
-        <v>296.4166666666667</v>
+        <v>296.55</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7232,13 +7232,13 @@
         <v>293</v>
       </c>
       <c r="E196" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F196" t="n">
-        <v>17089.5361</v>
+        <v>2414.4201</v>
       </c>
       <c r="G196" t="n">
-        <v>296.3</v>
+        <v>296.4166666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C197" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D197" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E197" t="n">
         <v>292</v>
       </c>
       <c r="F197" t="n">
-        <v>22.6312</v>
+        <v>17089.5361</v>
       </c>
       <c r="G197" t="n">
-        <v>296.15</v>
+        <v>296.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C198" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D198" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E198" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F198" t="n">
-        <v>7069.421</v>
+        <v>22.6312</v>
       </c>
       <c r="G198" t="n">
-        <v>296.0166666666667</v>
+        <v>296.15</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7340,10 +7340,10 @@
         <v>293</v>
       </c>
       <c r="F199" t="n">
-        <v>2785.7166</v>
+        <v>7069.421</v>
       </c>
       <c r="G199" t="n">
-        <v>295.8833333333333</v>
+        <v>296.0166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>293</v>
       </c>
       <c r="F200" t="n">
-        <v>11679.1216</v>
+        <v>2785.7166</v>
       </c>
       <c r="G200" t="n">
-        <v>295.7666666666667</v>
+        <v>295.8833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>293</v>
       </c>
       <c r="F201" t="n">
-        <v>3134.4413</v>
+        <v>11679.1216</v>
       </c>
       <c r="G201" t="n">
-        <v>295.6666666666667</v>
+        <v>295.7666666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7436,19 +7436,19 @@
         <v>293</v>
       </c>
       <c r="C202" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D202" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E202" t="n">
         <v>293</v>
       </c>
       <c r="F202" t="n">
-        <v>4095.1967</v>
+        <v>3134.4413</v>
       </c>
       <c r="G202" t="n">
-        <v>295.6</v>
+        <v>295.6666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7471,19 +7471,19 @@
         <v>293</v>
       </c>
       <c r="C203" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D203" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E203" t="n">
         <v>293</v>
       </c>
       <c r="F203" t="n">
-        <v>10.7542</v>
+        <v>4095.1967</v>
       </c>
       <c r="G203" t="n">
-        <v>295.5166666666667</v>
+        <v>295.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>293</v>
       </c>
       <c r="F204" t="n">
-        <v>956.4542</v>
+        <v>10.7542</v>
       </c>
       <c r="G204" t="n">
-        <v>295.4333333333333</v>
+        <v>295.5166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>293</v>
       </c>
       <c r="F205" t="n">
-        <v>160684.3056</v>
+        <v>956.4542</v>
       </c>
       <c r="G205" t="n">
-        <v>295.35</v>
+        <v>295.4333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         <v>293</v>
       </c>
       <c r="F206" t="n">
-        <v>270676.5386</v>
+        <v>160684.3056</v>
       </c>
       <c r="G206" t="n">
-        <v>295.2666666666667</v>
+        <v>295.35</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>293</v>
       </c>
       <c r="F207" t="n">
-        <v>269720.0844</v>
+        <v>270676.5386</v>
       </c>
       <c r="G207" t="n">
-        <v>295.2</v>
+        <v>295.2666666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>293</v>
       </c>
       <c r="F208" t="n">
-        <v>382581.68</v>
+        <v>269720.0844</v>
       </c>
       <c r="G208" t="n">
-        <v>295.1333333333333</v>
+        <v>295.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,10 +7690,10 @@
         <v>293</v>
       </c>
       <c r="F209" t="n">
-        <v>537527.2604</v>
+        <v>382581.68</v>
       </c>
       <c r="G209" t="n">
-        <v>295.0666666666667</v>
+        <v>295.1333333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>293</v>
       </c>
       <c r="F210" t="n">
-        <v>543265.9856</v>
+        <v>537527.2604</v>
       </c>
       <c r="G210" t="n">
-        <v>295</v>
+        <v>295.0666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7760,10 +7760,10 @@
         <v>293</v>
       </c>
       <c r="F211" t="n">
-        <v>539440.1688</v>
+        <v>543265.9856</v>
       </c>
       <c r="G211" t="n">
-        <v>294.95</v>
+        <v>295</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7792,13 +7792,13 @@
         <v>293</v>
       </c>
       <c r="E212" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F212" t="n">
-        <v>527811.8263</v>
+        <v>539440.1688</v>
       </c>
       <c r="G212" t="n">
-        <v>294.9</v>
+        <v>294.95</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C213" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D213" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E213" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F213" t="n">
-        <v>500</v>
+        <v>527811.8263</v>
       </c>
       <c r="G213" t="n">
-        <v>294.8</v>
+        <v>294.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C214" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D214" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E214" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F214" t="n">
-        <v>1576.7508</v>
+        <v>500</v>
       </c>
       <c r="G214" t="n">
-        <v>294.75</v>
+        <v>294.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C215" t="n">
         <v>293</v>
@@ -7897,13 +7897,13 @@
         <v>293</v>
       </c>
       <c r="E215" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F215" t="n">
-        <v>36309.8016</v>
+        <v>1576.7508</v>
       </c>
       <c r="G215" t="n">
-        <v>294.7166666666666</v>
+        <v>294.75</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +7935,10 @@
         <v>293</v>
       </c>
       <c r="F216" t="n">
-        <v>1864.7406</v>
+        <v>36309.8016</v>
       </c>
       <c r="G216" t="n">
-        <v>294.7</v>
+        <v>294.7166666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C217" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D217" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E217" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F217" t="n">
-        <v>2924</v>
+        <v>1864.7406</v>
       </c>
       <c r="G217" t="n">
-        <v>294.7166666666666</v>
+        <v>294.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,19 +7993,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C218" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D218" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E218" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F218" t="n">
-        <v>364471.2408</v>
+        <v>2924</v>
       </c>
       <c r="G218" t="n">
         <v>294.7166666666666</v>
@@ -8040,7 +8040,7 @@
         <v>293</v>
       </c>
       <c r="F219" t="n">
-        <v>831817.4286</v>
+        <v>364471.2408</v>
       </c>
       <c r="G219" t="n">
         <v>294.7166666666666</v>
@@ -8075,10 +8075,10 @@
         <v>293</v>
       </c>
       <c r="F220" t="n">
-        <v>424435.2286</v>
+        <v>831817.4286</v>
       </c>
       <c r="G220" t="n">
-        <v>294.7333333333333</v>
+        <v>294.7166666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>293</v>
       </c>
       <c r="F221" t="n">
-        <v>817606.6712</v>
+        <v>424435.2286</v>
       </c>
       <c r="G221" t="n">
-        <v>294.75</v>
+        <v>294.7333333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>293</v>
       </c>
       <c r="F222" t="n">
-        <v>814690.3334</v>
+        <v>817606.6712</v>
       </c>
       <c r="G222" t="n">
         <v>294.75</v>
@@ -8180,10 +8180,10 @@
         <v>293</v>
       </c>
       <c r="F223" t="n">
-        <v>176864.863</v>
+        <v>814690.3334</v>
       </c>
       <c r="G223" t="n">
-        <v>294.7166666666666</v>
+        <v>294.75</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8206,19 +8206,19 @@
         <v>293</v>
       </c>
       <c r="C224" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D224" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E224" t="n">
         <v>293</v>
       </c>
       <c r="F224" t="n">
-        <v>7482.7259</v>
+        <v>176864.863</v>
       </c>
       <c r="G224" t="n">
-        <v>294.6666666666667</v>
+        <v>294.7166666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C225" t="n">
         <v>295</v>
@@ -8247,13 +8247,13 @@
         <v>295</v>
       </c>
       <c r="E225" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F225" t="n">
-        <v>1621.9837</v>
+        <v>7482.7259</v>
       </c>
       <c r="G225" t="n">
-        <v>294.6166666666667</v>
+        <v>294.6666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C226" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D226" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E226" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F226" t="n">
-        <v>919.9322</v>
+        <v>1621.9837</v>
       </c>
       <c r="G226" t="n">
-        <v>294.5666666666667</v>
+        <v>294.6166666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C227" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D227" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E227" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>919.9322</v>
       </c>
       <c r="G227" t="n">
-        <v>294.4666666666666</v>
+        <v>294.5666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8355,10 +8355,10 @@
         <v>291</v>
       </c>
       <c r="F228" t="n">
-        <v>61.9621</v>
+        <v>10000</v>
       </c>
       <c r="G228" t="n">
-        <v>294.4</v>
+        <v>294.4666666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C229" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D229" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E229" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F229" t="n">
-        <v>2400</v>
+        <v>61.9621</v>
       </c>
       <c r="G229" t="n">
-        <v>294.3166666666667</v>
+        <v>294.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8416,19 +8416,19 @@
         <v>290</v>
       </c>
       <c r="C230" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D230" t="n">
         <v>290</v>
       </c>
       <c r="E230" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F230" t="n">
-        <v>2318.3171</v>
+        <v>2400</v>
       </c>
       <c r="G230" t="n">
-        <v>294.2166666666666</v>
+        <v>294.3166666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C231" t="n">
         <v>289</v>
       </c>
       <c r="D231" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E231" t="n">
         <v>289</v>
       </c>
       <c r="F231" t="n">
-        <v>359.8765</v>
+        <v>2318.3171</v>
       </c>
       <c r="G231" t="n">
-        <v>294.1</v>
+        <v>294.2166666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8495,10 +8495,10 @@
         <v>289</v>
       </c>
       <c r="F232" t="n">
-        <v>331.9251</v>
+        <v>359.8765</v>
       </c>
       <c r="G232" t="n">
-        <v>294</v>
+        <v>294.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C233" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D233" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E233" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F233" t="n">
-        <v>10430.2578</v>
+        <v>331.9251</v>
       </c>
       <c r="G233" t="n">
-        <v>293.9166666666667</v>
+        <v>294</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C234" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D234" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E234" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F234" t="n">
-        <v>819.0692</v>
+        <v>10430.2578</v>
       </c>
       <c r="G234" t="n">
-        <v>293.75</v>
+        <v>293.9166666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C235" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D235" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E235" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F235" t="n">
-        <v>1488</v>
+        <v>819.0692</v>
       </c>
       <c r="G235" t="n">
-        <v>293.5333333333334</v>
+        <v>293.75</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8635,10 +8635,10 @@
         <v>287</v>
       </c>
       <c r="F236" t="n">
-        <v>34.8432</v>
+        <v>1488</v>
       </c>
       <c r="G236" t="n">
-        <v>293.3</v>
+        <v>293.5333333333334</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C237" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D237" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E237" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F237" t="n">
-        <v>18312.401</v>
+        <v>34.8432</v>
       </c>
       <c r="G237" t="n">
-        <v>293.0166666666667</v>
+        <v>293.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C238" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D238" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E238" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F238" t="n">
-        <v>13563.9718</v>
+        <v>18312.401</v>
       </c>
       <c r="G238" t="n">
-        <v>292.75</v>
+        <v>293.0166666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C239" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D239" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E239" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F239" t="n">
-        <v>610</v>
+        <v>13563.9718</v>
       </c>
       <c r="G239" t="n">
-        <v>292.5333333333334</v>
+        <v>292.75</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8766,19 +8766,19 @@
         <v>283</v>
       </c>
       <c r="C240" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D240" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E240" t="n">
         <v>283</v>
       </c>
       <c r="F240" t="n">
-        <v>206</v>
+        <v>610</v>
       </c>
       <c r="G240" t="n">
-        <v>292.3333333333333</v>
+        <v>292.5333333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C241" t="n">
         <v>284</v>
@@ -8810,10 +8810,10 @@
         <v>283</v>
       </c>
       <c r="F241" t="n">
-        <v>4068.4161</v>
+        <v>206</v>
       </c>
       <c r="G241" t="n">
-        <v>292.1166666666667</v>
+        <v>292.3333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8836,19 +8836,19 @@
         <v>284</v>
       </c>
       <c r="C242" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D242" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E242" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F242" t="n">
-        <v>24614.1891</v>
+        <v>4068.4161</v>
       </c>
       <c r="G242" t="n">
-        <v>291.8666666666667</v>
+        <v>292.1166666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C243" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D243" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E243" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F243" t="n">
-        <v>91.3051</v>
+        <v>24614.1891</v>
       </c>
       <c r="G243" t="n">
-        <v>291.6333333333333</v>
+        <v>291.8666666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8903,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C244" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D244" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E244" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F244" t="n">
-        <v>5904.3286</v>
+        <v>91.3051</v>
       </c>
       <c r="G244" t="n">
-        <v>291.4333333333333</v>
+        <v>291.6333333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C245" t="n">
         <v>283</v>
@@ -8950,10 +8950,10 @@
         <v>281</v>
       </c>
       <c r="F245" t="n">
-        <v>6</v>
+        <v>5904.3286</v>
       </c>
       <c r="G245" t="n">
-        <v>291.2333333333333</v>
+        <v>291.4333333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,7 +8973,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C246" t="n">
         <v>283</v>
@@ -8985,10 +8985,10 @@
         <v>281</v>
       </c>
       <c r="F246" t="n">
-        <v>22091.4278</v>
+        <v>6</v>
       </c>
       <c r="G246" t="n">
-        <v>291.0333333333334</v>
+        <v>291.2333333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C247" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D247" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E247" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F247" t="n">
-        <v>201</v>
+        <v>22091.4278</v>
       </c>
       <c r="G247" t="n">
-        <v>290.85</v>
+        <v>291.0333333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9046,19 +9046,19 @@
         <v>282</v>
       </c>
       <c r="C248" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D248" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E248" t="n">
         <v>282</v>
       </c>
       <c r="F248" t="n">
-        <v>1718</v>
+        <v>201</v>
       </c>
       <c r="G248" t="n">
-        <v>290.6</v>
+        <v>290.85</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C249" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D249" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E249" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F249" t="n">
-        <v>6231</v>
+        <v>1718</v>
       </c>
       <c r="G249" t="n">
-        <v>290.4</v>
+        <v>290.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C250" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D250" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E250" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>6231</v>
       </c>
       <c r="G250" t="n">
-        <v>290.2333333333333</v>
+        <v>290.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9160,23 +9160,19 @@
         <v>285</v>
       </c>
       <c r="F251" t="n">
-        <v>3435.421</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>290.0666666666667</v>
+        <v>290.2333333333333</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>285</v>
-      </c>
-      <c r="K251" t="n">
-        <v>285</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
@@ -9199,10 +9195,10 @@
         <v>285</v>
       </c>
       <c r="F252" t="n">
-        <v>6973.4465</v>
+        <v>3435.421</v>
       </c>
       <c r="G252" t="n">
-        <v>289.9</v>
+        <v>290.0666666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9211,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>285</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9228,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C253" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D253" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E253" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F253" t="n">
-        <v>3508.5082</v>
+        <v>6973.4465</v>
       </c>
       <c r="G253" t="n">
-        <v>289.75</v>
+        <v>289.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9252,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>285</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9281,10 +9265,10 @@
         <v>286</v>
       </c>
       <c r="F254" t="n">
-        <v>12.3248</v>
+        <v>3508.5082</v>
       </c>
       <c r="G254" t="n">
-        <v>289.6</v>
+        <v>289.75</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9304,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F255" t="n">
-        <v>1260</v>
+        <v>12.3248</v>
       </c>
       <c r="G255" t="n">
-        <v>289.4666666666666</v>
+        <v>289.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9342,19 +9326,19 @@
         <v>285</v>
       </c>
       <c r="C256" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D256" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E256" t="n">
         <v>285</v>
       </c>
       <c r="F256" t="n">
-        <v>2276.6901</v>
+        <v>1260</v>
       </c>
       <c r="G256" t="n">
-        <v>289.35</v>
+        <v>289.4666666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9374,7 +9358,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C257" t="n">
         <v>286</v>
@@ -9383,13 +9367,13 @@
         <v>286</v>
       </c>
       <c r="E257" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F257" t="n">
-        <v>675.1548</v>
+        <v>2276.6901</v>
       </c>
       <c r="G257" t="n">
-        <v>289.25</v>
+        <v>289.35</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9409,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C258" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D258" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E258" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F258" t="n">
-        <v>13.4832</v>
+        <v>675.1548</v>
       </c>
       <c r="G258" t="n">
-        <v>289.15</v>
+        <v>289.25</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9444,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C259" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D259" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E259" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F259" t="n">
-        <v>302.7611</v>
+        <v>13.4832</v>
       </c>
       <c r="G259" t="n">
-        <v>289.0166666666667</v>
+        <v>289.15</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9479,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C260" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D260" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E260" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F260" t="n">
-        <v>4558.8206</v>
+        <v>302.7611</v>
       </c>
       <c r="G260" t="n">
-        <v>288.9166666666667</v>
+        <v>289.0166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9514,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C261" t="n">
         <v>287</v>
       </c>
       <c r="D261" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E261" t="n">
         <v>287</v>
       </c>
       <c r="F261" t="n">
-        <v>498.2087</v>
+        <v>4558.8206</v>
       </c>
       <c r="G261" t="n">
-        <v>288.8166666666667</v>
+        <v>288.9166666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9549,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C262" t="n">
         <v>287</v>
       </c>
       <c r="D262" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E262" t="n">
         <v>287</v>
       </c>
       <c r="F262" t="n">
-        <v>5500.7746</v>
+        <v>498.2087</v>
       </c>
       <c r="G262" t="n">
-        <v>288.6833333333333</v>
+        <v>288.8166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9584,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C263" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D263" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E263" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F263" t="n">
-        <v>6512.9103</v>
+        <v>5500.7746</v>
       </c>
       <c r="G263" t="n">
-        <v>288.5666666666667</v>
+        <v>288.6833333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9619,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C264" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D264" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E264" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F264" t="n">
-        <v>7123.8865</v>
+        <v>6512.9103</v>
       </c>
       <c r="G264" t="n">
-        <v>288.4</v>
+        <v>288.5666666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9666,10 +9650,10 @@
         <v>283</v>
       </c>
       <c r="F265" t="n">
-        <v>583.5907999999999</v>
+        <v>7123.8865</v>
       </c>
       <c r="G265" t="n">
-        <v>288.2333333333333</v>
+        <v>288.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9701,10 +9685,10 @@
         <v>283</v>
       </c>
       <c r="F266" t="n">
-        <v>2637.4062</v>
+        <v>583.5907999999999</v>
       </c>
       <c r="G266" t="n">
-        <v>288.0666666666667</v>
+        <v>288.2333333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9724,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C267" t="n">
         <v>283</v>
       </c>
       <c r="D267" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E267" t="n">
         <v>283</v>
       </c>
       <c r="F267" t="n">
-        <v>6889.331570979021</v>
+        <v>2637.4062</v>
       </c>
       <c r="G267" t="n">
-        <v>287.9</v>
+        <v>288.0666666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9759,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C268" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D268" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E268" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F268" t="n">
-        <v>2200</v>
+        <v>6889.331570979021</v>
       </c>
       <c r="G268" t="n">
-        <v>287.8166666666667</v>
+        <v>287.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9794,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C269" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D269" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E269" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F269" t="n">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="G269" t="n">
-        <v>287.75</v>
+        <v>287.8166666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9841,10 +9825,10 @@
         <v>289</v>
       </c>
       <c r="F270" t="n">
-        <v>12.1579</v>
+        <v>5000</v>
       </c>
       <c r="G270" t="n">
-        <v>287.6833333333333</v>
+        <v>287.75</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9876,10 +9860,10 @@
         <v>289</v>
       </c>
       <c r="F271" t="n">
-        <v>15</v>
+        <v>12.1579</v>
       </c>
       <c r="G271" t="n">
-        <v>287.6166666666667</v>
+        <v>287.6833333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9899,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C272" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D272" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E272" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F272" t="n">
-        <v>1289.8384</v>
+        <v>15</v>
       </c>
       <c r="G272" t="n">
-        <v>287.5166666666667</v>
+        <v>287.6166666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9946,10 +9930,10 @@
         <v>287</v>
       </c>
       <c r="F273" t="n">
-        <v>161.7966</v>
+        <v>1289.8384</v>
       </c>
       <c r="G273" t="n">
-        <v>287.45</v>
+        <v>287.5166666666667</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9969,7 +9953,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C274" t="n">
         <v>287</v>
@@ -9978,13 +9962,13 @@
         <v>287</v>
       </c>
       <c r="E274" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F274" t="n">
-        <v>1912.9929</v>
+        <v>161.7966</v>
       </c>
       <c r="G274" t="n">
-        <v>287.35</v>
+        <v>287.45</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10007,19 +9991,19 @@
         <v>285</v>
       </c>
       <c r="C275" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D275" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E275" t="n">
         <v>285</v>
       </c>
       <c r="F275" t="n">
-        <v>301.1641</v>
+        <v>1912.9929</v>
       </c>
       <c r="G275" t="n">
-        <v>287.2333333333333</v>
+        <v>287.35</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10039,7 +10023,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C276" t="n">
         <v>286</v>
@@ -10051,10 +10035,10 @@
         <v>285</v>
       </c>
       <c r="F276" t="n">
-        <v>1267.8583</v>
+        <v>301.1641</v>
       </c>
       <c r="G276" t="n">
-        <v>287.1166666666667</v>
+        <v>287.2333333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10074,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C277" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D277" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E277" t="n">
         <v>285</v>
       </c>
       <c r="F277" t="n">
-        <v>728.8981</v>
+        <v>1267.8583</v>
       </c>
       <c r="G277" t="n">
-        <v>287.0333333333334</v>
+        <v>287.1166666666667</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10112,19 +10096,19 @@
         <v>285</v>
       </c>
       <c r="C278" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D278" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E278" t="n">
         <v>285</v>
       </c>
       <c r="F278" t="n">
-        <v>263.8724</v>
+        <v>728.8981</v>
       </c>
       <c r="G278" t="n">
-        <v>286.9</v>
+        <v>287.0333333333334</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10144,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C279" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D279" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E279" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F279" t="n">
-        <v>2239.3884</v>
+        <v>263.8724</v>
       </c>
       <c r="G279" t="n">
-        <v>286.8</v>
+        <v>286.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10191,10 +10175,10 @@
         <v>287</v>
       </c>
       <c r="F280" t="n">
-        <v>320.5428</v>
+        <v>2239.3884</v>
       </c>
       <c r="G280" t="n">
-        <v>286.7</v>
+        <v>286.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10226,10 +10210,10 @@
         <v>287</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0001</v>
+        <v>320.5428</v>
       </c>
       <c r="G281" t="n">
-        <v>286.6</v>
+        <v>286.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10249,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C282" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D282" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E282" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F282" t="n">
-        <v>4520</v>
+        <v>0.0001</v>
       </c>
       <c r="G282" t="n">
-        <v>286.5166666666667</v>
+        <v>286.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10287,19 +10271,19 @@
         <v>288</v>
       </c>
       <c r="C283" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D283" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E283" t="n">
         <v>288</v>
       </c>
       <c r="F283" t="n">
-        <v>22</v>
+        <v>4520</v>
       </c>
       <c r="G283" t="n">
-        <v>286.45</v>
+        <v>286.5166666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10319,22 +10303,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C284" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D284" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E284" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F284" t="n">
-        <v>7501.1106</v>
+        <v>22</v>
       </c>
       <c r="G284" t="n">
-        <v>286.3666666666667</v>
+        <v>286.45</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10366,10 +10350,10 @@
         <v>290</v>
       </c>
       <c r="F285" t="n">
-        <v>280.6793</v>
+        <v>7501.1106</v>
       </c>
       <c r="G285" t="n">
-        <v>286.2833333333334</v>
+        <v>286.3666666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10401,10 +10385,10 @@
         <v>290</v>
       </c>
       <c r="F286" t="n">
-        <v>10</v>
+        <v>280.6793</v>
       </c>
       <c r="G286" t="n">
-        <v>286.2166666666666</v>
+        <v>286.2833333333334</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10436,10 +10420,10 @@
         <v>290</v>
       </c>
       <c r="F287" t="n">
-        <v>9739.5481</v>
+        <v>10</v>
       </c>
       <c r="G287" t="n">
-        <v>286.2</v>
+        <v>286.2166666666666</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10459,22 +10443,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C288" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D288" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E288" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F288" t="n">
-        <v>867.7384</v>
+        <v>9739.5481</v>
       </c>
       <c r="G288" t="n">
-        <v>286.1333333333333</v>
+        <v>286.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10494,22 +10478,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C289" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D289" t="n">
         <v>289</v>
       </c>
       <c r="E289" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F289" t="n">
-        <v>152.7337</v>
+        <v>867.7384</v>
       </c>
       <c r="G289" t="n">
-        <v>286.1166666666667</v>
+        <v>286.1333333333333</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10529,7 +10513,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290" t="n">
         <v>289</v>
@@ -10538,10 +10522,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F290" t="n">
-        <v>4130.047</v>
+        <v>152.7337</v>
       </c>
       <c r="G290" t="n">
         <v>286.1166666666667</v>
@@ -10564,22 +10548,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C291" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D291" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E291" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F291" t="n">
-        <v>2824.695</v>
+        <v>4130.047</v>
       </c>
       <c r="G291" t="n">
-        <v>286.0833333333333</v>
+        <v>286.1166666666667</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10599,22 +10583,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C292" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D292" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E292" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F292" t="n">
-        <v>1350.255</v>
+        <v>2824.695</v>
       </c>
       <c r="G292" t="n">
-        <v>286.0666666666667</v>
+        <v>286.0833333333333</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10637,19 +10621,19 @@
         <v>288</v>
       </c>
       <c r="C293" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D293" t="n">
         <v>288</v>
       </c>
       <c r="E293" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F293" t="n">
-        <v>2448.1938</v>
+        <v>1350.255</v>
       </c>
       <c r="G293" t="n">
-        <v>286.0166666666667</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10672,16 +10656,16 @@
         <v>288</v>
       </c>
       <c r="C294" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D294" t="n">
         <v>288</v>
       </c>
       <c r="E294" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F294" t="n">
-        <v>24</v>
+        <v>2448.1938</v>
       </c>
       <c r="G294" t="n">
         <v>286.0166666666667</v>
@@ -10716,10 +10700,10 @@
         <v>288</v>
       </c>
       <c r="F295" t="n">
-        <v>6.4756</v>
+        <v>24</v>
       </c>
       <c r="G295" t="n">
-        <v>286.0333333333334</v>
+        <v>286.0166666666667</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10739,22 +10723,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C296" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D296" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E296" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F296" t="n">
-        <v>4780.6229</v>
+        <v>6.4756</v>
       </c>
       <c r="G296" t="n">
-        <v>286</v>
+        <v>286.0333333333334</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10777,19 +10761,19 @@
         <v>287</v>
       </c>
       <c r="C297" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D297" t="n">
         <v>287</v>
       </c>
       <c r="E297" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F297" t="n">
-        <v>25.763</v>
+        <v>4780.6229</v>
       </c>
       <c r="G297" t="n">
-        <v>286.0666666666667</v>
+        <v>286</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10809,22 +10793,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C298" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D298" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E298" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F298" t="n">
-        <v>2513.2584</v>
+        <v>25.763</v>
       </c>
       <c r="G298" t="n">
-        <v>286.1</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10844,19 +10828,19 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C299" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D299" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E299" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F299" t="n">
-        <v>16580.1575</v>
+        <v>2513.2584</v>
       </c>
       <c r="G299" t="n">
         <v>286.1</v>
@@ -10882,16 +10866,16 @@
         <v>283</v>
       </c>
       <c r="C300" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D300" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E300" t="n">
         <v>283</v>
       </c>
       <c r="F300" t="n">
-        <v>701.2859999999999</v>
+        <v>16580.1575</v>
       </c>
       <c r="G300" t="n">
         <v>286.1</v>
@@ -10914,7 +10898,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C301" t="n">
         <v>284</v>
@@ -10923,10 +10907,10 @@
         <v>284</v>
       </c>
       <c r="E301" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F301" t="n">
-        <v>497.2133</v>
+        <v>701.2859999999999</v>
       </c>
       <c r="G301" t="n">
         <v>286.1</v>
@@ -10952,19 +10936,19 @@
         <v>284</v>
       </c>
       <c r="C302" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D302" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E302" t="n">
         <v>284</v>
       </c>
       <c r="F302" t="n">
-        <v>2010</v>
+        <v>497.2133</v>
       </c>
       <c r="G302" t="n">
-        <v>286.1666666666667</v>
+        <v>286.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10984,7 +10968,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C303" t="n">
         <v>285</v>
@@ -10993,13 +10977,13 @@
         <v>285</v>
       </c>
       <c r="E303" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F303" t="n">
-        <v>10.52631578947368</v>
+        <v>2010</v>
       </c>
       <c r="G303" t="n">
-        <v>286.2166666666666</v>
+        <v>286.1666666666667</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11019,7 +11003,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C304" t="n">
         <v>285</v>
@@ -11028,13 +11012,13 @@
         <v>285</v>
       </c>
       <c r="E304" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F304" t="n">
-        <v>3796.0249</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="G304" t="n">
-        <v>286.25</v>
+        <v>286.2166666666666</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11054,19 +11038,19 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C305" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D305" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E305" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F305" t="n">
-        <v>340</v>
+        <v>3796.0249</v>
       </c>
       <c r="G305" t="n">
         <v>286.25</v>
@@ -11089,22 +11073,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C306" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D306" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E306" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F306" t="n">
-        <v>47.7421</v>
+        <v>340</v>
       </c>
       <c r="G306" t="n">
-        <v>286.2333333333333</v>
+        <v>286.25</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11136,10 +11120,10 @@
         <v>282</v>
       </c>
       <c r="F307" t="n">
-        <v>31.2034</v>
+        <v>47.7421</v>
       </c>
       <c r="G307" t="n">
-        <v>286.1833333333333</v>
+        <v>286.2333333333333</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11171,7 +11155,7 @@
         <v>282</v>
       </c>
       <c r="F308" t="n">
-        <v>14.9625</v>
+        <v>31.2034</v>
       </c>
       <c r="G308" t="n">
         <v>286.1833333333333</v>
@@ -11194,22 +11178,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C309" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D309" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E309" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F309" t="n">
-        <v>1</v>
+        <v>14.9625</v>
       </c>
       <c r="G309" t="n">
-        <v>286.2333333333333</v>
+        <v>286.1833333333333</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11241,10 +11225,10 @@
         <v>287</v>
       </c>
       <c r="F310" t="n">
-        <v>2575.4947</v>
+        <v>1</v>
       </c>
       <c r="G310" t="n">
-        <v>286.2666666666667</v>
+        <v>286.2333333333333</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11264,22 +11248,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C311" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D311" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E311" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F311" t="n">
-        <v>2925.4899</v>
+        <v>2575.4947</v>
       </c>
       <c r="G311" t="n">
-        <v>286.2833333333334</v>
+        <v>286.2666666666667</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11299,22 +11283,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C312" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D312" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E312" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F312" t="n">
-        <v>13888.88888888889</v>
+        <v>2925.4899</v>
       </c>
       <c r="G312" t="n">
-        <v>286.3333333333333</v>
+        <v>286.2833333333334</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11334,19 +11318,19 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C313" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D313" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E313" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F313" t="n">
-        <v>31.8081</v>
+        <v>13888.88888888889</v>
       </c>
       <c r="G313" t="n">
         <v>286.3333333333333</v>
@@ -11372,19 +11356,19 @@
         <v>286</v>
       </c>
       <c r="C314" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D314" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E314" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F314" t="n">
-        <v>19391.96016793104</v>
+        <v>31.8081</v>
       </c>
       <c r="G314" t="n">
-        <v>286.3166666666667</v>
+        <v>286.3333333333333</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11407,19 +11391,19 @@
         <v>286</v>
       </c>
       <c r="C315" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D315" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E315" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F315" t="n">
-        <v>4970</v>
+        <v>19391.96016793104</v>
       </c>
       <c r="G315" t="n">
-        <v>286.3333333333333</v>
+        <v>286.3166666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11451,7 +11435,7 @@
         <v>286</v>
       </c>
       <c r="F316" t="n">
-        <v>1282.7651</v>
+        <v>4970</v>
       </c>
       <c r="G316" t="n">
         <v>286.3333333333333</v>
@@ -11486,7 +11470,7 @@
         <v>286</v>
       </c>
       <c r="F317" t="n">
-        <v>2957.2981</v>
+        <v>1282.7651</v>
       </c>
       <c r="G317" t="n">
         <v>286.3333333333333</v>
@@ -11509,19 +11493,19 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C318" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D318" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E318" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F318" t="n">
-        <v>31.1008</v>
+        <v>2957.2981</v>
       </c>
       <c r="G318" t="n">
         <v>286.3333333333333</v>
@@ -11556,10 +11540,10 @@
         <v>287</v>
       </c>
       <c r="F319" t="n">
-        <v>0.8992</v>
+        <v>31.1008</v>
       </c>
       <c r="G319" t="n">
-        <v>286.3666666666667</v>
+        <v>286.3333333333333</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11579,22 +11563,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C320" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D320" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E320" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F320" t="n">
-        <v>19.0916</v>
+        <v>0.8992</v>
       </c>
       <c r="G320" t="n">
-        <v>286.3333333333333</v>
+        <v>286.3666666666667</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11626,10 +11610,10 @@
         <v>285</v>
       </c>
       <c r="F321" t="n">
-        <v>1861.7322</v>
+        <v>19.0916</v>
       </c>
       <c r="G321" t="n">
-        <v>286.3</v>
+        <v>286.3333333333333</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11649,22 +11633,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C322" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D322" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E322" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F322" t="n">
-        <v>1312.9894</v>
+        <v>1861.7322</v>
       </c>
       <c r="G322" t="n">
-        <v>286.2833333333334</v>
+        <v>286.3</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11684,22 +11668,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C323" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D323" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E323" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F323" t="n">
-        <v>1610.1578</v>
+        <v>1312.9894</v>
       </c>
       <c r="G323" t="n">
-        <v>286.2666666666667</v>
+        <v>286.2833333333334</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11731,10 +11715,10 @@
         <v>285</v>
       </c>
       <c r="F324" t="n">
-        <v>2995.9064</v>
+        <v>1610.1578</v>
       </c>
       <c r="G324" t="n">
-        <v>286.3</v>
+        <v>286.2666666666667</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11754,22 +11738,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C325" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D325" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E325" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F325" t="n">
-        <v>1280.5515</v>
+        <v>2995.9064</v>
       </c>
       <c r="G325" t="n">
-        <v>286.3166666666667</v>
+        <v>286.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11801,10 +11785,10 @@
         <v>284</v>
       </c>
       <c r="F326" t="n">
-        <v>499.7272</v>
+        <v>1280.5515</v>
       </c>
       <c r="G326" t="n">
-        <v>286.3333333333333</v>
+        <v>286.3166666666667</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11824,22 +11808,22 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C327" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D327" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E327" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F327" t="n">
-        <v>59.9744</v>
+        <v>499.7272</v>
       </c>
       <c r="G327" t="n">
-        <v>286.3666666666667</v>
+        <v>286.3333333333333</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -11862,19 +11846,19 @@
         <v>285</v>
       </c>
       <c r="C328" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D328" t="n">
         <v>285</v>
       </c>
       <c r="E328" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F328" t="n">
-        <v>2967.9481</v>
+        <v>59.9744</v>
       </c>
       <c r="G328" t="n">
-        <v>286.3</v>
+        <v>286.3666666666667</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -11894,22 +11878,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C329" t="n">
         <v>284</v>
       </c>
       <c r="D329" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E329" t="n">
         <v>284</v>
       </c>
       <c r="F329" t="n">
-        <v>110.6132</v>
+        <v>2967.9481</v>
       </c>
       <c r="G329" t="n">
-        <v>286.2166666666666</v>
+        <v>286.3</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11929,22 +11913,22 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C330" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D330" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E330" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F330" t="n">
-        <v>248.614</v>
+        <v>110.6132</v>
       </c>
       <c r="G330" t="n">
-        <v>286.15</v>
+        <v>286.2166666666666</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -11964,22 +11948,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C331" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D331" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E331" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F331" t="n">
-        <v>6491.3721</v>
+        <v>248.614</v>
       </c>
       <c r="G331" t="n">
-        <v>286.0666666666667</v>
+        <v>286.15</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12011,10 +11995,10 @@
         <v>284</v>
       </c>
       <c r="F332" t="n">
-        <v>1000</v>
+        <v>6491.3721</v>
       </c>
       <c r="G332" t="n">
-        <v>286.0166666666667</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12034,22 +12018,22 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C333" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D333" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E333" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F333" t="n">
-        <v>93.908</v>
+        <v>1000</v>
       </c>
       <c r="G333" t="n">
-        <v>285.9833333333333</v>
+        <v>286.0166666666667</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12069,19 +12053,19 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C334" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D334" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E334" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F334" t="n">
-        <v>1307.3044</v>
+        <v>93.908</v>
       </c>
       <c r="G334" t="n">
         <v>285.9833333333333</v>
@@ -12116,10 +12100,10 @@
         <v>287</v>
       </c>
       <c r="F335" t="n">
-        <v>706.5504</v>
+        <v>1307.3044</v>
       </c>
       <c r="G335" t="n">
-        <v>286</v>
+        <v>285.9833333333333</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12142,16 +12126,16 @@
         <v>287</v>
       </c>
       <c r="C336" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D336" t="n">
         <v>287</v>
       </c>
       <c r="E336" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F336" t="n">
-        <v>2029.1021</v>
+        <v>706.5504</v>
       </c>
       <c r="G336" t="n">
         <v>286</v>
@@ -12174,22 +12158,22 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C337" t="n">
         <v>286</v>
       </c>
       <c r="D337" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E337" t="n">
         <v>286</v>
       </c>
       <c r="F337" t="n">
-        <v>397.016</v>
+        <v>2029.1021</v>
       </c>
       <c r="G337" t="n">
-        <v>285.9833333333333</v>
+        <v>286</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12215,16 +12199,16 @@
         <v>286</v>
       </c>
       <c r="D338" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E338" t="n">
         <v>286</v>
       </c>
       <c r="F338" t="n">
-        <v>6821.6699</v>
+        <v>397.016</v>
       </c>
       <c r="G338" t="n">
-        <v>286</v>
+        <v>285.9833333333333</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12250,16 +12234,16 @@
         <v>286</v>
       </c>
       <c r="D339" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E339" t="n">
         <v>286</v>
       </c>
       <c r="F339" t="n">
-        <v>5075.9498</v>
+        <v>6821.6699</v>
       </c>
       <c r="G339" t="n">
-        <v>285.9833333333333</v>
+        <v>286</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12291,10 +12275,10 @@
         <v>286</v>
       </c>
       <c r="F340" t="n">
-        <v>3172.4685</v>
+        <v>5075.9498</v>
       </c>
       <c r="G340" t="n">
-        <v>285.9666666666666</v>
+        <v>285.9833333333333</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12314,22 +12298,22 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C341" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D341" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E341" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F341" t="n">
-        <v>190.3481</v>
+        <v>3172.4685</v>
       </c>
       <c r="G341" t="n">
-        <v>285.9333333333333</v>
+        <v>285.9666666666666</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12361,10 +12345,10 @@
         <v>285</v>
       </c>
       <c r="F342" t="n">
-        <v>1713.1331</v>
+        <v>190.3481</v>
       </c>
       <c r="G342" t="n">
-        <v>285.8833333333333</v>
+        <v>285.9333333333333</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12396,10 +12380,10 @@
         <v>285</v>
       </c>
       <c r="F343" t="n">
-        <v>39.1361</v>
+        <v>1713.1331</v>
       </c>
       <c r="G343" t="n">
-        <v>285.8166666666667</v>
+        <v>285.8833333333333</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12419,22 +12403,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C344" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D344" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E344" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F344" t="n">
-        <v>3556.6571</v>
+        <v>39.1361</v>
       </c>
       <c r="G344" t="n">
-        <v>285.7666666666667</v>
+        <v>285.8166666666667</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12457,19 +12441,19 @@
         <v>287</v>
       </c>
       <c r="C345" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D345" t="n">
         <v>287</v>
       </c>
       <c r="E345" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F345" t="n">
-        <v>16543.079</v>
+        <v>3556.6571</v>
       </c>
       <c r="G345" t="n">
-        <v>285.6833333333333</v>
+        <v>285.7666666666667</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12489,22 +12473,22 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C346" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D346" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E346" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F346" t="n">
-        <v>5406.7507</v>
+        <v>16543.079</v>
       </c>
       <c r="G346" t="n">
-        <v>285.5833333333333</v>
+        <v>285.6833333333333</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12524,22 +12508,22 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C347" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D347" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E347" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F347" t="n">
-        <v>3180</v>
+        <v>5406.7507</v>
       </c>
       <c r="G347" t="n">
-        <v>285.45</v>
+        <v>285.5833333333333</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12559,22 +12543,22 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C348" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D348" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E348" t="n">
         <v>282</v>
       </c>
       <c r="F348" t="n">
-        <v>11322.3873</v>
+        <v>3180</v>
       </c>
       <c r="G348" t="n">
-        <v>285.4</v>
+        <v>285.45</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -12597,19 +12581,19 @@
         <v>283</v>
       </c>
       <c r="C349" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D349" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E349" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F349" t="n">
-        <v>63.1596</v>
+        <v>11322.3873</v>
       </c>
       <c r="G349" t="n">
-        <v>285.3</v>
+        <v>285.4</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12641,10 +12625,10 @@
         <v>283</v>
       </c>
       <c r="F350" t="n">
-        <v>7194.9533</v>
+        <v>63.1596</v>
       </c>
       <c r="G350" t="n">
-        <v>285.2</v>
+        <v>285.3</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -12676,10 +12660,10 @@
         <v>283</v>
       </c>
       <c r="F351" t="n">
-        <v>578.1657</v>
+        <v>7194.9533</v>
       </c>
       <c r="G351" t="n">
-        <v>285.1333333333333</v>
+        <v>285.2</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -12699,22 +12683,22 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C352" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D352" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E352" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F352" t="n">
-        <v>20.2543</v>
+        <v>578.1657</v>
       </c>
       <c r="G352" t="n">
-        <v>285.0833333333333</v>
+        <v>285.1333333333333</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -12746,10 +12730,10 @@
         <v>285</v>
       </c>
       <c r="F353" t="n">
-        <v>0.7457</v>
+        <v>20.2543</v>
       </c>
       <c r="G353" t="n">
-        <v>285.05</v>
+        <v>285.0833333333333</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -12769,22 +12753,22 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C354" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D354" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E354" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F354" t="n">
-        <v>1221.7277</v>
+        <v>0.7457</v>
       </c>
       <c r="G354" t="n">
-        <v>284.9666666666666</v>
+        <v>285.05</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -12807,19 +12791,19 @@
         <v>284</v>
       </c>
       <c r="C355" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D355" t="n">
         <v>284</v>
       </c>
       <c r="E355" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F355" t="n">
-        <v>6.4594</v>
+        <v>1221.7277</v>
       </c>
       <c r="G355" t="n">
-        <v>284.9</v>
+        <v>284.9666666666666</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -12842,19 +12826,19 @@
         <v>284</v>
       </c>
       <c r="C356" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D356" t="n">
         <v>284</v>
       </c>
       <c r="E356" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F356" t="n">
-        <v>603.1175676056338</v>
+        <v>6.4594</v>
       </c>
       <c r="G356" t="n">
-        <v>284.85</v>
+        <v>284.9</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -12874,22 +12858,22 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C357" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D357" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E357" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F357" t="n">
-        <v>14418.1477</v>
+        <v>603.1175676056338</v>
       </c>
       <c r="G357" t="n">
-        <v>284.75</v>
+        <v>284.85</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -12909,22 +12893,22 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C358" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D358" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E358" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F358" t="n">
-        <v>19.1397</v>
+        <v>14418.1477</v>
       </c>
       <c r="G358" t="n">
-        <v>284.7333333333333</v>
+        <v>284.75</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -12947,19 +12931,19 @@
         <v>283</v>
       </c>
       <c r="C359" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D359" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E359" t="n">
         <v>283</v>
       </c>
       <c r="F359" t="n">
-        <v>4637.8387</v>
+        <v>19.1397</v>
       </c>
       <c r="G359" t="n">
-        <v>284.75</v>
+        <v>284.7333333333333</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -12982,19 +12966,19 @@
         <v>283</v>
       </c>
       <c r="C360" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D360" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E360" t="n">
         <v>283</v>
       </c>
       <c r="F360" t="n">
-        <v>536.6085</v>
+        <v>4637.8387</v>
       </c>
       <c r="G360" t="n">
-        <v>284.7333333333333</v>
+        <v>284.75</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -13026,10 +13010,10 @@
         <v>283</v>
       </c>
       <c r="F361" t="n">
-        <v>412.2639</v>
+        <v>536.6085</v>
       </c>
       <c r="G361" t="n">
-        <v>284.7166666666666</v>
+        <v>284.7333333333333</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -13052,19 +13036,19 @@
         <v>283</v>
       </c>
       <c r="C362" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D362" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E362" t="n">
         <v>283</v>
       </c>
       <c r="F362" t="n">
-        <v>5859.5528</v>
+        <v>412.2639</v>
       </c>
       <c r="G362" t="n">
-        <v>284.7</v>
+        <v>284.7166666666666</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -13084,19 +13068,19 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C363" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D363" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E363" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F363" t="n">
-        <v>982.4561403508771</v>
+        <v>5859.5528</v>
       </c>
       <c r="G363" t="n">
         <v>284.7</v>
@@ -13119,22 +13103,22 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C364" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D364" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E364" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F364" t="n">
-        <v>553.5814</v>
+        <v>982.4561403508771</v>
       </c>
       <c r="G364" t="n">
-        <v>284.6833333333333</v>
+        <v>284.7</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -13166,10 +13150,10 @@
         <v>284</v>
       </c>
       <c r="F365" t="n">
-        <v>157.1869</v>
+        <v>553.5814</v>
       </c>
       <c r="G365" t="n">
-        <v>284.7</v>
+        <v>284.6833333333333</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -13189,22 +13173,22 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C366" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D366" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E366" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F366" t="n">
-        <v>1.3</v>
+        <v>157.1869</v>
       </c>
       <c r="G366" t="n">
-        <v>284.75</v>
+        <v>284.7</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -13236,10 +13220,10 @@
         <v>285</v>
       </c>
       <c r="F367" t="n">
-        <v>3508.814</v>
+        <v>1.3</v>
       </c>
       <c r="G367" t="n">
-        <v>284.8</v>
+        <v>284.75</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -13259,22 +13243,22 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C368" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D368" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E368" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F368" t="n">
-        <v>1000</v>
+        <v>3508.814</v>
       </c>
       <c r="G368" t="n">
-        <v>284.8333333333333</v>
+        <v>284.8</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -13306,10 +13290,10 @@
         <v>284</v>
       </c>
       <c r="F369" t="n">
-        <v>1441.745</v>
+        <v>1000</v>
       </c>
       <c r="G369" t="n">
-        <v>284.7833333333334</v>
+        <v>284.8333333333333</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -13341,10 +13325,10 @@
         <v>284</v>
       </c>
       <c r="F370" t="n">
-        <v>2076.3153</v>
+        <v>1441.745</v>
       </c>
       <c r="G370" t="n">
-        <v>284.7333333333333</v>
+        <v>284.7833333333334</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -13376,10 +13360,10 @@
         <v>284</v>
       </c>
       <c r="F371" t="n">
-        <v>2481.9396</v>
+        <v>2076.3153</v>
       </c>
       <c r="G371" t="n">
-        <v>284.7</v>
+        <v>284.7333333333333</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -13411,10 +13395,10 @@
         <v>284</v>
       </c>
       <c r="F372" t="n">
-        <v>1304.0001</v>
+        <v>2481.9396</v>
       </c>
       <c r="G372" t="n">
-        <v>284.6333333333333</v>
+        <v>284.7</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -13437,19 +13421,19 @@
         <v>284</v>
       </c>
       <c r="C373" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D373" t="n">
         <v>284</v>
       </c>
       <c r="E373" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F373" t="n">
-        <v>715.3414</v>
+        <v>1304.0001</v>
       </c>
       <c r="G373" t="n">
-        <v>284.5666666666667</v>
+        <v>284.6333333333333</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -13469,22 +13453,22 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C374" t="n">
         <v>282</v>
       </c>
       <c r="D374" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E374" t="n">
         <v>282</v>
       </c>
       <c r="F374" t="n">
-        <v>21.0973</v>
+        <v>715.3414</v>
       </c>
       <c r="G374" t="n">
-        <v>284.5166666666667</v>
+        <v>284.5666666666667</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -13516,10 +13500,10 @@
         <v>282</v>
       </c>
       <c r="F375" t="n">
-        <v>666</v>
+        <v>21.0973</v>
       </c>
       <c r="G375" t="n">
-        <v>284.45</v>
+        <v>284.5166666666667</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -13551,10 +13535,10 @@
         <v>282</v>
       </c>
       <c r="F376" t="n">
-        <v>1272.296</v>
+        <v>666</v>
       </c>
       <c r="G376" t="n">
-        <v>284.3833333333333</v>
+        <v>284.45</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -13586,10 +13570,10 @@
         <v>282</v>
       </c>
       <c r="F377" t="n">
-        <v>8729.5872</v>
+        <v>1272.296</v>
       </c>
       <c r="G377" t="n">
-        <v>284.3166666666667</v>
+        <v>284.3833333333333</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -13609,22 +13593,22 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C378" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D378" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E378" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F378" t="n">
-        <v>8418.929</v>
+        <v>8729.5872</v>
       </c>
       <c r="G378" t="n">
-        <v>284.2</v>
+        <v>284.3166666666667</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -13644,22 +13628,22 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C379" t="n">
         <v>280</v>
       </c>
       <c r="D379" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E379" t="n">
         <v>280</v>
       </c>
       <c r="F379" t="n">
-        <v>9810</v>
+        <v>8418.929</v>
       </c>
       <c r="G379" t="n">
-        <v>284.0833333333333</v>
+        <v>284.2</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -13682,19 +13666,19 @@
         <v>280</v>
       </c>
       <c r="C380" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D380" t="n">
         <v>280</v>
       </c>
       <c r="E380" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F380" t="n">
-        <v>35130.7817</v>
+        <v>9810</v>
       </c>
       <c r="G380" t="n">
-        <v>283.9666666666666</v>
+        <v>284.0833333333333</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -13717,19 +13701,19 @@
         <v>280</v>
       </c>
       <c r="C381" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D381" t="n">
         <v>280</v>
       </c>
       <c r="E381" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F381" t="n">
-        <v>5548.0135</v>
+        <v>35130.7817</v>
       </c>
       <c r="G381" t="n">
-        <v>283.8833333333333</v>
+        <v>283.9666666666666</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -13749,22 +13733,22 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C382" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D382" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E382" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F382" t="n">
-        <v>872.1025</v>
+        <v>5548.0135</v>
       </c>
       <c r="G382" t="n">
-        <v>283.7666666666667</v>
+        <v>283.8833333333333</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -13796,10 +13780,10 @@
         <v>279</v>
       </c>
       <c r="F383" t="n">
-        <v>127.8975</v>
+        <v>872.1025</v>
       </c>
       <c r="G383" t="n">
-        <v>283.6666666666667</v>
+        <v>283.7666666666667</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -13822,19 +13806,19 @@
         <v>279</v>
       </c>
       <c r="C384" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D384" t="n">
         <v>279</v>
       </c>
       <c r="E384" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F384" t="n">
-        <v>1314.3372</v>
+        <v>127.8975</v>
       </c>
       <c r="G384" t="n">
-        <v>283.55</v>
+        <v>283.6666666666667</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -13854,22 +13838,22 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C385" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D385" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E385" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F385" t="n">
-        <v>5096.1519</v>
+        <v>1314.3372</v>
       </c>
       <c r="G385" t="n">
-        <v>283.4333333333333</v>
+        <v>283.55</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -13889,35 +13873,31 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C386" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D386" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E386" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F386" t="n">
-        <v>37.6231</v>
+        <v>5096.1519</v>
       </c>
       <c r="G386" t="n">
-        <v>283.3333333333333</v>
+        <v>283.4333333333333</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>277</v>
-      </c>
-      <c r="K386" t="n">
-        <v>277</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
@@ -13928,122 +13908,114 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
+        <v>278</v>
+      </c>
+      <c r="C387" t="n">
+        <v>278</v>
+      </c>
+      <c r="D387" t="n">
+        <v>278</v>
+      </c>
+      <c r="E387" t="n">
+        <v>278</v>
+      </c>
+      <c r="F387" t="n">
+        <v>37.6231</v>
+      </c>
+      <c r="G387" t="n">
+        <v>283.3333333333333</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
+      <c r="M387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
         <v>280</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C388" t="n">
         <v>279</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D388" t="n">
         <v>280</v>
       </c>
-      <c r="E387" t="n">
+      <c r="E388" t="n">
         <v>279</v>
       </c>
-      <c r="F387" t="n">
+      <c r="F388" t="n">
         <v>13520.0289</v>
       </c>
-      <c r="G387" t="n">
+      <c r="G388" t="n">
         <v>283.2333333333333</v>
       </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
-      <c r="J387" t="n">
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="n">
         <v>278</v>
       </c>
-      <c r="K387" t="n">
-        <v>277</v>
-      </c>
-      <c r="L387" t="inlineStr">
+      <c r="K388" t="n">
+        <v>278</v>
+      </c>
+      <c r="L388" t="inlineStr"/>
+      <c r="M388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>279</v>
+      </c>
+      <c r="C389" t="n">
+        <v>279</v>
+      </c>
+      <c r="D389" t="n">
+        <v>279</v>
+      </c>
+      <c r="E389" t="n">
+        <v>279</v>
+      </c>
+      <c r="F389" t="n">
+        <v>11734.3148</v>
+      </c>
+      <c r="G389" t="n">
+        <v>283.15</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>279</v>
+      </c>
+      <c r="K389" t="n">
+        <v>278</v>
+      </c>
+      <c r="L389" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M387" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>279</v>
-      </c>
-      <c r="C388" t="n">
-        <v>279</v>
-      </c>
-      <c r="D388" t="n">
-        <v>279</v>
-      </c>
-      <c r="E388" t="n">
-        <v>279</v>
-      </c>
-      <c r="F388" t="n">
-        <v>11734.3148</v>
-      </c>
-      <c r="G388" t="n">
-        <v>283.15</v>
-      </c>
-      <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
-      <c r="J388" t="n">
-        <v>279</v>
-      </c>
-      <c r="K388" t="n">
-        <v>277</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M388" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>280</v>
-      </c>
-      <c r="C389" t="n">
-        <v>280</v>
-      </c>
-      <c r="D389" t="n">
-        <v>280</v>
-      </c>
-      <c r="E389" t="n">
-        <v>280</v>
-      </c>
-      <c r="F389" t="n">
-        <v>1680.3158</v>
-      </c>
-      <c r="G389" t="n">
-        <v>283.0833333333333</v>
-      </c>
-      <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>0</v>
-      </c>
-      <c r="J389" t="n">
-        <v>279</v>
-      </c>
-      <c r="K389" t="n">
-        <v>279</v>
-      </c>
-      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14053,34 +14025,32 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C390" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D390" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E390" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F390" t="n">
-        <v>276.152</v>
+        <v>1680.3158</v>
       </c>
       <c r="G390" t="n">
-        <v>282.9833333333333</v>
+        <v>283.0833333333333</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>280</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -14096,76 +14066,123 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
+        <v>279</v>
+      </c>
+      <c r="C391" t="n">
+        <v>279</v>
+      </c>
+      <c r="D391" t="n">
+        <v>279</v>
+      </c>
+      <c r="E391" t="n">
+        <v>279</v>
+      </c>
+      <c r="F391" t="n">
+        <v>276.152</v>
+      </c>
+      <c r="G391" t="n">
+        <v>282.9833333333333</v>
+      </c>
+      <c r="H391" t="n">
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>280</v>
+      </c>
+      <c r="K391" t="n">
+        <v>280</v>
+      </c>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
         <v>277</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C392" t="n">
         <v>277</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D392" t="n">
         <v>277</v>
       </c>
-      <c r="E391" t="n">
+      <c r="E392" t="n">
         <v>277</v>
       </c>
-      <c r="F391" t="n">
+      <c r="F392" t="n">
         <v>4404.2928</v>
       </c>
-      <c r="G391" t="n">
+      <c r="G392" t="n">
         <v>282.8666666666667</v>
       </c>
-      <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0</v>
-      </c>
-      <c r="J391" t="n">
+      <c r="H392" t="n">
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" t="n">
         <v>279</v>
       </c>
-      <c r="K391" t="n">
-        <v>279</v>
-      </c>
-      <c r="L391" t="inlineStr">
+      <c r="K392" t="n">
+        <v>280</v>
+      </c>
+      <c r="L392" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M391" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
+      <c r="M392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
         <v>277</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C393" t="n">
         <v>277</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D393" t="n">
         <v>277</v>
       </c>
-      <c r="E392" t="n">
+      <c r="E393" t="n">
         <v>277</v>
       </c>
-      <c r="F392" t="n">
+      <c r="F393" t="n">
         <v>2355.8421</v>
       </c>
-      <c r="G392" t="n">
+      <c r="G393" t="n">
         <v>282.75</v>
       </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="n">
-        <v>0</v>
-      </c>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
-      <c r="M392" t="n">
+      <c r="H393" t="n">
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>277</v>
+      </c>
+      <c r="K393" t="n">
+        <v>280</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M393" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest BAT.xlsx
+++ b/BackTest/2019-10-24 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>80135.32431573818</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>66829.93151573819</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -2728,10 +2728,14 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>284</v>
+      </c>
+      <c r="J71" t="n">
+        <v>284</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2761,11 +2765,19 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>284</v>
+      </c>
+      <c r="J72" t="n">
+        <v>284</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2806,19 @@
         <v>57161.11254380839</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>284</v>
+      </c>
+      <c r="J73" t="n">
+        <v>284</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3586,7 +3606,7 @@
         <v>90654.69764380839</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3639,7 @@
         <v>82656.09184380839</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4411,10 +4431,14 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>287</v>
+      </c>
+      <c r="J122" t="n">
+        <v>287</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4444,11 +4468,19 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>285</v>
+      </c>
+      <c r="J123" t="n">
+        <v>287</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4509,19 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>285</v>
+      </c>
+      <c r="J124" t="n">
+        <v>287</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,10 +4550,14 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>285</v>
+      </c>
+      <c r="J125" t="n">
+        <v>285</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4543,11 +4587,19 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>283</v>
+      </c>
+      <c r="J126" t="n">
+        <v>285</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4628,19 @@
         <v>66054.64374380838</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>283</v>
+      </c>
+      <c r="J127" t="n">
+        <v>285</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4675,10 +4735,14 @@
         <v>23727.71344380838</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>280</v>
+      </c>
+      <c r="J130" t="n">
+        <v>280</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4708,11 +4772,19 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>281</v>
+      </c>
+      <c r="J131" t="n">
+        <v>280</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4813,19 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>283</v>
+      </c>
+      <c r="J132" t="n">
+        <v>280</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,10 +4854,14 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>283</v>
+      </c>
+      <c r="J133" t="n">
+        <v>283</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4807,11 +4891,19 @@
         <v>43833.78184380839</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>283</v>
+      </c>
+      <c r="J134" t="n">
+        <v>283</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4935,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>283</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5005,10 +5103,14 @@
         <v>48655.70264380838</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>283</v>
+      </c>
+      <c r="J140" t="n">
+        <v>283</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5040,9 +5142,17 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>281</v>
+      </c>
+      <c r="J141" t="n">
+        <v>283</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5181,19 @@
         <v>48952.73764380839</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>282</v>
+      </c>
+      <c r="J142" t="n">
+        <v>283</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5222,19 @@
         <v>46452.73764380839</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>283</v>
+      </c>
+      <c r="J143" t="n">
+        <v>283</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5263,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>281</v>
+      </c>
+      <c r="J144" t="n">
+        <v>283</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5304,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>282</v>
+      </c>
+      <c r="J145" t="n">
+        <v>283</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5345,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>282</v>
+      </c>
+      <c r="J146" t="n">
+        <v>283</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5386,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>282</v>
+      </c>
+      <c r="J147" t="n">
+        <v>283</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5427,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>282</v>
+      </c>
+      <c r="J148" t="n">
+        <v>283</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5468,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>282</v>
+      </c>
+      <c r="J149" t="n">
+        <v>283</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5509,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>282</v>
+      </c>
+      <c r="J150" t="n">
+        <v>283</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5550,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>282</v>
+      </c>
+      <c r="J151" t="n">
+        <v>283</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5591,19 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>282</v>
+      </c>
+      <c r="J152" t="n">
+        <v>283</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5632,19 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>285</v>
+      </c>
+      <c r="J153" t="n">
+        <v>283</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5676,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>283</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5715,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>283</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5754,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>283</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5793,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>283</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5832,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>283</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5871,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>283</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5910,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>283</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5949,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>283</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5988,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>283</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6027,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>283</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6066,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>283</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6105,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>283</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6144,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>283</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6183,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>283</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6222,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>283</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6261,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>283</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6297,17 @@
         <v>53344.25203091641</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>283</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6339,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>283</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6378,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>283</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6417,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>283</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6456,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>283</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6492,17 @@
         <v>104821.9180309164</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>283</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6531,17 @@
         <v>104821.9180309164</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>283</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6570,17 @@
         <v>104821.9180309164</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>283</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6609,17 @@
         <v>104821.9180309164</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>283</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6648,17 @@
         <v>103152.7394309164</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>283</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6690,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>283</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6726,17 @@
         <v>107371.8153309164</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>283</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6768,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>283</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6804,17 @@
         <v>107371.8153309164</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>283</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6846,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>283</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6885,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>283</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6921,17 @@
         <v>107371.8153309164</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>283</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6960,17 @@
         <v>119295.4393777178</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>283</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6999,17 @@
         <v>109866.0100777178</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>283</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7038,17 @@
         <v>109866.0100777178</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>283</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7077,17 @@
         <v>109866.0100777178</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>283</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7116,17 @@
         <v>110362.1379777178</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>283</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7155,17 @@
         <v>113581.0657777178</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>283</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7197,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>283</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7236,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>283</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7275,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>283</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7311,17 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>283</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7353,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>283</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7389,17 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>283</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7428,17 @@
         <v>127237.6040777178</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>283</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7467,17 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>283</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7506,17 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>283</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7548,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>283</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7587,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>283</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7626,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>283</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7665,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>283</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7704,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>283</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7743,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>283</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7779,17 @@
         <v>118737.9431777178</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>283</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7818,17 @@
         <v>118737.9431777178</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>283</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7860,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>283</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7899,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>283</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7938,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>283</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7977,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>283</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8016,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>283</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8055,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>283</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8091,17 @@
         <v>70324.63477771776</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>283</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8133,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>283</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8172,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>283</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8211,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>283</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8250,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>283</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8289,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>283</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8328,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>283</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8367,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>283</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8406,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>283</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8445,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>283</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8484,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>283</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8523,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>283</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8562,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>283</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8601,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>283</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8640,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>283</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8679,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>283</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8718,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>283</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8757,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>283</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8796,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>283</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8835,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>283</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,15 +8871,23 @@
         <v>92807.51257771776</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>283</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>1.055070671378092</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.064285714285714</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8206,7 +8912,7 @@
         <v>90292.46557771775</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8945,7 @@
         <v>84516.45537771775</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8978,7 @@
         <v>84516.45537771775</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +9011,7 @@
         <v>84531.45537771775</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +9044,7 @@
         <v>83141.90947771775</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8833,7 +9539,7 @@
         <v>75992.97407771775</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8965,7 +9671,7 @@
         <v>83062.39507771775</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9097,7 +9803,7 @@
         <v>87146.83757771776</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9658,7 +10364,7 @@
         <v>449770.8291777178</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +10397,7 @@
         <v>449770.8291777178</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9790,7 +10496,7 @@
         <v>456333.6228777178</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +10529,7 @@
         <v>446333.6228777178</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +10562,7 @@
         <v>446333.6228777178</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +10595,7 @@
         <v>443933.6228777178</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +10628,7 @@
         <v>441615.3057777178</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +10661,7 @@
         <v>441615.3057777178</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10694,7 @@
         <v>441615.3057777178</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10727,7 @@
         <v>452045.5635777179</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10760,7 @@
         <v>451226.4943777178</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10793,7 @@
         <v>449738.4943777178</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10153,7 +10859,7 @@
         <v>431426.0933777178</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10892,7 @@
         <v>417862.1215777178</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10925,7 @@
         <v>418472.1215777178</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10958,7 @@
         <v>418678.1215777178</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10991,7 @@
         <v>418678.1215777178</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +11024,7 @@
         <v>394063.9324777178</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10615,7 +11321,7 @@
         <v>404774.5661777178</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10681,7 +11387,7 @@
         <v>408283.0743777178</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +11420,7 @@
         <v>408283.0743777178</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +11453,7 @@
         <v>407023.0743777178</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11486,7 @@
         <v>409299.7644777178</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11519,7 @@
         <v>409299.7644777178</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11552,7 @@
         <v>409313.2476777178</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11585,7 @@
         <v>409010.4865777178</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11618,7 @@
         <v>413569.3071777178</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11651,7 @@
         <v>413569.3071777178</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11684,7 @@
         <v>413569.3071777178</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11717,7 @@
         <v>407056.3968777178</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11750,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11783,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11816,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11849,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11882,7 @@
         <v>402132.5103777178</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11915,7 @@
         <v>407132.5103777178</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11948,7 @@
         <v>407132.5103777178</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11981,7 @@
         <v>407132.5103777178</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +12014,7 @@
         <v>405842.6719777178</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +12047,7 @@
         <v>405842.6719777178</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +12080,7 @@
         <v>405842.6719777178</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +12113,7 @@
         <v>405541.5078777178</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +12146,7 @@
         <v>405541.5078777178</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +12179,7 @@
         <v>406270.4059777178</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +12212,7 @@
         <v>406006.5335777178</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +12245,7 @@
         <v>408245.9219777178</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +12278,7 @@
         <v>408245.9219777178</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +12311,7 @@
         <v>408245.9219777178</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +12344,7 @@
         <v>412765.9219777178</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +12377,7 @@
         <v>412787.9219777178</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +12410,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +12443,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +12476,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +12509,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +12542,7 @@
         <v>419421.2941777178</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +12575,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +12608,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +12641,7 @@
         <v>416749.3328777178</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +12674,7 @@
         <v>418099.5878777178</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12707,7 @@
         <v>415651.3940777178</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12740,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12773,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12806,7 @@
         <v>410894.7711777178</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12839,7 @@
         <v>410920.5341777178</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12872,7 @@
         <v>408407.2757777178</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12905,7 @@
         <v>391827.1182777177</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12938,7 @@
         <v>392528.4042777178</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12971,7 @@
         <v>392528.4042777178</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +13004,7 @@
         <v>394538.4042777178</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +13037,7 @@
         <v>394538.4042777178</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +13070,7 @@
         <v>394538.4042777178</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +13103,7 @@
         <v>394198.4042777178</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +13136,7 @@
         <v>394150.6621777178</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +13169,7 @@
         <v>394150.6621777178</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +13202,7 @@
         <v>394150.6621777178</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +13235,7 @@
         <v>394151.6621777178</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +13268,7 @@
         <v>394151.6621777178</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +13301,7 @@
         <v>391226.1722777178</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +13334,7 @@
         <v>405115.0611666067</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +13367,7 @@
         <v>405083.2530666066</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +13400,7 @@
         <v>385691.2928986756</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +13433,7 @@
         <v>390661.2928986756</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +13466,7 @@
         <v>390661.2928986756</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +13499,7 @@
         <v>390661.2928986756</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +13532,7 @@
         <v>390692.3936986756</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +13565,7 @@
         <v>390692.3936986756</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +13598,7 @@
         <v>390673.3020986756</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +13631,7 @@
         <v>390673.3020986756</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +13664,7 @@
         <v>391986.2914986757</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13697,7 @@
         <v>390376.1336986757</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13730,7 @@
         <v>390376.1336986757</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13763,7 @@
         <v>389095.5821986757</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13796,7 @@
         <v>389095.5821986757</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13829,7 @@
         <v>389155.5565986757</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13862,7 @@
         <v>386187.6084986757</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13895,7 @@
         <v>386187.6084986757</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13928,7 @@
         <v>386436.2224986757</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13961,7 @@
         <v>379944.8503986757</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13994,7 @@
         <v>379944.8503986757</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +14027,7 @@
         <v>380038.7583986757</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +14060,7 @@
         <v>381346.0627986757</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +14093,7 @@
         <v>381346.0627986757</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +14126,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +14159,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +14192,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +14225,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +14258,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +14291,7 @@
         <v>379126.6125986757</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +14324,7 @@
         <v>379126.6125986757</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +14357,7 @@
         <v>379126.6125986757</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +14390,7 @@
         <v>382683.2696986757</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +14423,7 @@
         <v>366140.1906986757</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +14456,7 @@
         <v>360733.4399986757</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +14489,7 @@
         <v>357553.4399986757</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +14522,7 @@
         <v>368875.8272986757</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +14555,7 @@
         <v>368812.6676986757</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +14588,7 @@
         <v>368812.6676986757</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +14621,7 @@
         <v>368812.6676986757</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +14654,7 @@
         <v>368832.9219986757</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14687,7 @@
         <v>368832.9219986757</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14720,7 @@
         <v>367611.1942986757</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14753,7 @@
         <v>367617.6536986757</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14786,7 @@
         <v>367014.5361310701</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14819,7 @@
         <v>352596.3884310701</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14852,7 @@
         <v>352615.5281310701</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14885,7 @@
         <v>357253.3668310701</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14918,7 @@
         <v>356716.7583310701</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14951,7 @@
         <v>356716.7583310701</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14984,7 @@
         <v>362576.3111310701</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +15017,7 @@
         <v>363558.767271421</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +15050,7 @@
         <v>363005.185871421</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +15083,7 @@
         <v>363005.185871421</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +15116,7 @@
         <v>363006.485871421</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +15149,7 @@
         <v>363006.485871421</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +15182,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +15215,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +15248,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +15281,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +15314,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +15347,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +15380,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +15413,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +15446,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +15479,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +15512,7 @@
         <v>352872.215471421</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +15545,7 @@
         <v>352872.215471421</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15532,17 +16238,11 @@
         <v>273482.9286793633</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15571,17 +16271,11 @@
         <v>274278.2163793633</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15610,23 +16304,17 @@
         <v>274218.2088793633</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
       <c r="M461" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest BAT.xlsx
+++ b/BackTest/2019-10-24 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,10 +1804,14 @@
         <v>39785.41124907154</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>292</v>
+      </c>
+      <c r="J43" t="n">
+        <v>292</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1837,11 +1841,19 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>292</v>
+      </c>
+      <c r="J44" t="n">
+        <v>292</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1882,19 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>293</v>
+      </c>
+      <c r="J45" t="n">
+        <v>292</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>292</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1962,19 @@
         <v>53049.35344907155</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>293</v>
+      </c>
+      <c r="J47" t="n">
+        <v>292</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2006,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>292</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2042,19 @@
         <v>56287.24784907155</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>290</v>
+      </c>
+      <c r="J49" t="n">
+        <v>292</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2086,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>292</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>292</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2164,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>292</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>292</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>292</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>292</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>292</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>292</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>292</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>292</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>292</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>292</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>292</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2593,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>292</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2632,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>292</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2671,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>292</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>292</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2746,19 @@
         <v>60920.64804907155</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>288</v>
+      </c>
+      <c r="J67" t="n">
+        <v>292</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2790,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>292</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2829,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>292</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2868,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>292</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2734,9 +2910,13 @@
         <v>284</v>
       </c>
       <c r="J71" t="n">
-        <v>284</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,17 +2945,15 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2806,17 +2984,15 @@
         <v>57161.11254380839</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2850,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>292</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +3062,19 @@
         <v>74874.26854380839</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>287</v>
+      </c>
+      <c r="J75" t="n">
+        <v>292</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2916,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>292</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2949,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>292</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2982,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>292</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3015,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>292</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3048,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>292</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3081,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>292</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3114,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>292</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3147,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>292</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3180,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>292</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3213,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>292</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3246,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>292</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3279,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>292</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3312,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>292</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3345,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>292</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3378,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>292</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3411,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>292</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3727,19 @@
         <v>66951.84224380839</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>283</v>
+      </c>
+      <c r="J92" t="n">
+        <v>292</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,11 +3768,19 @@
         <v>73211.84224380839</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>285</v>
+      </c>
+      <c r="J93" t="n">
+        <v>292</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3510,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>292</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3543,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>292</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3576,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>292</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3609,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>292</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>292</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3675,8 +4007,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>292</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3708,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>292</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3741,8 +4085,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>292</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3774,8 +4124,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>292</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3807,8 +4163,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>292</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3840,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>292</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3873,8 +4241,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>292</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3906,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>292</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3939,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>292</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3972,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>292</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4005,8 +4397,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>292</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4038,8 +4436,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>292</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4071,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>292</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4104,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>292</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4137,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>292</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4170,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>292</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4203,8 +4631,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>292</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4236,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>292</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4269,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>292</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4302,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>292</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4335,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>292</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4368,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>292</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4401,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>292</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,15 +4901,17 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>287</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4468,17 +4940,15 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4509,17 +4979,15 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4550,15 +5018,17 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>285</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4587,17 +5057,15 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4628,17 +5096,15 @@
         <v>66054.64374380838</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4672,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>292</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4705,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>292</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4735,15 +5213,17 @@
         <v>23727.71344380838</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>280</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4772,17 +5252,15 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4813,17 +5291,15 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4854,15 +5330,17 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>283</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4891,17 +5369,15 @@
         <v>43833.78184380839</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -4936,11 +5412,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4971,13 +5447,19 @@
         <v>57926.37644380839</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>292</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>0.9847260273972602</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
@@ -5004,7 +5486,7 @@
         <v>55734.68814380839</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5103,14 +5585,10 @@
         <v>48655.70264380838</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>283</v>
-      </c>
-      <c r="J140" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5140,19 +5618,11 @@
         <v>48942.73764380839</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>281</v>
-      </c>
-      <c r="J141" t="n">
-        <v>283</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5181,19 +5651,11 @@
         <v>48952.73764380839</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>282</v>
-      </c>
-      <c r="J142" t="n">
-        <v>283</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5222,19 +5684,11 @@
         <v>46452.73764380839</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>283</v>
-      </c>
-      <c r="J143" t="n">
-        <v>283</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5263,19 +5717,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>281</v>
-      </c>
-      <c r="J144" t="n">
-        <v>283</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5304,19 +5750,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>282</v>
-      </c>
-      <c r="J145" t="n">
-        <v>283</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5345,19 +5783,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>282</v>
-      </c>
-      <c r="J146" t="n">
-        <v>283</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5386,19 +5816,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>282</v>
-      </c>
-      <c r="J147" t="n">
-        <v>283</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5427,19 +5849,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>282</v>
-      </c>
-      <c r="J148" t="n">
-        <v>283</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5468,19 +5882,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>282</v>
-      </c>
-      <c r="J149" t="n">
-        <v>283</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5509,19 +5915,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>282</v>
-      </c>
-      <c r="J150" t="n">
-        <v>283</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5550,19 +5948,11 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>282</v>
-      </c>
-      <c r="J151" t="n">
-        <v>283</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5591,19 +5981,11 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>282</v>
-      </c>
-      <c r="J152" t="n">
-        <v>283</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5632,19 +6014,11 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>285</v>
-      </c>
-      <c r="J153" t="n">
-        <v>283</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5676,14 +6050,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>283</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5715,14 +6083,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>283</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5754,14 +6116,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>283</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5793,14 +6149,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>283</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5832,14 +6182,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>283</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5871,14 +6215,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>283</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5910,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>283</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5949,14 +6281,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>283</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5988,14 +6314,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>283</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6027,14 +6347,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>283</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6066,14 +6380,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>283</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6102,17 +6410,11 @@
         <v>47794.12013091641</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>283</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6141,17 +6443,11 @@
         <v>47824.81123091641</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>283</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6180,17 +6476,11 @@
         <v>53294.82933091641</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>283</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6219,17 +6509,11 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>283</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6258,17 +6542,11 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>283</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6297,17 +6575,11 @@
         <v>53344.25203091641</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>283</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6336,17 +6608,11 @@
         <v>57255.37733091641</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>283</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6375,17 +6641,11 @@
         <v>57760.08813091641</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>283</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6414,17 +6674,11 @@
         <v>61760.92143091641</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>283</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6453,17 +6707,11 @@
         <v>107130.9180309164</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>283</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6495,14 +6743,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>283</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6534,14 +6776,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>283</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6573,14 +6809,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>283</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6612,14 +6842,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>283</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6651,14 +6875,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>283</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6690,14 +6908,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>283</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6729,14 +6941,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>283</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6768,14 +6974,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>283</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6807,14 +7007,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>283</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6846,14 +7040,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>283</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6885,14 +7073,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>283</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6924,14 +7106,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>283</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6963,14 +7139,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>283</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7002,14 +7172,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>283</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7041,14 +7205,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>283</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7080,14 +7238,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>283</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7119,14 +7271,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>283</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7158,14 +7304,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>283</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7197,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>283</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7236,14 +7370,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>283</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7275,14 +7403,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>283</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7314,14 +7436,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>283</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7353,14 +7469,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>283</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7392,14 +7502,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>283</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7431,14 +7535,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>283</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7470,14 +7568,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>283</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7509,14 +7601,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>283</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7548,14 +7634,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>283</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7587,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>283</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7626,14 +7700,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>283</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7665,14 +7733,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>283</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7704,14 +7766,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>283</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7743,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>283</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7782,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>283</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7821,14 +7865,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>283</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7860,14 +7898,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>283</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7899,14 +7931,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>283</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7938,14 +7964,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>283</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7977,14 +7997,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>283</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8016,14 +8030,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>283</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8055,14 +8063,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>283</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8094,14 +8096,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>283</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8133,14 +8129,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>283</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8172,14 +8162,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>283</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8211,14 +8195,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>283</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8250,14 +8228,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>283</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8289,14 +8261,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>283</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8328,14 +8294,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>283</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8367,14 +8327,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>283</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8406,14 +8360,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>283</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8445,14 +8393,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>283</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8484,14 +8426,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>283</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8523,14 +8459,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>283</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8562,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>283</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8601,14 +8525,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>283</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8640,14 +8558,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>283</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8679,14 +8591,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>283</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8718,14 +8624,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>283</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8757,14 +8657,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>283</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8796,14 +8690,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>283</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8835,14 +8723,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>283</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8871,23 +8753,15 @@
         <v>92807.51257771776</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>283</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>1.055070671378092</v>
-      </c>
-      <c r="M236" t="n">
-        <v>1.064285714285714</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8912,7 +8786,7 @@
         <v>90292.46557771775</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8945,7 +8819,7 @@
         <v>84516.45537771775</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8978,7 +8852,7 @@
         <v>84516.45537771775</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9011,7 +8885,7 @@
         <v>84531.45537771775</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9044,7 +8918,7 @@
         <v>83141.90947771775</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -10496,7 +10370,7 @@
         <v>456333.6228777178</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10529,7 +10403,7 @@
         <v>446333.6228777178</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10562,7 +10436,7 @@
         <v>446333.6228777178</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10595,7 +10469,7 @@
         <v>443933.6228777178</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10628,7 +10502,7 @@
         <v>441615.3057777178</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10661,7 +10535,7 @@
         <v>441615.3057777178</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10694,7 +10568,7 @@
         <v>441615.3057777178</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10727,7 +10601,7 @@
         <v>452045.5635777179</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10760,7 +10634,7 @@
         <v>451226.4943777178</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10793,7 +10667,7 @@
         <v>449738.4943777178</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10859,7 +10733,7 @@
         <v>431426.0933777178</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10892,7 +10766,7 @@
         <v>417862.1215777178</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10925,7 +10799,7 @@
         <v>418472.1215777178</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10958,7 +10832,7 @@
         <v>418678.1215777178</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10991,7 +10865,7 @@
         <v>418678.1215777178</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11024,7 +10898,7 @@
         <v>394063.9324777178</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11321,7 +11195,7 @@
         <v>404774.5661777178</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11387,7 +11261,7 @@
         <v>408283.0743777178</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11420,7 +11294,7 @@
         <v>408283.0743777178</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11453,7 +11327,7 @@
         <v>407023.0743777178</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11486,7 +11360,7 @@
         <v>409299.7644777178</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11519,7 +11393,7 @@
         <v>409299.7644777178</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11552,7 +11426,7 @@
         <v>409313.2476777178</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11585,7 +11459,7 @@
         <v>409010.4865777178</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11618,7 +11492,7 @@
         <v>413569.3071777178</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11651,7 +11525,7 @@
         <v>413569.3071777178</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11684,7 +11558,7 @@
         <v>413569.3071777178</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11717,7 +11591,7 @@
         <v>407056.3968777178</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11750,7 +11624,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11783,7 +11657,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11816,7 +11690,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11849,7 +11723,7 @@
         <v>399932.5103777178</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11882,7 +11756,7 @@
         <v>402132.5103777178</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11915,7 +11789,7 @@
         <v>407132.5103777178</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11948,7 +11822,7 @@
         <v>407132.5103777178</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11981,7 +11855,7 @@
         <v>407132.5103777178</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12014,7 +11888,7 @@
         <v>405842.6719777178</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12047,7 +11921,7 @@
         <v>405842.6719777178</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12080,7 +11954,7 @@
         <v>405842.6719777178</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12113,7 +11987,7 @@
         <v>405541.5078777178</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12146,7 +12020,7 @@
         <v>405541.5078777178</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12179,7 +12053,7 @@
         <v>406270.4059777178</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12212,7 +12086,7 @@
         <v>406006.5335777178</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12245,7 +12119,7 @@
         <v>408245.9219777178</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12278,7 +12152,7 @@
         <v>408245.9219777178</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12311,7 +12185,7 @@
         <v>408245.9219777178</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12344,7 +12218,7 @@
         <v>412765.9219777178</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12377,7 +12251,7 @@
         <v>412787.9219777178</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12410,7 +12284,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12443,7 +12317,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12476,7 +12350,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12509,7 +12383,7 @@
         <v>420289.0325777178</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12839,7 +12713,7 @@
         <v>410920.5341777178</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12872,7 +12746,7 @@
         <v>408407.2757777178</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12905,7 +12779,7 @@
         <v>391827.1182777177</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12938,7 +12812,7 @@
         <v>392528.4042777178</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12971,7 +12845,7 @@
         <v>392528.4042777178</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13004,7 +12878,7 @@
         <v>394538.4042777178</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13037,7 +12911,7 @@
         <v>394538.4042777178</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13070,7 +12944,7 @@
         <v>394538.4042777178</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13103,7 +12977,7 @@
         <v>394198.4042777178</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13136,7 +13010,7 @@
         <v>394150.6621777178</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13169,7 +13043,7 @@
         <v>394150.6621777178</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13202,7 +13076,7 @@
         <v>394150.6621777178</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13235,7 +13109,7 @@
         <v>394151.6621777178</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13268,7 +13142,7 @@
         <v>394151.6621777178</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13301,7 +13175,7 @@
         <v>391226.1722777178</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13334,7 +13208,7 @@
         <v>405115.0611666067</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13367,7 +13241,7 @@
         <v>405083.2530666066</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13400,7 +13274,7 @@
         <v>385691.2928986756</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13433,7 +13307,7 @@
         <v>390661.2928986756</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13466,7 +13340,7 @@
         <v>390661.2928986756</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13499,7 +13373,7 @@
         <v>390661.2928986756</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13532,7 +13406,7 @@
         <v>390692.3936986756</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13565,7 +13439,7 @@
         <v>390692.3936986756</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13598,7 +13472,7 @@
         <v>390673.3020986756</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13631,7 +13505,7 @@
         <v>390673.3020986756</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13664,7 +13538,7 @@
         <v>391986.2914986757</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13697,7 +13571,7 @@
         <v>390376.1336986757</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13730,7 +13604,7 @@
         <v>390376.1336986757</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13763,7 +13637,7 @@
         <v>389095.5821986757</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13796,7 +13670,7 @@
         <v>389095.5821986757</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13829,7 +13703,7 @@
         <v>389155.5565986757</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13862,7 +13736,7 @@
         <v>386187.6084986757</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13895,7 +13769,7 @@
         <v>386187.6084986757</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13928,7 +13802,7 @@
         <v>386436.2224986757</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13961,7 +13835,7 @@
         <v>379944.8503986757</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13994,7 +13868,7 @@
         <v>379944.8503986757</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14027,7 +13901,7 @@
         <v>380038.7583986757</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14060,7 +13934,7 @@
         <v>381346.0627986757</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14093,7 +13967,7 @@
         <v>381346.0627986757</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14126,7 +14000,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14159,7 +14033,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14192,7 +14066,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14225,7 +14099,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14258,7 +14132,7 @@
         <v>379316.9606986757</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14291,7 +14165,7 @@
         <v>379126.6125986757</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14324,7 +14198,7 @@
         <v>379126.6125986757</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14357,7 +14231,7 @@
         <v>379126.6125986757</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14390,7 +14264,7 @@
         <v>382683.2696986757</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14423,7 +14297,7 @@
         <v>366140.1906986757</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14456,7 +14330,7 @@
         <v>360733.4399986757</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14489,7 +14363,7 @@
         <v>357553.4399986757</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14522,7 +14396,7 @@
         <v>368875.8272986757</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14555,7 +14429,7 @@
         <v>368812.6676986757</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14588,7 +14462,7 @@
         <v>368812.6676986757</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14621,7 +14495,7 @@
         <v>368812.6676986757</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14654,7 +14528,7 @@
         <v>368832.9219986757</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14687,7 +14561,7 @@
         <v>368832.9219986757</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14720,7 +14594,7 @@
         <v>367611.1942986757</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14753,7 +14627,7 @@
         <v>367617.6536986757</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14786,7 +14660,7 @@
         <v>367014.5361310701</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14819,7 +14693,7 @@
         <v>352596.3884310701</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14852,7 +14726,7 @@
         <v>352615.5281310701</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14885,7 +14759,7 @@
         <v>357253.3668310701</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14918,7 +14792,7 @@
         <v>356716.7583310701</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14951,7 +14825,7 @@
         <v>356716.7583310701</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14984,7 +14858,7 @@
         <v>362576.3111310701</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15017,7 +14891,7 @@
         <v>363558.767271421</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15050,7 +14924,7 @@
         <v>363005.185871421</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15083,7 +14957,7 @@
         <v>363005.185871421</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15116,7 +14990,7 @@
         <v>363006.485871421</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15149,7 +15023,7 @@
         <v>363006.485871421</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15182,7 +15056,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15215,7 +15089,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15248,7 +15122,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15281,7 +15155,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15314,7 +15188,7 @@
         <v>362006.485871421</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15347,7 +15221,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15380,7 +15254,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15413,7 +15287,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15446,7 +15320,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15479,7 +15353,7 @@
         <v>361291.144471421</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15512,7 +15386,7 @@
         <v>352872.215471421</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15545,7 +15419,7 @@
         <v>352872.215471421</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16315,6 +16189,6 @@
       <c r="M461" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest BAT.xlsx
+++ b/BackTest/2019-10-24 BackTest BAT.xlsx
@@ -583,10 +583,14 @@
         <v>80149.06901573818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>295</v>
+      </c>
+      <c r="J6" t="n">
+        <v>295</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +620,19 @@
         <v>80149.06901573818</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>296</v>
+      </c>
+      <c r="J7" t="n">
+        <v>295</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,19 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>296</v>
+      </c>
+      <c r="J8" t="n">
+        <v>295</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +702,14 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>295</v>
+      </c>
+      <c r="J9" t="n">
+        <v>295</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +739,19 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>295</v>
+      </c>
+      <c r="J10" t="n">
+        <v>295</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +780,19 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>295</v>
+      </c>
+      <c r="J11" t="n">
+        <v>295</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +821,14 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>295</v>
+      </c>
+      <c r="J12" t="n">
+        <v>295</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +858,19 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>295</v>
+      </c>
+      <c r="J13" t="n">
+        <v>295</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +899,19 @@
         <v>77988.12911573818</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>295</v>
+      </c>
+      <c r="J14" t="n">
+        <v>295</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -946,10 +1006,14 @@
         <v>66829.93151573819</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>295</v>
+      </c>
+      <c r="J17" t="n">
+        <v>295</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -979,11 +1043,19 @@
         <v>66829.93151573819</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>294</v>
+      </c>
+      <c r="J18" t="n">
+        <v>295</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1087,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>295</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,10 +1123,14 @@
         <v>66829.93151573819</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>294</v>
+      </c>
+      <c r="J20" t="n">
+        <v>294</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1078,11 +1160,19 @@
         <v>57779.26661573819</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>294</v>
+      </c>
+      <c r="J21" t="n">
+        <v>294</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1201,19 @@
         <v>57779.26661573819</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>293</v>
+      </c>
+      <c r="J22" t="n">
+        <v>294</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1245,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>294</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1284,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>294</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1320,19 @@
         <v>49431.20354907153</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>290</v>
+      </c>
+      <c r="J25" t="n">
+        <v>294</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1361,19 @@
         <v>49431.20354907153</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>291</v>
+      </c>
+      <c r="J26" t="n">
+        <v>294</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1405,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>294</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1441,19 @@
         <v>50434.58284907153</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>292</v>
+      </c>
+      <c r="J28" t="n">
+        <v>294</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1482,19 @@
         <v>46884.98594907153</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>291</v>
+      </c>
+      <c r="J29" t="n">
+        <v>294</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1523,19 @@
         <v>46884.98594907153</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>290</v>
+      </c>
+      <c r="J30" t="n">
+        <v>294</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1564,19 @@
         <v>43601.18944907153</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>290</v>
+      </c>
+      <c r="J31" t="n">
+        <v>294</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1605,19 @@
         <v>49497.79104907154</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>289</v>
+      </c>
+      <c r="J32" t="n">
+        <v>294</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1646,19 @@
         <v>49497.79104907154</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>291</v>
+      </c>
+      <c r="J33" t="n">
+        <v>294</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1687,19 @@
         <v>48456.00184907154</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>291</v>
+      </c>
+      <c r="J34" t="n">
+        <v>294</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1728,19 @@
         <v>48456.00184907154</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>290</v>
+      </c>
+      <c r="J35" t="n">
+        <v>294</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1769,19 @@
         <v>49135.57844907154</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>290</v>
+      </c>
+      <c r="J36" t="n">
+        <v>294</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1810,19 @@
         <v>52385.28144907154</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>293</v>
+      </c>
+      <c r="J37" t="n">
+        <v>294</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1854,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>294</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1890,19 @@
         <v>48029.89374907154</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>290</v>
+      </c>
+      <c r="J39" t="n">
+        <v>294</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1931,19 @@
         <v>37676.64684907154</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>290</v>
+      </c>
+      <c r="J40" t="n">
+        <v>294</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1972,19 @@
         <v>39515.23954907154</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>289</v>
+      </c>
+      <c r="J41" t="n">
+        <v>294</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>294</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,15 +2052,17 @@
         <v>39785.41124907154</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>292</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>294</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,17 +2091,15 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1882,13 +2130,11 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1927,7 +2173,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -1962,13 +2208,11 @@
         <v>53049.35344907155</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2007,7 +2251,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2042,13 +2286,11 @@
         <v>56287.24784907155</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2087,7 +2329,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2126,7 +2368,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2165,7 +2407,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2200,11 +2442,13 @@
         <v>28196.61594907155</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>288</v>
+      </c>
       <c r="J53" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2239,11 +2483,13 @@
         <v>40583.18454907156</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>289</v>
+      </c>
       <c r="J54" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2278,11 +2524,13 @@
         <v>40382.27824907155</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>290</v>
+      </c>
       <c r="J55" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2317,11 +2565,13 @@
         <v>40972.47674907155</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>288</v>
+      </c>
       <c r="J56" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2356,11 +2606,13 @@
         <v>40972.47674907155</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>290</v>
+      </c>
       <c r="J57" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2395,11 +2647,13 @@
         <v>39779.47674907155</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>290</v>
+      </c>
       <c r="J58" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2434,11 +2688,13 @@
         <v>39795.39134907155</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>285</v>
+      </c>
       <c r="J59" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2473,11 +2729,13 @@
         <v>38300.92924907155</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>290</v>
+      </c>
       <c r="J60" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2512,11 +2770,13 @@
         <v>38300.92924907155</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>289</v>
+      </c>
       <c r="J61" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2551,11 +2811,13 @@
         <v>38288.52394907155</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>289</v>
+      </c>
       <c r="J62" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2590,11 +2852,13 @@
         <v>65993.61514907156</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>288</v>
+      </c>
       <c r="J63" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2633,7 +2897,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2668,11 +2932,13 @@
         <v>61195.69204907156</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>290</v>
+      </c>
       <c r="J65" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2711,7 +2977,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2752,7 +3018,7 @@
         <v>288</v>
       </c>
       <c r="J67" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2787,11 +3053,13 @@
         <v>58266.93694907155</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>286</v>
+      </c>
       <c r="J68" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2826,11 +3094,13 @@
         <v>58266.93694907155</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>285</v>
+      </c>
       <c r="J69" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2865,11 +3135,13 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>285</v>
+      </c>
       <c r="J70" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2910,7 +3182,7 @@
         <v>284</v>
       </c>
       <c r="J71" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2945,11 +3217,13 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>284</v>
+      </c>
       <c r="J72" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2984,11 +3258,13 @@
         <v>57161.11254380839</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>284</v>
+      </c>
       <c r="J73" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3027,7 +3303,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3068,7 +3344,7 @@
         <v>287</v>
       </c>
       <c r="J75" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3107,7 +3383,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3142,11 +3418,13 @@
         <v>74840.96794380838</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>288</v>
+      </c>
       <c r="J77" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3181,11 +3459,13 @@
         <v>74840.96794380838</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>284</v>
+      </c>
       <c r="J78" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3220,11 +3500,13 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>284</v>
+      </c>
       <c r="J79" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3259,11 +3541,13 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>286</v>
+      </c>
       <c r="J80" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3298,11 +3582,13 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>286</v>
+      </c>
       <c r="J81" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3341,7 +3627,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3376,11 +3662,13 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>286</v>
+      </c>
       <c r="J83" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3419,7 +3707,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3454,11 +3742,13 @@
         <v>74593.50064380838</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>286</v>
+      </c>
       <c r="J85" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3493,11 +3783,13 @@
         <v>79810.91434380838</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>285</v>
+      </c>
       <c r="J86" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3532,11 +3824,13 @@
         <v>79810.91434380838</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>287</v>
+      </c>
       <c r="J87" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3575,7 +3869,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3610,11 +3904,13 @@
         <v>50341.84224380839</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>284</v>
+      </c>
       <c r="J89" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3649,11 +3945,13 @@
         <v>50341.84224380839</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>283</v>
+      </c>
       <c r="J90" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3688,11 +3986,13 @@
         <v>50341.84224380839</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>283</v>
+      </c>
       <c r="J91" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3733,7 +4033,7 @@
         <v>283</v>
       </c>
       <c r="J92" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3774,7 +4074,7 @@
         <v>285</v>
       </c>
       <c r="J93" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3809,11 +4109,13 @@
         <v>73211.84224380839</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>288</v>
+      </c>
       <c r="J94" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3852,7 +4154,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3887,11 +4189,13 @@
         <v>90640.69764380839</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>289</v>
+      </c>
       <c r="J96" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3930,7 +4234,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3969,7 +4273,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4008,7 +4312,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4047,7 +4351,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4086,7 +4390,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4125,7 +4429,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4164,7 +4468,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4203,7 +4507,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4242,7 +4546,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4277,11 +4581,13 @@
         <v>83774.15854380839</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>287</v>
+      </c>
       <c r="J106" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4320,7 +4626,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4359,7 +4665,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4398,7 +4704,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4437,7 +4743,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4476,7 +4782,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4515,7 +4821,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4554,7 +4860,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4593,7 +4899,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4632,7 +4938,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4671,7 +4977,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4710,7 +5016,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4749,7 +5055,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4788,7 +5094,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4823,11 +5129,13 @@
         <v>65572.05424380839</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>287</v>
+      </c>
       <c r="J120" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4866,7 +5174,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4901,11 +5209,13 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>287</v>
+      </c>
       <c r="J122" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4940,11 +5250,13 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>285</v>
+      </c>
       <c r="J123" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4979,11 +5291,13 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>285</v>
+      </c>
       <c r="J124" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5018,11 +5332,13 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>285</v>
+      </c>
       <c r="J125" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5057,11 +5373,13 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>283</v>
+      </c>
       <c r="J126" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5096,11 +5414,13 @@
         <v>66054.64374380838</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>283</v>
+      </c>
       <c r="J127" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5135,11 +5455,13 @@
         <v>66054.64374380838</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>284</v>
+      </c>
       <c r="J128" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5174,11 +5496,13 @@
         <v>23591.98404380838</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>284</v>
+      </c>
       <c r="J129" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5213,11 +5537,13 @@
         <v>23727.71344380838</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>280</v>
+      </c>
       <c r="J130" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5252,11 +5578,13 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>281</v>
+      </c>
       <c r="J131" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5291,11 +5619,13 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>283</v>
+      </c>
       <c r="J132" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5330,11 +5660,13 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>283</v>
+      </c>
       <c r="J133" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5369,11 +5701,13 @@
         <v>43833.78184380839</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>283</v>
+      </c>
       <c r="J134" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5408,11 +5742,13 @@
         <v>57946.52084380839</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>288</v>
+      </c>
       <c r="J135" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5447,19 +5783,19 @@
         <v>57926.37644380839</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>0.9847260273972602</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
@@ -5486,11 +5822,17 @@
         <v>55734.68814380839</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>294</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5861,19 @@
         <v>50700.88954380839</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>285</v>
+      </c>
+      <c r="J138" t="n">
+        <v>294</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5555,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>294</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5588,8 +5944,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>294</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5980,19 @@
         <v>48942.73764380839</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>281</v>
+      </c>
+      <c r="J141" t="n">
+        <v>294</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5651,11 +6021,19 @@
         <v>48952.73764380839</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>282</v>
+      </c>
+      <c r="J142" t="n">
+        <v>294</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5684,11 +6062,19 @@
         <v>46452.73764380839</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>283</v>
+      </c>
+      <c r="J143" t="n">
+        <v>294</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5717,11 +6103,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>281</v>
+      </c>
+      <c r="J144" t="n">
+        <v>294</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +6144,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>282</v>
+      </c>
+      <c r="J145" t="n">
+        <v>294</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +6185,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>282</v>
+      </c>
+      <c r="J146" t="n">
+        <v>294</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +6226,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>282</v>
+      </c>
+      <c r="J147" t="n">
+        <v>294</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +6267,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>282</v>
+      </c>
+      <c r="J148" t="n">
+        <v>294</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5882,11 +6308,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>282</v>
+      </c>
+      <c r="J149" t="n">
+        <v>294</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5915,11 +6349,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>282</v>
+      </c>
+      <c r="J150" t="n">
+        <v>294</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +6390,19 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>282</v>
+      </c>
+      <c r="J151" t="n">
+        <v>294</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5981,11 +6431,19 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>282</v>
+      </c>
+      <c r="J152" t="n">
+        <v>294</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6014,11 +6472,19 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>285</v>
+      </c>
+      <c r="J153" t="n">
+        <v>294</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6047,11 +6513,19 @@
         <v>43941.4205438084</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>285</v>
+      </c>
+      <c r="J154" t="n">
+        <v>294</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6080,11 +6554,19 @@
         <v>43941.4205438084</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>284</v>
+      </c>
+      <c r="J155" t="n">
+        <v>294</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6113,11 +6595,19 @@
         <v>43941.4205438084</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>284</v>
+      </c>
+      <c r="J156" t="n">
+        <v>294</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6146,11 +6636,19 @@
         <v>43991.3205438084</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>284</v>
+      </c>
+      <c r="J157" t="n">
+        <v>294</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6179,11 +6677,19 @@
         <v>41791.3205438084</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>286</v>
+      </c>
+      <c r="J158" t="n">
+        <v>294</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +6718,19 @@
         <v>41791.3205438084</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>284</v>
+      </c>
+      <c r="J159" t="n">
+        <v>294</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +6759,19 @@
         <v>48760.10233091641</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>284</v>
+      </c>
+      <c r="J160" t="n">
+        <v>294</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +6800,19 @@
         <v>48960.10233091641</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>287</v>
+      </c>
+      <c r="J161" t="n">
+        <v>294</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +6841,19 @@
         <v>48960.10233091641</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>291</v>
+      </c>
+      <c r="J162" t="n">
+        <v>294</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6347,8 +6885,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>294</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +6921,19 @@
         <v>47794.12013091641</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>290</v>
+      </c>
+      <c r="J164" t="n">
+        <v>294</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6410,11 +6962,19 @@
         <v>47794.12013091641</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>290</v>
+      </c>
+      <c r="J165" t="n">
+        <v>294</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6443,11 +7003,19 @@
         <v>47824.81123091641</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>290</v>
+      </c>
+      <c r="J166" t="n">
+        <v>294</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +7044,19 @@
         <v>53294.82933091641</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>291</v>
+      </c>
+      <c r="J167" t="n">
+        <v>294</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6509,11 +7085,19 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>292</v>
+      </c>
+      <c r="J168" t="n">
+        <v>294</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6542,11 +7126,19 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>291</v>
+      </c>
+      <c r="J169" t="n">
+        <v>294</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6575,11 +7167,19 @@
         <v>53344.25203091641</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>291</v>
+      </c>
+      <c r="J170" t="n">
+        <v>294</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6608,11 +7208,17 @@
         <v>57255.37733091641</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>294</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6641,11 +7247,17 @@
         <v>57760.08813091641</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>294</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6674,11 +7286,17 @@
         <v>61760.92143091641</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>294</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6707,11 +7325,17 @@
         <v>107130.9180309164</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>294</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6743,8 +7367,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>294</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6776,8 +7406,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>294</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6809,8 +7445,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>294</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6842,8 +7484,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>294</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6875,8 +7523,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>294</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6908,8 +7562,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>294</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6941,8 +7601,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>294</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6974,8 +7640,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>294</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7007,8 +7679,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>294</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7040,8 +7718,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>294</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7073,8 +7757,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>294</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7106,8 +7796,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>294</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7139,8 +7835,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>294</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7172,8 +7874,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>294</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7205,8 +7913,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>294</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7238,8 +7952,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>294</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7271,8 +7991,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>294</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7304,8 +8030,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>294</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7334,13 +8066,19 @@
         <v>113644.7201777178</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>294</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>1.015408163265306</v>
       </c>
       <c r="M193" t="inlineStr"/>
     </row>
@@ -7367,7 +8105,7 @@
         <v>125674.2437777178</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7400,7 +8138,7 @@
         <v>124680.2437777178</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7433,7 +8171,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7466,7 +8204,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7499,7 +8237,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7532,7 +8270,7 @@
         <v>127237.6040777178</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7565,7 +8303,7 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7598,7 +8336,7 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7631,7 +8369,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7664,7 +8402,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7697,7 +8435,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7730,7 +8468,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8720,7 +9458,7 @@
         <v>113325.2303777178</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8753,7 +9491,7 @@
         <v>92807.51257771776</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8786,7 +9524,7 @@
         <v>90292.46557771775</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9974,10 +10712,14 @@
         <v>88223.58837771775</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>291</v>
+      </c>
+      <c r="J273" t="n">
+        <v>291</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
@@ -10010,8 +10752,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>291</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10043,8 +10791,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>291</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -12416,7 +13170,7 @@
         <v>419421.2941777178</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12449,7 +13203,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12482,7 +13236,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12515,7 +13269,7 @@
         <v>416749.3328777178</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12548,7 +13302,7 @@
         <v>418099.5878777178</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12581,7 +13335,7 @@
         <v>415651.3940777178</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12614,7 +13368,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12647,7 +13401,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12680,7 +13434,7 @@
         <v>410894.7711777178</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
